--- a/references/utx000ext_timelines.xlsx
+++ b/references/utx000ext_timelines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hagenfritz/Projects/utx000/references/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5FEAD8-32F5-8047-A1D2-8DC5EE2B2113}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99F27A8-3A1E-5541-9728-524D276D53CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A42CCD86-71DD-4C4D-87F8-705DB24E1636}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>Event 1</t>
   </si>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D07724-71E6-3C40-BDBC-6CE123708DF5}">
   <dimension ref="A1:BC31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AT16" sqref="AT16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1404,6 +1404,9 @@
       </c>
     </row>
     <row r="31" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B31" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="AP31" s="14" t="s">
         <v>29</v>
       </c>

--- a/references/utx000ext_timelines.xlsx
+++ b/references/utx000ext_timelines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hagenfritz/Projects/utx000/references/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99F27A8-3A1E-5541-9728-524D276D53CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3852BB8-71F8-284E-8E09-CA5F7EEF8A4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A42CCD86-71DD-4C4D-87F8-705DB24E1636}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A42CCD86-71DD-4C4D-87F8-705DB24E1636}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>Event 1</t>
   </si>
@@ -156,13 +156,19 @@
   </si>
   <si>
     <t>6, 19, 36, 40, 46, 48</t>
+  </si>
+  <si>
+    <t>CRISIS Adult Follow-Up</t>
+  </si>
+  <si>
+    <t>Event 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -206,8 +212,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +245,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -335,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -368,6 +387,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -380,9 +403,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,26 +721,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D07724-71E6-3C40-BDBC-6CE123708DF5}">
-  <dimension ref="A1:BC31"/>
+  <dimension ref="A1:BL31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="BF1" workbookViewId="0">
+      <selection activeCell="BL11" sqref="BL11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.2">
       <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="BL1" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.2">
       <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="BL2" s="1"/>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.2">
       <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
@@ -728,8 +755,11 @@
       <c r="AB3" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="BL3" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.2">
       <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
@@ -738,8 +768,9 @@
       <c r="AB4" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="BL4" s="1"/>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.2">
       <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
@@ -761,8 +792,9 @@
       <c r="AO5" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="BL5" s="1"/>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.2">
       <c r="C6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="2"/>
@@ -770,12 +802,13 @@
       <c r="K6" s="2"/>
       <c r="AB6" s="1"/>
       <c r="AO6" s="1"/>
-    </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="BL6" s="1"/>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="4">
         <v>43945</v>
       </c>
@@ -935,24 +968,51 @@
       <c r="BC7" s="6">
         <v>43997</v>
       </c>
-    </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="BD7" s="5">
+        <v>43998</v>
+      </c>
+      <c r="BE7" s="6">
+        <v>43999</v>
+      </c>
+      <c r="BF7" s="5">
+        <v>44000</v>
+      </c>
+      <c r="BG7" s="6">
+        <v>44001</v>
+      </c>
+      <c r="BH7" s="5">
+        <v>44002</v>
+      </c>
+      <c r="BI7" s="6">
+        <v>44003</v>
+      </c>
+      <c r="BJ7" s="5">
+        <v>44004</v>
+      </c>
+      <c r="BK7" s="5">
+        <v>44005</v>
+      </c>
+      <c r="BL7" s="4">
+        <v>44006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.2">
       <c r="B8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
         <v>22</v>
       </c>
@@ -960,28 +1020,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.2">
       <c r="B10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AB10" s="16" t="s">
+      <c r="AB10" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="16"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="16"/>
-    </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="18"/>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="18"/>
+      <c r="AM10" s="18"/>
+      <c r="AN10" s="18"/>
+      <c r="AO10" s="18"/>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="BL11" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
@@ -998,10 +1063,10 @@
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="11">
         <v>43945</v>
       </c>
@@ -1200,7 +1265,7 @@
       <c r="AZ26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BC26" s="20" t="s">
+      <c r="BC26" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1227,10 +1292,10 @@
       <c r="BC28" s="1"/>
     </row>
     <row r="29" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="17"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="11">
         <v>43945</v>
       </c>
@@ -1387,7 +1452,7 @@
       <c r="BB29" s="12">
         <v>43996</v>
       </c>
-      <c r="BC29" s="21">
+      <c r="BC29" s="17">
         <v>43997</v>
       </c>
     </row>

--- a/references/utx000ext_timelines.xlsx
+++ b/references/utx000ext_timelines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hagenfritz/Projects/utx000/references/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3852BB8-71F8-284E-8E09-CA5F7EEF8A4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B054669E-142A-134A-A88B-26C82ABC512E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A42CCD86-71DD-4C4D-87F8-705DB24E1636}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
   <si>
     <t>Event 1</t>
   </si>
@@ -162,13 +162,67 @@
   </si>
   <si>
     <t>Event 4</t>
+  </si>
+  <si>
+    <t>Notes 4:</t>
+  </si>
+  <si>
+    <t>BPEACE Home Environment and Health Survey</t>
+  </si>
+  <si>
+    <t>UT Spring Break</t>
+  </si>
+  <si>
+    <t>UT Spring Break Extension</t>
+  </si>
+  <si>
+    <t>UT News:</t>
+  </si>
+  <si>
+    <t>Austin News:</t>
+  </si>
+  <si>
+    <t>Survey Distribution</t>
+  </si>
+  <si>
+    <t>Survey and Sensor Info</t>
+  </si>
+  <si>
+    <t>Fitbit Info</t>
+  </si>
+  <si>
+    <t>Beacon Info</t>
+  </si>
+  <si>
+    <t>Study Legend</t>
+  </si>
+  <si>
+    <t>BPEACE</t>
+  </si>
+  <si>
+    <t>UTx000 Ext.</t>
+  </si>
+  <si>
+    <t>State of Disaster</t>
+  </si>
+  <si>
+    <t>Order of Control for Mass Gatherings</t>
+  </si>
+  <si>
+    <t>Stay at Home - Work Safe Order</t>
+  </si>
+  <si>
+    <t>Order to Expand Openings</t>
+  </si>
+  <si>
+    <t>For more info, see here: http://austintexas.gov/covid19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -219,8 +273,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,6 +331,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,59 +467,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,783 +861,1740 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D07724-71E6-3C40-BDBC-6CE123708DF5}">
-  <dimension ref="A1:BL31"/>
+  <dimension ref="A1:EF42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BF1" workbookViewId="0">
-      <selection activeCell="BL11" sqref="BL11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="C1" s="8" t="s">
+    <row r="1" spans="1:136" x14ac:dyDescent="0.2">
+      <c r="B1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BW1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BL1" s="22" t="s">
+      <c r="EF1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="C2" s="8" t="s">
+    <row r="2" spans="1:136" x14ac:dyDescent="0.2">
+      <c r="B2" s="24"/>
+      <c r="C2" s="1"/>
+      <c r="BW2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="BL2" s="1"/>
-    </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="C3" s="8" t="s">
+      <c r="BY2" s="3"/>
+      <c r="EF2" s="1"/>
+    </row>
+    <row r="3" spans="1:136" x14ac:dyDescent="0.2">
+      <c r="B3" s="24"/>
+      <c r="C3" s="1"/>
+      <c r="BW3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="I3" s="9" t="s">
+      <c r="BY3" s="3"/>
+      <c r="CC3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="CV3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="BL3" s="22" t="s">
+      <c r="EF3" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="C4" s="8" t="s">
+    <row r="4" spans="1:136" x14ac:dyDescent="0.2">
+      <c r="B4" s="24"/>
+      <c r="C4" s="1"/>
+      <c r="BW4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="I4" s="1"/>
-      <c r="AB4" s="10" t="s">
+      <c r="BY4" s="3"/>
+      <c r="CC4" s="1"/>
+      <c r="CV4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="BL4" s="1"/>
-    </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="C5" s="8" t="s">
+      <c r="EF4" s="1"/>
+    </row>
+    <row r="5" spans="1:136" x14ac:dyDescent="0.2">
+      <c r="B5" s="24"/>
+      <c r="C5" s="1"/>
+      <c r="BW5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="BY5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="CA5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="CC5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="CE5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="10" t="s">
+      <c r="CV5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AO5" s="10" t="s">
+      <c r="DI5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="BL5" s="1"/>
-    </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="C6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="AB6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="BL6" s="1"/>
-    </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="EF5" s="1"/>
+    </row>
+    <row r="6" spans="1:136" x14ac:dyDescent="0.2">
+      <c r="B6" s="24"/>
+      <c r="C6" s="1"/>
+      <c r="BW6" s="2"/>
+      <c r="BY6" s="2"/>
+      <c r="CA6" s="2"/>
+      <c r="CC6" s="2"/>
+      <c r="CE6" s="2"/>
+      <c r="CV6" s="1"/>
+      <c r="DI6" s="1"/>
+      <c r="EF6" s="1"/>
+    </row>
+    <row r="7" spans="1:136" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="4">
+      <c r="B7" s="33"/>
+      <c r="C7" s="19">
+        <v>43873</v>
+      </c>
+      <c r="D7" s="19">
+        <v>43874</v>
+      </c>
+      <c r="E7" s="19">
+        <v>43875</v>
+      </c>
+      <c r="F7" s="19">
+        <v>43876</v>
+      </c>
+      <c r="G7" s="19">
+        <v>43877</v>
+      </c>
+      <c r="H7" s="19">
+        <v>43878</v>
+      </c>
+      <c r="I7" s="19">
+        <v>43879</v>
+      </c>
+      <c r="J7" s="19">
+        <v>43880</v>
+      </c>
+      <c r="K7" s="19">
+        <v>43881</v>
+      </c>
+      <c r="L7" s="19">
+        <v>43882</v>
+      </c>
+      <c r="M7" s="19">
+        <v>43883</v>
+      </c>
+      <c r="N7" s="19">
+        <v>43884</v>
+      </c>
+      <c r="O7" s="19">
+        <v>43885</v>
+      </c>
+      <c r="P7" s="19">
+        <v>43886</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>43887</v>
+      </c>
+      <c r="R7" s="19">
+        <v>43888</v>
+      </c>
+      <c r="S7" s="19">
+        <v>43889</v>
+      </c>
+      <c r="T7" s="19">
+        <v>43890</v>
+      </c>
+      <c r="U7" s="19">
+        <v>43891</v>
+      </c>
+      <c r="V7" s="19">
+        <v>43892</v>
+      </c>
+      <c r="W7" s="19">
+        <v>43893</v>
+      </c>
+      <c r="X7" s="19">
+        <v>43894</v>
+      </c>
+      <c r="Y7" s="19">
+        <v>43895</v>
+      </c>
+      <c r="Z7" s="19">
+        <v>43896</v>
+      </c>
+      <c r="AA7" s="19">
+        <v>43897</v>
+      </c>
+      <c r="AB7" s="19">
+        <v>43898</v>
+      </c>
+      <c r="AC7" s="19">
+        <v>43899</v>
+      </c>
+      <c r="AD7" s="19">
+        <v>43900</v>
+      </c>
+      <c r="AE7" s="19">
+        <v>43901</v>
+      </c>
+      <c r="AF7" s="19">
+        <v>43902</v>
+      </c>
+      <c r="AG7" s="19">
+        <v>43903</v>
+      </c>
+      <c r="AH7" s="35">
+        <v>43904</v>
+      </c>
+      <c r="AI7" s="19">
+        <v>43905</v>
+      </c>
+      <c r="AJ7" s="16">
+        <v>43906</v>
+      </c>
+      <c r="AK7" s="16">
+        <v>43907</v>
+      </c>
+      <c r="AL7" s="16">
+        <v>43908</v>
+      </c>
+      <c r="AM7" s="16">
+        <v>43909</v>
+      </c>
+      <c r="AN7" s="16">
+        <v>43910</v>
+      </c>
+      <c r="AO7" s="16">
+        <v>43911</v>
+      </c>
+      <c r="AP7" s="16">
+        <v>43912</v>
+      </c>
+      <c r="AQ7" s="16">
+        <v>43913</v>
+      </c>
+      <c r="AR7" s="38">
+        <v>43914</v>
+      </c>
+      <c r="AS7" s="16">
+        <v>43915</v>
+      </c>
+      <c r="AT7" s="16">
+        <v>43916</v>
+      </c>
+      <c r="AU7" s="16">
+        <v>43917</v>
+      </c>
+      <c r="AV7" s="16">
+        <v>43918</v>
+      </c>
+      <c r="AW7" s="16">
+        <v>43919</v>
+      </c>
+      <c r="AX7" s="16">
+        <v>43920</v>
+      </c>
+      <c r="AY7" s="16">
+        <v>43921</v>
+      </c>
+      <c r="AZ7" s="16">
+        <v>43922</v>
+      </c>
+      <c r="BA7" s="16">
+        <v>43923</v>
+      </c>
+      <c r="BB7" s="16">
+        <v>43924</v>
+      </c>
+      <c r="BC7" s="16">
+        <v>43925</v>
+      </c>
+      <c r="BD7" s="16">
+        <v>43926</v>
+      </c>
+      <c r="BE7" s="16">
+        <v>43927</v>
+      </c>
+      <c r="BF7" s="16">
+        <v>43928</v>
+      </c>
+      <c r="BG7" s="16">
+        <v>43929</v>
+      </c>
+      <c r="BH7" s="16">
+        <v>43930</v>
+      </c>
+      <c r="BI7" s="16">
+        <v>43931</v>
+      </c>
+      <c r="BJ7" s="16">
+        <v>43932</v>
+      </c>
+      <c r="BK7" s="16">
+        <v>43933</v>
+      </c>
+      <c r="BL7" s="16">
+        <v>43934</v>
+      </c>
+      <c r="BM7" s="16">
+        <v>43935</v>
+      </c>
+      <c r="BN7" s="16">
+        <v>43936</v>
+      </c>
+      <c r="BO7" s="16">
+        <v>43937</v>
+      </c>
+      <c r="BP7" s="16">
+        <v>43938</v>
+      </c>
+      <c r="BQ7" s="16">
+        <v>43939</v>
+      </c>
+      <c r="BR7" s="16">
+        <v>43940</v>
+      </c>
+      <c r="BS7" s="16">
+        <v>43941</v>
+      </c>
+      <c r="BT7" s="16">
+        <v>43942</v>
+      </c>
+      <c r="BU7" s="16">
+        <v>43943</v>
+      </c>
+      <c r="BV7" s="16">
+        <v>43944</v>
+      </c>
+      <c r="BW7" s="20">
         <v>43945</v>
       </c>
-      <c r="D7" s="5">
+      <c r="BX7" s="21">
         <v>43946</v>
       </c>
-      <c r="E7" s="4">
+      <c r="BY7" s="20">
         <v>43947</v>
       </c>
-      <c r="F7" s="5">
+      <c r="BZ7" s="21">
         <v>43948</v>
       </c>
-      <c r="G7" s="4">
+      <c r="CA7" s="20">
         <v>43949</v>
       </c>
-      <c r="H7" s="5">
+      <c r="CB7" s="21">
         <v>43950</v>
       </c>
-      <c r="I7" s="4">
+      <c r="CC7" s="20">
         <v>43951</v>
       </c>
-      <c r="J7" s="5">
+      <c r="CD7" s="21">
         <v>43952</v>
       </c>
-      <c r="K7" s="4">
+      <c r="CE7" s="20">
         <v>43953</v>
       </c>
-      <c r="L7" s="5">
+      <c r="CF7" s="21">
         <v>43954</v>
       </c>
-      <c r="M7" s="5">
+      <c r="CG7" s="21">
         <v>43955</v>
       </c>
-      <c r="N7" s="5">
+      <c r="CH7" s="21">
         <v>43956</v>
       </c>
-      <c r="O7" s="5">
+      <c r="CI7" s="21">
         <v>43957</v>
       </c>
-      <c r="P7" s="5">
+      <c r="CJ7" s="21">
         <v>43958</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="CK7" s="21">
         <v>43959</v>
       </c>
-      <c r="R7" s="5">
+      <c r="CL7" s="21">
         <v>43960</v>
       </c>
-      <c r="S7" s="5">
+      <c r="CM7" s="21">
         <v>43961</v>
       </c>
-      <c r="T7" s="5">
+      <c r="CN7" s="21">
         <v>43962</v>
       </c>
-      <c r="U7" s="5">
+      <c r="CO7" s="21">
         <v>43963</v>
       </c>
-      <c r="V7" s="5">
+      <c r="CP7" s="21">
         <v>43964</v>
       </c>
-      <c r="W7" s="5">
+      <c r="CQ7" s="21">
         <v>43965</v>
       </c>
-      <c r="X7" s="5">
+      <c r="CR7" s="21">
         <v>43966</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="CS7" s="21">
         <v>43967</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="CT7" s="21">
         <v>43968</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="CU7" s="21">
         <v>43969</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="CV7" s="20">
         <v>43970</v>
       </c>
-      <c r="AC7" s="5">
+      <c r="CW7" s="21">
         <v>43971</v>
       </c>
-      <c r="AD7" s="5">
+      <c r="CX7" s="21">
         <v>43972</v>
       </c>
-      <c r="AE7" s="5">
+      <c r="CY7" s="21">
         <v>43973</v>
       </c>
-      <c r="AF7" s="5">
+      <c r="CZ7" s="21">
         <v>43974</v>
       </c>
-      <c r="AG7" s="5">
+      <c r="DA7" s="21">
         <v>43975</v>
       </c>
-      <c r="AH7" s="5">
+      <c r="DB7" s="21">
         <v>43976</v>
       </c>
-      <c r="AI7" s="5">
+      <c r="DC7" s="21">
         <v>43977</v>
       </c>
-      <c r="AJ7" s="5">
+      <c r="DD7" s="21">
         <v>43978</v>
       </c>
-      <c r="AK7" s="5">
+      <c r="DE7" s="21">
         <v>43979</v>
       </c>
-      <c r="AL7" s="5">
+      <c r="DF7" s="21">
         <v>43980</v>
       </c>
-      <c r="AM7" s="5">
+      <c r="DG7" s="21">
         <v>43981</v>
       </c>
-      <c r="AN7" s="5">
+      <c r="DH7" s="21">
         <v>43982</v>
       </c>
-      <c r="AO7" s="4">
+      <c r="DI7" s="20">
         <v>43983</v>
       </c>
-      <c r="AP7" s="5">
+      <c r="DJ7" s="21">
         <v>43984</v>
       </c>
-      <c r="AQ7" s="5">
+      <c r="DK7" s="21">
         <v>43985</v>
       </c>
-      <c r="AR7" s="5">
+      <c r="DL7" s="21">
         <v>43986</v>
       </c>
-      <c r="AS7" s="5">
+      <c r="DM7" s="21">
         <v>43987</v>
       </c>
-      <c r="AT7" s="5">
+      <c r="DN7" s="21">
         <v>43988</v>
       </c>
-      <c r="AU7" s="5">
+      <c r="DO7" s="21">
         <v>43989</v>
       </c>
-      <c r="AV7" s="5">
+      <c r="DP7" s="21">
         <v>43990</v>
       </c>
-      <c r="AW7" s="5">
+      <c r="DQ7" s="21">
         <v>43991</v>
       </c>
-      <c r="AX7" s="5">
+      <c r="DR7" s="21">
         <v>43992</v>
       </c>
-      <c r="AY7" s="5">
+      <c r="DS7" s="21">
         <v>43993</v>
       </c>
-      <c r="AZ7" s="5">
+      <c r="DT7" s="21">
         <v>43994</v>
       </c>
-      <c r="BA7" s="5">
+      <c r="DU7" s="21">
         <v>43995</v>
       </c>
-      <c r="BB7" s="5">
+      <c r="DV7" s="21">
         <v>43996</v>
       </c>
-      <c r="BC7" s="6">
+      <c r="DW7" s="22">
         <v>43997</v>
       </c>
-      <c r="BD7" s="5">
+      <c r="DX7" s="21">
         <v>43998</v>
       </c>
-      <c r="BE7" s="6">
+      <c r="DY7" s="22">
         <v>43999</v>
       </c>
-      <c r="BF7" s="5">
+      <c r="DZ7" s="21">
         <v>44000</v>
       </c>
-      <c r="BG7" s="6">
+      <c r="EA7" s="22">
         <v>44001</v>
       </c>
-      <c r="BH7" s="5">
+      <c r="EB7" s="21">
         <v>44002</v>
       </c>
-      <c r="BI7" s="6">
+      <c r="EC7" s="22">
         <v>44003</v>
       </c>
-      <c r="BJ7" s="5">
+      <c r="ED7" s="21">
         <v>44004</v>
       </c>
-      <c r="BK7" s="5">
+      <c r="EE7" s="21">
         <v>44005</v>
       </c>
-      <c r="BL7" s="4">
+      <c r="EF7" s="20">
         <v>44006</v>
       </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="B8" s="15" t="s">
+    <row r="8" spans="1:136" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="AI8" s="1"/>
+      <c r="AQ8" s="34"/>
+      <c r="BW8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-    </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="B9" s="15" t="s">
+      <c r="BX8" s="14"/>
+      <c r="BY8" s="14"/>
+      <c r="BZ8" s="14"/>
+      <c r="CA8" s="14"/>
+      <c r="CB8" s="14"/>
+      <c r="CC8" s="14"/>
+      <c r="CD8" s="14"/>
+      <c r="CE8" s="14"/>
+    </row>
+    <row r="9" spans="1:136" x14ac:dyDescent="0.2">
+      <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="AI9" s="1"/>
+      <c r="AQ9" s="34"/>
+      <c r="CC9" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="B10" s="15" t="s">
+    <row r="10" spans="1:136" x14ac:dyDescent="0.2">
+      <c r="B10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AB10" s="18" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="AI10" s="1"/>
+      <c r="AQ10" s="34"/>
+      <c r="CV10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="18"/>
-      <c r="AG10" s="18"/>
-      <c r="AH10" s="18"/>
-      <c r="AI10" s="18"/>
-      <c r="AJ10" s="18"/>
-      <c r="AK10" s="18"/>
-      <c r="AL10" s="18"/>
-      <c r="AM10" s="18"/>
-      <c r="AN10" s="18"/>
-      <c r="AO10" s="18"/>
-    </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="BL11" s="23" t="s">
+      <c r="CW10" s="13"/>
+      <c r="CX10" s="13"/>
+      <c r="CY10" s="13"/>
+      <c r="CZ10" s="13"/>
+      <c r="DA10" s="13"/>
+      <c r="DB10" s="13"/>
+      <c r="DC10" s="13"/>
+      <c r="DD10" s="13"/>
+      <c r="DE10" s="13"/>
+      <c r="DF10" s="13"/>
+      <c r="DG10" s="13"/>
+      <c r="DH10" s="13"/>
+      <c r="DI10" s="13"/>
+    </row>
+    <row r="11" spans="1:136" x14ac:dyDescent="0.2">
+      <c r="B11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI11" s="1"/>
+      <c r="AQ11" s="34"/>
+      <c r="EF11" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="C16" s="1" t="s">
+    <row r="12" spans="1:136" x14ac:dyDescent="0.2">
+      <c r="B12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK12" s="18"/>
+      <c r="AL12" s="18"/>
+      <c r="AM12" s="18"/>
+      <c r="AN12" s="18"/>
+      <c r="AO12" s="18"/>
+      <c r="AQ12" s="34"/>
+      <c r="AR12" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS12" s="18"/>
+      <c r="AT12" s="18"/>
+      <c r="AU12" s="18"/>
+      <c r="AV12" s="18"/>
+    </row>
+    <row r="13" spans="1:136" x14ac:dyDescent="0.2">
+      <c r="B13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z13" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="36"/>
+      <c r="AI13" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ13" s="34"/>
+      <c r="AR13" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="CH13" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="CK13" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="DF13" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:136" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:136" x14ac:dyDescent="0.2">
+      <c r="B15" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:136" x14ac:dyDescent="0.2">
+      <c r="B16" s="25"/>
+      <c r="BW16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="CL16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="CP16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="C17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="V17" s="1"/>
-    </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+    <row r="17" spans="1:136" x14ac:dyDescent="0.2">
+      <c r="B17" s="25"/>
+      <c r="BW17" s="1"/>
+      <c r="CL17" s="1"/>
+      <c r="CP17" s="1"/>
+    </row>
+    <row r="18" spans="1:136" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="11">
+      <c r="B18" s="32"/>
+      <c r="C18" s="19">
+        <v>43873</v>
+      </c>
+      <c r="D18" s="19">
+        <v>43874</v>
+      </c>
+      <c r="E18" s="19">
+        <v>43875</v>
+      </c>
+      <c r="F18" s="19">
+        <v>43876</v>
+      </c>
+      <c r="G18" s="19">
+        <v>43877</v>
+      </c>
+      <c r="H18" s="19">
+        <v>43878</v>
+      </c>
+      <c r="I18" s="19">
+        <v>43879</v>
+      </c>
+      <c r="J18" s="19">
+        <v>43880</v>
+      </c>
+      <c r="K18" s="19">
+        <v>43881</v>
+      </c>
+      <c r="L18" s="19">
+        <v>43882</v>
+      </c>
+      <c r="M18" s="19">
+        <v>43883</v>
+      </c>
+      <c r="N18" s="19">
+        <v>43884</v>
+      </c>
+      <c r="O18" s="19">
+        <v>43885</v>
+      </c>
+      <c r="P18" s="19">
+        <v>43886</v>
+      </c>
+      <c r="Q18" s="19">
+        <v>43887</v>
+      </c>
+      <c r="R18" s="19">
+        <v>43888</v>
+      </c>
+      <c r="S18" s="19">
+        <v>43889</v>
+      </c>
+      <c r="T18" s="19">
+        <v>43890</v>
+      </c>
+      <c r="U18" s="19">
+        <v>43891</v>
+      </c>
+      <c r="V18" s="19">
+        <v>43892</v>
+      </c>
+      <c r="W18" s="19">
+        <v>43893</v>
+      </c>
+      <c r="X18" s="19">
+        <v>43894</v>
+      </c>
+      <c r="Y18" s="19">
+        <v>43895</v>
+      </c>
+      <c r="Z18" s="19">
+        <v>43896</v>
+      </c>
+      <c r="AA18" s="19">
+        <v>43897</v>
+      </c>
+      <c r="AB18" s="19">
+        <v>43898</v>
+      </c>
+      <c r="AC18" s="19">
+        <v>43899</v>
+      </c>
+      <c r="AD18" s="19">
+        <v>43900</v>
+      </c>
+      <c r="AE18" s="19">
+        <v>43901</v>
+      </c>
+      <c r="AF18" s="19">
+        <v>43902</v>
+      </c>
+      <c r="AG18" s="19">
+        <v>43903</v>
+      </c>
+      <c r="AH18" s="19">
+        <v>43904</v>
+      </c>
+      <c r="AI18" s="19">
+        <v>43905</v>
+      </c>
+      <c r="AJ18" s="16">
+        <v>43906</v>
+      </c>
+      <c r="AK18" s="16">
+        <v>43907</v>
+      </c>
+      <c r="AL18" s="16">
+        <v>43908</v>
+      </c>
+      <c r="AM18" s="16">
+        <v>43909</v>
+      </c>
+      <c r="AN18" s="16">
+        <v>43910</v>
+      </c>
+      <c r="AO18" s="16">
+        <v>43911</v>
+      </c>
+      <c r="AP18" s="16">
+        <v>43912</v>
+      </c>
+      <c r="AQ18" s="16">
+        <v>43913</v>
+      </c>
+      <c r="AR18" s="16">
+        <v>43914</v>
+      </c>
+      <c r="AS18" s="16">
+        <v>43915</v>
+      </c>
+      <c r="AT18" s="16">
+        <v>43916</v>
+      </c>
+      <c r="AU18" s="16">
+        <v>43917</v>
+      </c>
+      <c r="AV18" s="16">
+        <v>43918</v>
+      </c>
+      <c r="AW18" s="16">
+        <v>43919</v>
+      </c>
+      <c r="AX18" s="16">
+        <v>43920</v>
+      </c>
+      <c r="AY18" s="16">
+        <v>43921</v>
+      </c>
+      <c r="AZ18" s="16">
+        <v>43922</v>
+      </c>
+      <c r="BA18" s="16">
+        <v>43923</v>
+      </c>
+      <c r="BB18" s="16">
+        <v>43924</v>
+      </c>
+      <c r="BC18" s="16">
+        <v>43925</v>
+      </c>
+      <c r="BD18" s="16">
+        <v>43926</v>
+      </c>
+      <c r="BE18" s="16">
+        <v>43927</v>
+      </c>
+      <c r="BF18" s="16">
+        <v>43928</v>
+      </c>
+      <c r="BG18" s="16">
+        <v>43929</v>
+      </c>
+      <c r="BH18" s="16">
+        <v>43930</v>
+      </c>
+      <c r="BI18" s="16">
+        <v>43931</v>
+      </c>
+      <c r="BJ18" s="16">
+        <v>43932</v>
+      </c>
+      <c r="BK18" s="16">
+        <v>43933</v>
+      </c>
+      <c r="BL18" s="16">
+        <v>43934</v>
+      </c>
+      <c r="BM18" s="16">
+        <v>43935</v>
+      </c>
+      <c r="BN18" s="16">
+        <v>43936</v>
+      </c>
+      <c r="BO18" s="16">
+        <v>43937</v>
+      </c>
+      <c r="BP18" s="16">
+        <v>43938</v>
+      </c>
+      <c r="BQ18" s="16">
+        <v>43939</v>
+      </c>
+      <c r="BR18" s="16">
+        <v>43940</v>
+      </c>
+      <c r="BS18" s="16">
+        <v>43941</v>
+      </c>
+      <c r="BT18" s="16">
+        <v>43942</v>
+      </c>
+      <c r="BU18" s="16">
+        <v>43943</v>
+      </c>
+      <c r="BV18" s="16">
+        <v>43944</v>
+      </c>
+      <c r="BW18" s="23">
         <v>43945</v>
       </c>
-      <c r="D18" s="12">
+      <c r="BX18" s="23">
         <v>43946</v>
       </c>
-      <c r="E18" s="11">
+      <c r="BY18" s="23">
         <v>43947</v>
       </c>
-      <c r="F18" s="12">
+      <c r="BZ18" s="23">
         <v>43948</v>
       </c>
-      <c r="G18" s="11">
+      <c r="CA18" s="23">
         <v>43949</v>
       </c>
-      <c r="H18" s="12">
+      <c r="CB18" s="23">
         <v>43950</v>
       </c>
-      <c r="I18" s="11">
+      <c r="CC18" s="23">
         <v>43951</v>
       </c>
-      <c r="J18" s="12">
+      <c r="CD18" s="23">
         <v>43952</v>
       </c>
-      <c r="K18" s="11">
+      <c r="CE18" s="23">
         <v>43953</v>
       </c>
-      <c r="L18" s="12">
+      <c r="CF18" s="23">
         <v>43954</v>
       </c>
-      <c r="M18" s="12">
+      <c r="CG18" s="23">
         <v>43955</v>
       </c>
-      <c r="N18" s="12">
+      <c r="CH18" s="23">
         <v>43956</v>
       </c>
-      <c r="O18" s="12">
+      <c r="CI18" s="23">
         <v>43957</v>
       </c>
-      <c r="P18" s="12">
+      <c r="CJ18" s="23">
         <v>43958</v>
       </c>
-      <c r="Q18" s="12">
+      <c r="CK18" s="23">
         <v>43959</v>
       </c>
-      <c r="R18" s="11">
+      <c r="CL18" s="23">
         <v>43960</v>
       </c>
-      <c r="S18" s="12">
+      <c r="CM18" s="23">
         <v>43961</v>
       </c>
-      <c r="T18" s="12">
+      <c r="CN18" s="23">
         <v>43962</v>
       </c>
-      <c r="U18" s="12">
+      <c r="CO18" s="23">
         <v>43963</v>
       </c>
-      <c r="V18" s="11">
+      <c r="CP18" s="23">
         <v>43964</v>
       </c>
-      <c r="W18" s="12">
+      <c r="CQ18" s="23">
         <v>43965</v>
       </c>
-      <c r="X18" s="12">
+      <c r="CR18" s="23">
         <v>43966</v>
       </c>
-      <c r="Y18" s="12">
+      <c r="CS18" s="23">
         <v>43967</v>
       </c>
-      <c r="Z18" s="12">
+      <c r="CT18" s="23">
         <v>43968</v>
       </c>
-      <c r="AA18" s="12">
+      <c r="CU18" s="23">
         <v>43969</v>
       </c>
-      <c r="AB18" s="11">
+      <c r="CV18" s="23">
         <v>43970</v>
       </c>
-      <c r="AC18" s="12">
+      <c r="CW18" s="23">
         <v>43971</v>
       </c>
-      <c r="AD18" s="12">
+      <c r="CX18" s="23">
         <v>43972</v>
       </c>
-      <c r="AE18" s="12">
+      <c r="CY18" s="23">
         <v>43973</v>
       </c>
-      <c r="AF18" s="12">
+      <c r="CZ18" s="23">
         <v>43974</v>
       </c>
-      <c r="AG18" s="12">
+      <c r="DA18" s="23">
         <v>43975</v>
       </c>
-      <c r="AH18" s="12">
+      <c r="DB18" s="23">
         <v>43976</v>
       </c>
-      <c r="AI18" s="12">
+      <c r="DC18" s="23">
         <v>43977</v>
       </c>
-      <c r="AJ18" s="12">
+      <c r="DD18" s="23">
         <v>43978</v>
       </c>
-      <c r="AK18" s="12">
+      <c r="DE18" s="23">
         <v>43979</v>
       </c>
-      <c r="AL18" s="12">
+      <c r="DF18" s="23">
         <v>43980</v>
       </c>
-      <c r="AM18" s="12">
+      <c r="DG18" s="23">
         <v>43981</v>
       </c>
-      <c r="AN18" s="12">
+      <c r="DH18" s="23">
         <v>43982</v>
       </c>
-      <c r="AO18" s="11">
+      <c r="DI18" s="23">
         <v>43983</v>
       </c>
-      <c r="AP18" s="12">
+      <c r="DJ18" s="23">
         <v>43984</v>
       </c>
-      <c r="AQ18" s="12">
+      <c r="DK18" s="23">
         <v>43985</v>
       </c>
-      <c r="AR18" s="12">
+      <c r="DL18" s="23">
         <v>43986</v>
       </c>
-      <c r="AS18" s="12">
+      <c r="DM18" s="23">
         <v>43987</v>
       </c>
-      <c r="AT18" s="12">
+      <c r="DN18" s="23">
         <v>43988</v>
       </c>
-      <c r="AU18" s="12">
+      <c r="DO18" s="23">
         <v>43989</v>
       </c>
-      <c r="AV18" s="12">
+      <c r="DP18" s="23">
         <v>43990</v>
       </c>
-      <c r="AW18" s="12">
+      <c r="DQ18" s="23">
         <v>43991</v>
       </c>
-      <c r="AX18" s="12">
+      <c r="DR18" s="23">
         <v>43992</v>
       </c>
-      <c r="AY18" s="12">
+      <c r="DS18" s="23">
         <v>43993</v>
       </c>
-      <c r="AZ18" s="12">
+      <c r="DT18" s="23">
         <v>43994</v>
       </c>
-      <c r="BA18" s="12">
+      <c r="DU18" s="23">
         <v>43995</v>
       </c>
-      <c r="BB18" s="12">
+      <c r="DV18" s="23">
         <v>43996</v>
       </c>
-      <c r="BC18" s="13">
+      <c r="DW18" s="23">
         <v>43997</v>
       </c>
-    </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="B19" s="15" t="s">
+      <c r="DX18" s="21">
+        <v>43998</v>
+      </c>
+      <c r="DY18" s="22">
+        <v>43999</v>
+      </c>
+      <c r="DZ18" s="21">
+        <v>44000</v>
+      </c>
+      <c r="EA18" s="22">
+        <v>44001</v>
+      </c>
+      <c r="EB18" s="21">
+        <v>44002</v>
+      </c>
+      <c r="EC18" s="22">
+        <v>44003</v>
+      </c>
+      <c r="ED18" s="21">
+        <v>44004</v>
+      </c>
+      <c r="EE18" s="21">
+        <v>44005</v>
+      </c>
+      <c r="EF18" s="20">
+        <v>44006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:136" x14ac:dyDescent="0.2">
+      <c r="B19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="BW19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R19" s="14" t="s">
+      <c r="CL19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="V19" s="14" t="s">
+      <c r="CP19" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="B20" s="15" t="s">
+    <row r="20" spans="1:136" x14ac:dyDescent="0.2">
+      <c r="B20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="V20" s="14" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="CP20" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="AP26" s="1" t="s">
+    <row r="21" spans="1:136" x14ac:dyDescent="0.2">
+      <c r="B21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ21" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="18"/>
+      <c r="AM21" s="18"/>
+      <c r="AN21" s="18"/>
+      <c r="AO21" s="18"/>
+      <c r="AR21" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS21" s="18"/>
+      <c r="AT21" s="18"/>
+      <c r="AU21" s="18"/>
+      <c r="AV21" s="18"/>
+    </row>
+    <row r="22" spans="1:136" x14ac:dyDescent="0.2">
+      <c r="B22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z22" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
+      <c r="AI22" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR22" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="CH22" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="CK22" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="DF22" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:136" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:136" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="DJ26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AT26" s="1" t="s">
+      <c r="DN26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AV26" s="1" t="s">
+      <c r="DP26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AX26" s="1" t="s">
+      <c r="DR26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AZ26" s="1" t="s">
+      <c r="DT26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BC26" s="16" t="s">
+      <c r="DW26" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="S27" s="1" t="s">
+    <row r="27" spans="1:136" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="CM27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AP27" s="1"/>
-      <c r="AT27" s="1"/>
-      <c r="AV27" s="1"/>
-      <c r="AX27" s="1" t="s">
+      <c r="DJ27" s="1"/>
+      <c r="DN27" s="1"/>
+      <c r="DP27" s="1"/>
+      <c r="DR27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AZ27" s="1"/>
-      <c r="BC27" s="1"/>
-    </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="S28" s="1"/>
-      <c r="AP28" s="1"/>
-      <c r="AT28" s="1"/>
-      <c r="AV28" s="1"/>
-      <c r="AX28" s="1"/>
-      <c r="AZ28" s="1"/>
-      <c r="BC28" s="1"/>
-    </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+      <c r="DT27" s="1"/>
+      <c r="DW27" s="1"/>
+    </row>
+    <row r="28" spans="1:136" x14ac:dyDescent="0.2">
+      <c r="CM28" s="1"/>
+      <c r="DJ28" s="1"/>
+      <c r="DN28" s="1"/>
+      <c r="DP28" s="1"/>
+      <c r="DR28" s="1"/>
+      <c r="DT28" s="1"/>
+      <c r="DW28" s="1"/>
+    </row>
+    <row r="29" spans="1:136" x14ac:dyDescent="0.2">
+      <c r="A29" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="11">
+      <c r="B29" s="26"/>
+      <c r="C29" s="19">
+        <v>43873</v>
+      </c>
+      <c r="D29" s="19">
+        <v>43874</v>
+      </c>
+      <c r="E29" s="19">
+        <v>43875</v>
+      </c>
+      <c r="F29" s="19">
+        <v>43876</v>
+      </c>
+      <c r="G29" s="19">
+        <v>43877</v>
+      </c>
+      <c r="H29" s="19">
+        <v>43878</v>
+      </c>
+      <c r="I29" s="19">
+        <v>43879</v>
+      </c>
+      <c r="J29" s="19">
+        <v>43880</v>
+      </c>
+      <c r="K29" s="19">
+        <v>43881</v>
+      </c>
+      <c r="L29" s="19">
+        <v>43882</v>
+      </c>
+      <c r="M29" s="19">
+        <v>43883</v>
+      </c>
+      <c r="N29" s="19">
+        <v>43884</v>
+      </c>
+      <c r="O29" s="19">
+        <v>43885</v>
+      </c>
+      <c r="P29" s="19">
+        <v>43886</v>
+      </c>
+      <c r="Q29" s="19">
+        <v>43887</v>
+      </c>
+      <c r="R29" s="19">
+        <v>43888</v>
+      </c>
+      <c r="S29" s="19">
+        <v>43889</v>
+      </c>
+      <c r="T29" s="19">
+        <v>43890</v>
+      </c>
+      <c r="U29" s="19">
+        <v>43891</v>
+      </c>
+      <c r="V29" s="19">
+        <v>43892</v>
+      </c>
+      <c r="W29" s="19">
+        <v>43893</v>
+      </c>
+      <c r="X29" s="19">
+        <v>43894</v>
+      </c>
+      <c r="Y29" s="19">
+        <v>43895</v>
+      </c>
+      <c r="Z29" s="19">
+        <v>43896</v>
+      </c>
+      <c r="AA29" s="19">
+        <v>43897</v>
+      </c>
+      <c r="AB29" s="19">
+        <v>43898</v>
+      </c>
+      <c r="AC29" s="19">
+        <v>43899</v>
+      </c>
+      <c r="AD29" s="19">
+        <v>43900</v>
+      </c>
+      <c r="AE29" s="19">
+        <v>43901</v>
+      </c>
+      <c r="AF29" s="19">
+        <v>43902</v>
+      </c>
+      <c r="AG29" s="19">
+        <v>43903</v>
+      </c>
+      <c r="AH29" s="19">
+        <v>43904</v>
+      </c>
+      <c r="AI29" s="19">
+        <v>43905</v>
+      </c>
+      <c r="AJ29" s="16">
+        <v>43906</v>
+      </c>
+      <c r="AK29" s="16">
+        <v>43907</v>
+      </c>
+      <c r="AL29" s="16">
+        <v>43908</v>
+      </c>
+      <c r="AM29" s="16">
+        <v>43909</v>
+      </c>
+      <c r="AN29" s="16">
+        <v>43910</v>
+      </c>
+      <c r="AO29" s="16">
+        <v>43911</v>
+      </c>
+      <c r="AP29" s="16">
+        <v>43912</v>
+      </c>
+      <c r="AQ29" s="16">
+        <v>43913</v>
+      </c>
+      <c r="AR29" s="16">
+        <v>43914</v>
+      </c>
+      <c r="AS29" s="16">
+        <v>43915</v>
+      </c>
+      <c r="AT29" s="16">
+        <v>43916</v>
+      </c>
+      <c r="AU29" s="16">
+        <v>43917</v>
+      </c>
+      <c r="AV29" s="16">
+        <v>43918</v>
+      </c>
+      <c r="AW29" s="16">
+        <v>43919</v>
+      </c>
+      <c r="AX29" s="16">
+        <v>43920</v>
+      </c>
+      <c r="AY29" s="16">
+        <v>43921</v>
+      </c>
+      <c r="AZ29" s="16">
+        <v>43922</v>
+      </c>
+      <c r="BA29" s="16">
+        <v>43923</v>
+      </c>
+      <c r="BB29" s="16">
+        <v>43924</v>
+      </c>
+      <c r="BC29" s="16">
+        <v>43925</v>
+      </c>
+      <c r="BD29" s="16">
+        <v>43926</v>
+      </c>
+      <c r="BE29" s="16">
+        <v>43927</v>
+      </c>
+      <c r="BF29" s="16">
+        <v>43928</v>
+      </c>
+      <c r="BG29" s="16">
+        <v>43929</v>
+      </c>
+      <c r="BH29" s="16">
+        <v>43930</v>
+      </c>
+      <c r="BI29" s="16">
+        <v>43931</v>
+      </c>
+      <c r="BJ29" s="16">
+        <v>43932</v>
+      </c>
+      <c r="BK29" s="16">
+        <v>43933</v>
+      </c>
+      <c r="BL29" s="16">
+        <v>43934</v>
+      </c>
+      <c r="BM29" s="16">
+        <v>43935</v>
+      </c>
+      <c r="BN29" s="16">
+        <v>43936</v>
+      </c>
+      <c r="BO29" s="16">
+        <v>43937</v>
+      </c>
+      <c r="BP29" s="16">
+        <v>43938</v>
+      </c>
+      <c r="BQ29" s="16">
+        <v>43939</v>
+      </c>
+      <c r="BR29" s="16">
+        <v>43940</v>
+      </c>
+      <c r="BS29" s="16">
+        <v>43941</v>
+      </c>
+      <c r="BT29" s="16">
+        <v>43942</v>
+      </c>
+      <c r="BU29" s="16">
+        <v>43943</v>
+      </c>
+      <c r="BV29" s="16">
+        <v>43944</v>
+      </c>
+      <c r="BW29" s="23">
         <v>43945</v>
       </c>
-      <c r="D29" s="12">
+      <c r="BX29" s="23">
         <v>43946</v>
       </c>
-      <c r="E29" s="11">
+      <c r="BY29" s="23">
         <v>43947</v>
       </c>
-      <c r="F29" s="12">
+      <c r="BZ29" s="23">
         <v>43948</v>
       </c>
-      <c r="G29" s="11">
+      <c r="CA29" s="23">
         <v>43949</v>
       </c>
-      <c r="H29" s="12">
+      <c r="CB29" s="23">
         <v>43950</v>
       </c>
-      <c r="I29" s="11">
+      <c r="CC29" s="23">
         <v>43951</v>
       </c>
-      <c r="J29" s="12">
+      <c r="CD29" s="23">
         <v>43952</v>
       </c>
-      <c r="K29" s="11">
+      <c r="CE29" s="23">
         <v>43953</v>
       </c>
-      <c r="L29" s="12">
+      <c r="CF29" s="23">
         <v>43954</v>
       </c>
-      <c r="M29" s="12">
+      <c r="CG29" s="23">
         <v>43955</v>
       </c>
-      <c r="N29" s="12">
+      <c r="CH29" s="23">
         <v>43956</v>
       </c>
-      <c r="O29" s="12">
+      <c r="CI29" s="23">
         <v>43957</v>
       </c>
-      <c r="P29" s="12">
+      <c r="CJ29" s="23">
         <v>43958</v>
       </c>
-      <c r="Q29" s="12">
+      <c r="CK29" s="23">
         <v>43959</v>
       </c>
-      <c r="R29" s="11">
+      <c r="CL29" s="23">
         <v>43960</v>
       </c>
-      <c r="S29" s="11">
+      <c r="CM29" s="23">
         <v>43961</v>
       </c>
-      <c r="T29" s="12">
+      <c r="CN29" s="23">
         <v>43962</v>
       </c>
-      <c r="U29" s="12">
+      <c r="CO29" s="23">
         <v>43963</v>
       </c>
-      <c r="V29" s="11">
+      <c r="CP29" s="23">
         <v>43964</v>
       </c>
-      <c r="W29" s="12">
+      <c r="CQ29" s="23">
         <v>43965</v>
       </c>
-      <c r="X29" s="12">
+      <c r="CR29" s="23">
         <v>43966</v>
       </c>
-      <c r="Y29" s="12">
+      <c r="CS29" s="23">
         <v>43967</v>
       </c>
-      <c r="Z29" s="12">
+      <c r="CT29" s="23">
         <v>43968</v>
       </c>
-      <c r="AA29" s="12">
+      <c r="CU29" s="23">
         <v>43969</v>
       </c>
-      <c r="AB29" s="11">
+      <c r="CV29" s="23">
         <v>43970</v>
       </c>
-      <c r="AC29" s="12">
+      <c r="CW29" s="23">
         <v>43971</v>
       </c>
-      <c r="AD29" s="12">
+      <c r="CX29" s="23">
         <v>43972</v>
       </c>
-      <c r="AE29" s="12">
+      <c r="CY29" s="23">
         <v>43973</v>
       </c>
-      <c r="AF29" s="12">
+      <c r="CZ29" s="23">
         <v>43974</v>
       </c>
-      <c r="AG29" s="12">
+      <c r="DA29" s="23">
         <v>43975</v>
       </c>
-      <c r="AH29" s="12">
+      <c r="DB29" s="23">
         <v>43976</v>
       </c>
-      <c r="AI29" s="12">
+      <c r="DC29" s="23">
         <v>43977</v>
       </c>
-      <c r="AJ29" s="12">
+      <c r="DD29" s="23">
         <v>43978</v>
       </c>
-      <c r="AK29" s="12">
+      <c r="DE29" s="23">
         <v>43979</v>
       </c>
-      <c r="AL29" s="12">
+      <c r="DF29" s="23">
         <v>43980</v>
       </c>
-      <c r="AM29" s="12">
+      <c r="DG29" s="23">
         <v>43981</v>
       </c>
-      <c r="AN29" s="12">
+      <c r="DH29" s="23">
         <v>43982</v>
       </c>
-      <c r="AO29" s="11">
+      <c r="DI29" s="23">
         <v>43983</v>
       </c>
-      <c r="AP29" s="11">
+      <c r="DJ29" s="23">
         <v>43984</v>
       </c>
-      <c r="AQ29" s="12">
+      <c r="DK29" s="23">
         <v>43985</v>
       </c>
-      <c r="AR29" s="12">
+      <c r="DL29" s="23">
         <v>43986</v>
       </c>
-      <c r="AS29" s="12">
+      <c r="DM29" s="23">
         <v>43987</v>
       </c>
-      <c r="AT29" s="11">
+      <c r="DN29" s="23">
         <v>43988</v>
       </c>
-      <c r="AU29" s="12">
+      <c r="DO29" s="23">
         <v>43989</v>
       </c>
-      <c r="AV29" s="11">
+      <c r="DP29" s="23">
         <v>43990</v>
       </c>
-      <c r="AW29" s="12">
+      <c r="DQ29" s="23">
         <v>43991</v>
       </c>
-      <c r="AX29" s="11">
+      <c r="DR29" s="23">
         <v>43992</v>
       </c>
-      <c r="AY29" s="12">
+      <c r="DS29" s="23">
         <v>43993</v>
       </c>
-      <c r="AZ29" s="11">
+      <c r="DT29" s="23">
         <v>43994</v>
       </c>
-      <c r="BA29" s="12">
+      <c r="DU29" s="23">
         <v>43995</v>
       </c>
-      <c r="BB29" s="12">
+      <c r="DV29" s="23">
         <v>43996</v>
       </c>
-      <c r="BC29" s="17">
+      <c r="DW29" s="23">
         <v>43997</v>
       </c>
-    </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="B30" s="15" t="s">
+      <c r="DX29" s="21">
+        <v>43998</v>
+      </c>
+      <c r="DY29" s="22">
+        <v>43999</v>
+      </c>
+      <c r="DZ29" s="21">
+        <v>44000</v>
+      </c>
+      <c r="EA29" s="22">
+        <v>44001</v>
+      </c>
+      <c r="EB29" s="21">
+        <v>44002</v>
+      </c>
+      <c r="EC29" s="22">
+        <v>44003</v>
+      </c>
+      <c r="ED29" s="21">
+        <v>44004</v>
+      </c>
+      <c r="EE29" s="21">
+        <v>44005</v>
+      </c>
+      <c r="EF29" s="20">
+        <v>44006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:136" x14ac:dyDescent="0.2">
+      <c r="B30" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S30" s="14" t="s">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="CM30" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="U30" s="14"/>
-      <c r="AX30" s="14" t="s">
+      <c r="CO30" s="8"/>
+      <c r="DR30" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="B31" s="15" t="s">
+    <row r="31" spans="1:136" x14ac:dyDescent="0.2">
+      <c r="B31" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AP31" s="14" t="s">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="DJ31" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AT31" s="14" t="s">
+      <c r="DN31" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AV31" s="14" t="s">
+      <c r="DP31" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AX31" s="14" t="s">
+      <c r="DR31" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AZ31" s="14" t="s">
+      <c r="DT31" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="BC31" s="14" t="s">
+      <c r="DW31" s="8" t="s">
         <v>40</v>
       </c>
     </row>
+    <row r="32" spans="1:136" x14ac:dyDescent="0.2">
+      <c r="B32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ32" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK32" s="18"/>
+      <c r="AL32" s="18"/>
+      <c r="AM32" s="18"/>
+      <c r="AN32" s="18"/>
+      <c r="AO32" s="18"/>
+      <c r="AR32" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS32" s="18"/>
+      <c r="AT32" s="18"/>
+      <c r="AU32" s="18"/>
+      <c r="AV32" s="18"/>
+    </row>
+    <row r="33" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="B33" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z33" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA33" s="36"/>
+      <c r="AB33" s="36"/>
+      <c r="AC33" s="36"/>
+      <c r="AD33" s="36"/>
+      <c r="AE33" s="36"/>
+      <c r="AF33" s="36"/>
+      <c r="AI33" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR33" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="CH33" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="CK33" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="DF33" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:110" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A36" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="27"/>
+    </row>
+    <row r="37" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A37" s="28"/>
+      <c r="B37" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="A38" s="29"/>
+      <c r="B38" s="31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="BY42" s="15"/>
+      <c r="BZ42" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="AB10:AO10"/>
+  <mergeCells count="17">
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="Z13:AF13"/>
+    <mergeCell ref="Z22:AF22"/>
+    <mergeCell ref="Z33:AF33"/>
+    <mergeCell ref="AJ32:AO32"/>
+    <mergeCell ref="AR21:AV21"/>
+    <mergeCell ref="AR32:AV32"/>
+    <mergeCell ref="B1:B6"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="AJ12:AO12"/>
+    <mergeCell ref="AR12:AV12"/>
+    <mergeCell ref="AJ21:AO21"/>
+    <mergeCell ref="CV10:DI10"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="BW8:CE8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/references/utx000ext_timelines.xlsx
+++ b/references/utx000ext_timelines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hagenfritz/Projects/utx000/references/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B054669E-142A-134A-A88B-26C82ABC512E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FD9997-BC2A-894C-8E34-DE2495B3C9EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A42CCD86-71DD-4C4D-87F8-705DB24E1636}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
   <si>
     <t>Event 1</t>
   </si>
@@ -167,9 +167,6 @@
     <t>Notes 4:</t>
   </si>
   <si>
-    <t>BPEACE Home Environment and Health Survey</t>
-  </si>
-  <si>
     <t>UT Spring Break</t>
   </si>
   <si>
@@ -216,13 +213,52 @@
   </si>
   <si>
     <t>For more info, see here: http://austintexas.gov/covid19</t>
+  </si>
+  <si>
+    <t>Order of Control - Mass Gatherings</t>
+  </si>
+  <si>
+    <t>Order of Control - Bars/Restaurants</t>
+  </si>
+  <si>
+    <t>Stay Home, Save Lives</t>
+  </si>
+  <si>
+    <t>Stay Home, Wear Mask and Othwerwise Be Safe</t>
+  </si>
+  <si>
+    <t>Home Environment and Health Survey</t>
+  </si>
+  <si>
+    <t>Device Return</t>
+  </si>
+  <si>
+    <t>Surveys Stoped</t>
+  </si>
+  <si>
+    <t>Sensor Data Gathering Stopped</t>
+  </si>
+  <si>
+    <t>Consenting and Enrolling Participants</t>
+  </si>
+  <si>
+    <t>Initial Surveys Distributed</t>
+  </si>
+  <si>
+    <t>Sensors Begin to Collect Data</t>
+  </si>
+  <si>
+    <t>Devices Registered and Distributed</t>
+  </si>
+  <si>
+    <t>Devices Distributed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -247,13 +283,6 @@
     <font>
       <sz val="12"/>
       <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -365,7 +394,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -463,11 +492,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -478,27 +529,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -509,8 +551,30 @@
     <xf numFmtId="14" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -518,35 +582,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -861,1740 +957,3026 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D07724-71E6-3C40-BDBC-6CE123708DF5}">
-  <dimension ref="A1:EF42"/>
+  <dimension ref="A1:FJ43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K18" sqref="K18"/>
+      <pane xSplit="2" topLeftCell="AU1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BC10" sqref="BC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="2" max="32" width="12.6640625" customWidth="1"/>
+    <col min="33" max="33" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="B1" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BW1" s="5" t="s">
+    <row r="1" spans="1:166" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="B2" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="DA2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="EF1" s="11" t="s">
+      <c r="FJ2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="B2" s="24"/>
-      <c r="C2" s="1"/>
-      <c r="BW2" s="5" t="s">
+    <row r="3" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="B3" s="33"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="1"/>
+      <c r="DA3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="3"/>
-      <c r="EF2" s="1"/>
+      <c r="DC3" s="3"/>
+      <c r="FJ3" s="1"/>
     </row>
-    <row r="3" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="B3" s="24"/>
-      <c r="C3" s="1"/>
-      <c r="BW3" s="5" t="s">
+    <row r="4" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="B4" s="33"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="1"/>
+      <c r="DA4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BY3" s="3"/>
-      <c r="CC3" s="6" t="s">
+      <c r="DC4" s="3"/>
+      <c r="DG4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CV3" s="7" t="s">
+      <c r="DZ4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="EF3" s="11" t="s">
+      <c r="FJ4" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="B4" s="24"/>
-      <c r="C4" s="1"/>
-      <c r="BW4" s="5" t="s">
+    <row r="5" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="B5" s="33"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="1"/>
+      <c r="DA5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="BY4" s="3"/>
-      <c r="CC4" s="1"/>
-      <c r="CV4" s="7" t="s">
+      <c r="DC5" s="3"/>
+      <c r="DG5" s="1"/>
+      <c r="DZ5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="EF4" s="1"/>
+      <c r="FJ5" s="1"/>
     </row>
-    <row r="5" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="B5" s="24"/>
-      <c r="C5" s="1"/>
-      <c r="BW5" s="5" t="s">
+    <row r="6" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="B6" s="33"/>
+      <c r="C6" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="1"/>
+      <c r="DA6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="BY5" s="5" t="s">
+      <c r="DC6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CA5" s="5" t="s">
+      <c r="DE6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CC5" s="5" t="s">
+      <c r="DG6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CE5" s="5" t="s">
+      <c r="DI6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CV5" s="7" t="s">
+      <c r="DZ6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="DI5" s="7" t="s">
+      <c r="EM6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="EF5" s="1"/>
+      <c r="FJ6" s="1"/>
     </row>
-    <row r="6" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="B6" s="24"/>
-      <c r="C6" s="1"/>
-      <c r="BW6" s="2"/>
-      <c r="BY6" s="2"/>
-      <c r="CA6" s="2"/>
-      <c r="CC6" s="2"/>
-      <c r="CE6" s="2"/>
-      <c r="CV6" s="1"/>
-      <c r="DI6" s="1"/>
-      <c r="EF6" s="1"/>
+    <row r="7" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="B7" s="33"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="1"/>
+      <c r="DA7" s="2"/>
+      <c r="DC7" s="2"/>
+      <c r="DE7" s="2"/>
+      <c r="DG7" s="2"/>
+      <c r="DI7" s="2"/>
+      <c r="DZ7" s="1"/>
+      <c r="EM7" s="1"/>
+      <c r="FJ7" s="1"/>
     </row>
-    <row r="7" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+    <row r="8" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="A8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="19">
+      <c r="B8" s="37"/>
+      <c r="C8" s="16">
+        <v>43843</v>
+      </c>
+      <c r="D8" s="16">
+        <v>43844</v>
+      </c>
+      <c r="E8" s="16">
+        <v>43845</v>
+      </c>
+      <c r="F8" s="16">
+        <v>43846</v>
+      </c>
+      <c r="G8" s="16">
+        <v>43847</v>
+      </c>
+      <c r="H8" s="16">
+        <v>43848</v>
+      </c>
+      <c r="I8" s="16">
+        <v>43849</v>
+      </c>
+      <c r="J8" s="16">
+        <v>43850</v>
+      </c>
+      <c r="K8" s="16">
+        <v>43851</v>
+      </c>
+      <c r="L8" s="16">
+        <v>43852</v>
+      </c>
+      <c r="M8" s="16">
+        <v>43853</v>
+      </c>
+      <c r="N8" s="16">
+        <v>43854</v>
+      </c>
+      <c r="O8" s="16">
+        <v>43855</v>
+      </c>
+      <c r="P8" s="16">
+        <v>43856</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>43857</v>
+      </c>
+      <c r="R8" s="16">
+        <v>43858</v>
+      </c>
+      <c r="S8" s="16">
+        <v>43859</v>
+      </c>
+      <c r="T8" s="16">
+        <v>43860</v>
+      </c>
+      <c r="U8" s="16">
+        <v>43861</v>
+      </c>
+      <c r="V8" s="16">
+        <v>43862</v>
+      </c>
+      <c r="W8" s="16">
+        <v>43863</v>
+      </c>
+      <c r="X8" s="16">
+        <v>43864</v>
+      </c>
+      <c r="Y8" s="16">
+        <v>43865</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>43866</v>
+      </c>
+      <c r="AA8" s="16">
+        <v>43867</v>
+      </c>
+      <c r="AB8" s="16">
+        <v>43868</v>
+      </c>
+      <c r="AC8" s="16">
+        <v>43869</v>
+      </c>
+      <c r="AD8" s="16">
+        <v>43870</v>
+      </c>
+      <c r="AE8" s="16">
+        <v>43871</v>
+      </c>
+      <c r="AF8" s="16">
+        <v>43872</v>
+      </c>
+      <c r="AG8" s="16">
         <v>43873</v>
       </c>
-      <c r="D7" s="19">
+      <c r="AH8" s="16">
         <v>43874</v>
       </c>
-      <c r="E7" s="19">
+      <c r="AI8" s="16">
         <v>43875</v>
       </c>
-      <c r="F7" s="19">
+      <c r="AJ8" s="16">
         <v>43876</v>
       </c>
-      <c r="G7" s="19">
+      <c r="AK8" s="16">
         <v>43877</v>
       </c>
-      <c r="H7" s="19">
+      <c r="AL8" s="16">
         <v>43878</v>
       </c>
-      <c r="I7" s="19">
+      <c r="AM8" s="16">
         <v>43879</v>
       </c>
-      <c r="J7" s="19">
+      <c r="AN8" s="16">
         <v>43880</v>
       </c>
-      <c r="K7" s="19">
+      <c r="AO8" s="16">
         <v>43881</v>
       </c>
-      <c r="L7" s="19">
+      <c r="AP8" s="16">
         <v>43882</v>
       </c>
-      <c r="M7" s="19">
+      <c r="AQ8" s="16">
         <v>43883</v>
       </c>
-      <c r="N7" s="19">
+      <c r="AR8" s="16">
         <v>43884</v>
       </c>
-      <c r="O7" s="19">
+      <c r="AS8" s="16">
         <v>43885</v>
       </c>
-      <c r="P7" s="19">
+      <c r="AT8" s="16">
         <v>43886</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="AU8" s="16">
         <v>43887</v>
       </c>
-      <c r="R7" s="19">
+      <c r="AV8" s="16">
         <v>43888</v>
       </c>
-      <c r="S7" s="19">
+      <c r="AW8" s="16">
         <v>43889</v>
       </c>
-      <c r="T7" s="19">
+      <c r="AX8" s="16">
         <v>43890</v>
       </c>
-      <c r="U7" s="19">
+      <c r="AY8" s="16">
         <v>43891</v>
       </c>
-      <c r="V7" s="19">
+      <c r="AZ8" s="16">
         <v>43892</v>
       </c>
-      <c r="W7" s="19">
+      <c r="BA8" s="16">
         <v>43893</v>
       </c>
-      <c r="X7" s="19">
+      <c r="BB8" s="16">
         <v>43894</v>
       </c>
-      <c r="Y7" s="19">
+      <c r="BC8" s="16">
         <v>43895</v>
       </c>
-      <c r="Z7" s="19">
+      <c r="BD8" s="16">
         <v>43896</v>
       </c>
-      <c r="AA7" s="19">
+      <c r="BE8" s="16">
         <v>43897</v>
       </c>
-      <c r="AB7" s="19">
+      <c r="BF8" s="16">
         <v>43898</v>
       </c>
-      <c r="AC7" s="19">
+      <c r="BG8" s="16">
         <v>43899</v>
       </c>
-      <c r="AD7" s="19">
+      <c r="BH8" s="16">
         <v>43900</v>
       </c>
-      <c r="AE7" s="19">
+      <c r="BI8" s="16">
         <v>43901</v>
       </c>
-      <c r="AF7" s="19">
+      <c r="BJ8" s="16">
         <v>43902</v>
       </c>
-      <c r="AG7" s="19">
+      <c r="BK8" s="16">
         <v>43903</v>
       </c>
-      <c r="AH7" s="35">
+      <c r="BL8" s="44">
         <v>43904</v>
       </c>
-      <c r="AI7" s="19">
+      <c r="BM8" s="45">
         <v>43905</v>
       </c>
-      <c r="AJ7" s="16">
+      <c r="BN8" s="14">
         <v>43906</v>
       </c>
-      <c r="AK7" s="16">
+      <c r="BO8" s="14">
         <v>43907</v>
       </c>
-      <c r="AL7" s="16">
+      <c r="BP8" s="14">
         <v>43908</v>
       </c>
-      <c r="AM7" s="16">
+      <c r="BQ8" s="14">
         <v>43909</v>
       </c>
-      <c r="AN7" s="16">
+      <c r="BR8" s="14">
         <v>43910</v>
       </c>
-      <c r="AO7" s="16">
+      <c r="BS8" s="14">
         <v>43911</v>
       </c>
-      <c r="AP7" s="16">
+      <c r="BT8" s="14">
         <v>43912</v>
       </c>
-      <c r="AQ7" s="16">
+      <c r="BU8" s="14">
         <v>43913</v>
       </c>
-      <c r="AR7" s="38">
+      <c r="BV8" s="27">
         <v>43914</v>
       </c>
-      <c r="AS7" s="16">
+      <c r="BW8" s="14">
         <v>43915</v>
       </c>
-      <c r="AT7" s="16">
+      <c r="BX8" s="14">
         <v>43916</v>
       </c>
-      <c r="AU7" s="16">
+      <c r="BY8" s="14">
         <v>43917</v>
       </c>
-      <c r="AV7" s="16">
+      <c r="BZ8" s="14">
         <v>43918</v>
       </c>
-      <c r="AW7" s="16">
+      <c r="CA8" s="14">
         <v>43919</v>
       </c>
-      <c r="AX7" s="16">
+      <c r="CB8" s="14">
         <v>43920</v>
       </c>
-      <c r="AY7" s="16">
+      <c r="CC8" s="14">
         <v>43921</v>
       </c>
-      <c r="AZ7" s="16">
+      <c r="CD8" s="14">
         <v>43922</v>
       </c>
-      <c r="BA7" s="16">
+      <c r="CE8" s="14">
         <v>43923</v>
       </c>
-      <c r="BB7" s="16">
+      <c r="CF8" s="14">
         <v>43924</v>
       </c>
-      <c r="BC7" s="16">
+      <c r="CG8" s="14">
         <v>43925</v>
       </c>
-      <c r="BD7" s="16">
+      <c r="CH8" s="14">
         <v>43926</v>
       </c>
-      <c r="BE7" s="16">
+      <c r="CI8" s="14">
         <v>43927</v>
       </c>
-      <c r="BF7" s="16">
+      <c r="CJ8" s="14">
         <v>43928</v>
       </c>
-      <c r="BG7" s="16">
+      <c r="CK8" s="14">
         <v>43929</v>
       </c>
-      <c r="BH7" s="16">
+      <c r="CL8" s="14">
         <v>43930</v>
       </c>
-      <c r="BI7" s="16">
+      <c r="CM8" s="14">
         <v>43931</v>
       </c>
-      <c r="BJ7" s="16">
+      <c r="CN8" s="14">
         <v>43932</v>
       </c>
-      <c r="BK7" s="16">
+      <c r="CO8" s="14">
         <v>43933</v>
       </c>
-      <c r="BL7" s="16">
+      <c r="CP8" s="14">
         <v>43934</v>
       </c>
-      <c r="BM7" s="16">
+      <c r="CQ8" s="14">
         <v>43935</v>
       </c>
-      <c r="BN7" s="16">
+      <c r="CR8" s="14">
         <v>43936</v>
       </c>
-      <c r="BO7" s="16">
+      <c r="CS8" s="14">
         <v>43937</v>
       </c>
-      <c r="BP7" s="16">
+      <c r="CT8" s="14">
         <v>43938</v>
       </c>
-      <c r="BQ7" s="16">
+      <c r="CU8" s="14">
         <v>43939</v>
       </c>
-      <c r="BR7" s="16">
+      <c r="CV8" s="14">
         <v>43940</v>
       </c>
-      <c r="BS7" s="16">
+      <c r="CW8" s="14">
         <v>43941</v>
       </c>
-      <c r="BT7" s="16">
+      <c r="CX8" s="14">
         <v>43942</v>
       </c>
-      <c r="BU7" s="16">
+      <c r="CY8" s="14">
         <v>43943</v>
       </c>
-      <c r="BV7" s="16">
+      <c r="CZ8" s="14">
         <v>43944</v>
       </c>
-      <c r="BW7" s="20">
+      <c r="DA8" s="17">
         <v>43945</v>
       </c>
-      <c r="BX7" s="21">
+      <c r="DB8" s="18">
         <v>43946</v>
       </c>
-      <c r="BY7" s="20">
+      <c r="DC8" s="17">
         <v>43947</v>
       </c>
-      <c r="BZ7" s="21">
+      <c r="DD8" s="18">
         <v>43948</v>
       </c>
-      <c r="CA7" s="20">
+      <c r="DE8" s="17">
         <v>43949</v>
       </c>
-      <c r="CB7" s="21">
+      <c r="DF8" s="18">
         <v>43950</v>
       </c>
-      <c r="CC7" s="20">
+      <c r="DG8" s="17">
         <v>43951</v>
       </c>
-      <c r="CD7" s="21">
+      <c r="DH8" s="18">
         <v>43952</v>
       </c>
-      <c r="CE7" s="20">
+      <c r="DI8" s="17">
         <v>43953</v>
       </c>
-      <c r="CF7" s="21">
+      <c r="DJ8" s="18">
         <v>43954</v>
       </c>
-      <c r="CG7" s="21">
+      <c r="DK8" s="18">
         <v>43955</v>
       </c>
-      <c r="CH7" s="21">
+      <c r="DL8" s="17">
         <v>43956</v>
       </c>
-      <c r="CI7" s="21">
+      <c r="DM8" s="18">
         <v>43957</v>
       </c>
-      <c r="CJ7" s="21">
+      <c r="DN8" s="18">
         <v>43958</v>
       </c>
-      <c r="CK7" s="21">
+      <c r="DO8" s="17">
         <v>43959</v>
       </c>
-      <c r="CL7" s="21">
+      <c r="DP8" s="18">
         <v>43960</v>
       </c>
-      <c r="CM7" s="21">
+      <c r="DQ8" s="18">
         <v>43961</v>
       </c>
-      <c r="CN7" s="21">
+      <c r="DR8" s="18">
         <v>43962</v>
       </c>
-      <c r="CO7" s="21">
+      <c r="DS8" s="18">
         <v>43963</v>
       </c>
-      <c r="CP7" s="21">
+      <c r="DT8" s="18">
         <v>43964</v>
       </c>
-      <c r="CQ7" s="21">
+      <c r="DU8" s="18">
         <v>43965</v>
       </c>
-      <c r="CR7" s="21">
+      <c r="DV8" s="18">
         <v>43966</v>
       </c>
-      <c r="CS7" s="21">
+      <c r="DW8" s="18">
         <v>43967</v>
       </c>
-      <c r="CT7" s="21">
+      <c r="DX8" s="18">
         <v>43968</v>
       </c>
-      <c r="CU7" s="21">
+      <c r="DY8" s="18">
         <v>43969</v>
       </c>
-      <c r="CV7" s="20">
+      <c r="DZ8" s="17">
         <v>43970</v>
       </c>
-      <c r="CW7" s="21">
+      <c r="EA8" s="17">
         <v>43971</v>
       </c>
-      <c r="CX7" s="21">
+      <c r="EB8" s="18">
         <v>43972</v>
       </c>
-      <c r="CY7" s="21">
+      <c r="EC8" s="18">
         <v>43973</v>
       </c>
-      <c r="CZ7" s="21">
+      <c r="ED8" s="18">
         <v>43974</v>
       </c>
-      <c r="DA7" s="21">
+      <c r="EE8" s="18">
         <v>43975</v>
       </c>
-      <c r="DB7" s="21">
+      <c r="EF8" s="18">
         <v>43976</v>
       </c>
-      <c r="DC7" s="21">
+      <c r="EG8" s="18">
         <v>43977</v>
       </c>
-      <c r="DD7" s="21">
+      <c r="EH8" s="18">
         <v>43978</v>
       </c>
-      <c r="DE7" s="21">
+      <c r="EI8" s="18">
         <v>43979</v>
       </c>
-      <c r="DF7" s="21">
+      <c r="EJ8" s="17">
         <v>43980</v>
       </c>
-      <c r="DG7" s="21">
+      <c r="EK8" s="18">
         <v>43981</v>
       </c>
-      <c r="DH7" s="21">
+      <c r="EL8" s="18">
         <v>43982</v>
       </c>
-      <c r="DI7" s="20">
+      <c r="EM8" s="17">
         <v>43983</v>
       </c>
-      <c r="DJ7" s="21">
+      <c r="EN8" s="18">
         <v>43984</v>
       </c>
-      <c r="DK7" s="21">
+      <c r="EO8" s="18">
         <v>43985</v>
       </c>
-      <c r="DL7" s="21">
+      <c r="EP8" s="18">
         <v>43986</v>
       </c>
-      <c r="DM7" s="21">
+      <c r="EQ8" s="18">
         <v>43987</v>
       </c>
-      <c r="DN7" s="21">
+      <c r="ER8" s="18">
         <v>43988</v>
       </c>
-      <c r="DO7" s="21">
+      <c r="ES8" s="18">
         <v>43989</v>
       </c>
-      <c r="DP7" s="21">
+      <c r="ET8" s="18">
         <v>43990</v>
       </c>
-      <c r="DQ7" s="21">
+      <c r="EU8" s="18">
         <v>43991</v>
       </c>
-      <c r="DR7" s="21">
+      <c r="EV8" s="18">
         <v>43992</v>
       </c>
-      <c r="DS7" s="21">
+      <c r="EW8" s="18">
         <v>43993</v>
       </c>
-      <c r="DT7" s="21">
+      <c r="EX8" s="18">
         <v>43994</v>
       </c>
-      <c r="DU7" s="21">
+      <c r="EY8" s="18">
         <v>43995</v>
       </c>
-      <c r="DV7" s="21">
+      <c r="EZ8" s="18">
         <v>43996</v>
       </c>
-      <c r="DW7" s="22">
+      <c r="FA8" s="40">
         <v>43997</v>
       </c>
-      <c r="DX7" s="21">
+      <c r="FB8" s="18">
         <v>43998</v>
       </c>
-      <c r="DY7" s="22">
+      <c r="FC8" s="19">
         <v>43999</v>
       </c>
-      <c r="DZ7" s="21">
+      <c r="FD8" s="18">
         <v>44000</v>
       </c>
-      <c r="EA7" s="22">
+      <c r="FE8" s="19">
         <v>44001</v>
       </c>
-      <c r="EB7" s="21">
+      <c r="FF8" s="18">
         <v>44002</v>
       </c>
-      <c r="EC7" s="22">
+      <c r="FG8" s="18">
         <v>44003</v>
       </c>
-      <c r="ED7" s="21">
+      <c r="FH8" s="17">
         <v>44004</v>
       </c>
-      <c r="EE7" s="21">
+      <c r="FI8" s="18">
         <v>44005</v>
       </c>
-      <c r="EF7" s="20">
+      <c r="FJ8" s="17">
         <v>44006</v>
       </c>
     </row>
-    <row r="8" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="B8" s="9" t="s">
+    <row r="9" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="B9" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="AI8" s="1"/>
-      <c r="AQ8" s="34"/>
-      <c r="BW8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX8" s="14"/>
-      <c r="BY8" s="14"/>
-      <c r="BZ8" s="14"/>
-      <c r="CA8" s="14"/>
-      <c r="CB8" s="14"/>
-      <c r="CC8" s="14"/>
-      <c r="CD8" s="14"/>
-      <c r="CE8" s="14"/>
-    </row>
-    <row r="9" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="B9" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="AI9" s="1"/>
-      <c r="AQ9" s="34"/>
-      <c r="CC9" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="BM9" s="1"/>
+      <c r="BU9" s="25"/>
+      <c r="DA9" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="DB9" s="39"/>
+      <c r="DC9" s="39"/>
+      <c r="DD9" s="39"/>
+      <c r="DE9" s="39"/>
+      <c r="DF9" s="39"/>
+      <c r="DG9" s="39"/>
+      <c r="DH9" s="39"/>
+      <c r="DI9" s="39"/>
+      <c r="DL9" s="1"/>
+      <c r="DO9" s="1"/>
+      <c r="EA9" s="1"/>
+      <c r="EJ9" s="1"/>
+      <c r="FA9" s="1"/>
+      <c r="FH9" s="1"/>
     </row>
-    <row r="10" spans="1:136" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:166" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="AI10" s="1"/>
-      <c r="AQ10" s="34"/>
-      <c r="CV10" s="13" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="BM10" s="1"/>
+      <c r="BU10" s="25"/>
+      <c r="DG10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="DL10" s="1"/>
+      <c r="DO10" s="1"/>
+      <c r="EA10" s="1"/>
+      <c r="EJ10" s="1"/>
+      <c r="FA10" s="1"/>
+      <c r="FH10" s="1"/>
+    </row>
+    <row r="11" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="B11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="BM11" s="1"/>
+      <c r="BU11" s="25"/>
+      <c r="DL11" s="1"/>
+      <c r="DO11" s="1"/>
+      <c r="DZ11" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="CW10" s="13"/>
-      <c r="CX10" s="13"/>
-      <c r="CY10" s="13"/>
-      <c r="CZ10" s="13"/>
-      <c r="DA10" s="13"/>
-      <c r="DB10" s="13"/>
-      <c r="DC10" s="13"/>
-      <c r="DD10" s="13"/>
-      <c r="DE10" s="13"/>
-      <c r="DF10" s="13"/>
-      <c r="DG10" s="13"/>
-      <c r="DH10" s="13"/>
-      <c r="DI10" s="13"/>
+      <c r="EA11" s="35"/>
+      <c r="EB11" s="35"/>
+      <c r="EC11" s="35"/>
+      <c r="ED11" s="35"/>
+      <c r="EE11" s="35"/>
+      <c r="EF11" s="35"/>
+      <c r="EG11" s="35"/>
+      <c r="EH11" s="35"/>
+      <c r="EI11" s="35"/>
+      <c r="EJ11" s="35"/>
+      <c r="EK11" s="35"/>
+      <c r="EL11" s="35"/>
+      <c r="EM11" s="35"/>
+      <c r="FA11" s="1"/>
+      <c r="FH11" s="1"/>
     </row>
-    <row r="11" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="B11" s="9" t="s">
+    <row r="12" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="B12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AI11" s="1"/>
-      <c r="AQ11" s="34"/>
-      <c r="EF11" s="12" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="BM12" s="1"/>
+      <c r="BU12" s="25"/>
+      <c r="DL12" s="1"/>
+      <c r="DO12" s="1"/>
+      <c r="EA12" s="1"/>
+      <c r="EJ12" s="1"/>
+      <c r="FA12" s="1"/>
+      <c r="FH12" s="1"/>
+      <c r="FJ12" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="B12" s="9" t="s">
+    <row r="13" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="B13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="BM13" s="1"/>
+      <c r="BN13" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="BO13" s="32"/>
+      <c r="BP13" s="32"/>
+      <c r="BQ13" s="32"/>
+      <c r="BR13" s="32"/>
+      <c r="BS13" s="32"/>
+      <c r="BU13" s="25"/>
+      <c r="BV13" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="BW13" s="32"/>
+      <c r="BX13" s="32"/>
+      <c r="BY13" s="32"/>
+      <c r="BZ13" s="32"/>
+      <c r="DL13" s="1"/>
+      <c r="DO13" s="1"/>
+      <c r="EA13" s="1"/>
+      <c r="EJ13" s="1"/>
+      <c r="FA13" s="1"/>
+      <c r="FH13" s="1"/>
+    </row>
+    <row r="14" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="B14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK12" s="18"/>
-      <c r="AL12" s="18"/>
-      <c r="AM12" s="18"/>
-      <c r="AN12" s="18"/>
-      <c r="AO12" s="18"/>
-      <c r="AQ12" s="34"/>
-      <c r="AR12" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS12" s="18"/>
-      <c r="AT12" s="18"/>
-      <c r="AU12" s="18"/>
-      <c r="AV12" s="18"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD14" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE14" s="31"/>
+      <c r="BF14" s="31"/>
+      <c r="BG14" s="31"/>
+      <c r="BH14" s="31"/>
+      <c r="BI14" s="31"/>
+      <c r="BJ14" s="31"/>
+      <c r="BM14" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="BU14" s="25"/>
+      <c r="BV14" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL14" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="DO14" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="EA14" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="EJ14" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="FA14" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="FH14" s="42" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="13" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="B13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z13" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA13" s="36"/>
-      <c r="AB13" s="36"/>
-      <c r="AC13" s="36"/>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="36"/>
-      <c r="AF13" s="36"/>
-      <c r="AI13" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ13" s="34"/>
-      <c r="AR13" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="CH13" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="CK13" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="DF13" s="39" t="s">
-        <v>58</v>
-      </c>
+    <row r="15" spans="1:166" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="B16" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="20"/>
+      <c r="BD16" s="46"/>
+      <c r="BE16" s="46"/>
+      <c r="BF16" s="46"/>
+      <c r="BG16" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH16" s="51"/>
+      <c r="BI16" s="51"/>
+      <c r="BJ16" s="51"/>
+      <c r="BK16" s="52"/>
     </row>
-    <row r="14" spans="1:136" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="B15" s="25" t="s">
-        <v>50</v>
+    <row r="17" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="B17" s="34"/>
+      <c r="C17" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+      <c r="BD17" s="46"/>
+      <c r="BE17" s="46"/>
+      <c r="BF17" s="46"/>
+      <c r="BG17" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="BH17" s="51"/>
+      <c r="BI17" s="51"/>
+      <c r="BJ17" s="51"/>
+      <c r="BK17" s="52"/>
+      <c r="DA17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="DP17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="DT17" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="B16" s="25"/>
-      <c r="BW16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="CL16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="CP16" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="18" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="B18" s="34"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20"/>
+      <c r="BD18" s="46"/>
+      <c r="BE18" s="46"/>
+      <c r="BF18" s="46"/>
+      <c r="BG18" s="46"/>
+      <c r="BH18" s="46"/>
+      <c r="BI18" s="46"/>
+      <c r="BJ18" s="46"/>
+      <c r="BK18" s="46"/>
+      <c r="DA18" s="1"/>
+      <c r="DP18" s="1"/>
+      <c r="DT18" s="1"/>
     </row>
-    <row r="17" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="B17" s="25"/>
-      <c r="BW17" s="1"/>
-      <c r="CL17" s="1"/>
-      <c r="CP17" s="1"/>
+    <row r="19" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="A19" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="38"/>
+      <c r="C19" s="16">
+        <v>43843</v>
+      </c>
+      <c r="D19" s="16">
+        <v>43844</v>
+      </c>
+      <c r="E19" s="16">
+        <v>43845</v>
+      </c>
+      <c r="F19" s="16">
+        <v>43846</v>
+      </c>
+      <c r="G19" s="16">
+        <v>43847</v>
+      </c>
+      <c r="H19" s="16">
+        <v>43848</v>
+      </c>
+      <c r="I19" s="16">
+        <v>43849</v>
+      </c>
+      <c r="J19" s="16">
+        <v>43850</v>
+      </c>
+      <c r="K19" s="16">
+        <v>43851</v>
+      </c>
+      <c r="L19" s="16">
+        <v>43852</v>
+      </c>
+      <c r="M19" s="16">
+        <v>43853</v>
+      </c>
+      <c r="N19" s="16">
+        <v>43854</v>
+      </c>
+      <c r="O19" s="16">
+        <v>43855</v>
+      </c>
+      <c r="P19" s="16">
+        <v>43856</v>
+      </c>
+      <c r="Q19" s="16">
+        <v>43857</v>
+      </c>
+      <c r="R19" s="16">
+        <v>43858</v>
+      </c>
+      <c r="S19" s="16">
+        <v>43859</v>
+      </c>
+      <c r="T19" s="16">
+        <v>43860</v>
+      </c>
+      <c r="U19" s="16">
+        <v>43861</v>
+      </c>
+      <c r="V19" s="16">
+        <v>43862</v>
+      </c>
+      <c r="W19" s="16">
+        <v>43863</v>
+      </c>
+      <c r="X19" s="16">
+        <v>43864</v>
+      </c>
+      <c r="Y19" s="16">
+        <v>43865</v>
+      </c>
+      <c r="Z19" s="16">
+        <v>43866</v>
+      </c>
+      <c r="AA19" s="16">
+        <v>43867</v>
+      </c>
+      <c r="AB19" s="16">
+        <v>43868</v>
+      </c>
+      <c r="AC19" s="16">
+        <v>43869</v>
+      </c>
+      <c r="AD19" s="16">
+        <v>43870</v>
+      </c>
+      <c r="AE19" s="16">
+        <v>43871</v>
+      </c>
+      <c r="AF19" s="16">
+        <v>43872</v>
+      </c>
+      <c r="AG19" s="16">
+        <v>43873</v>
+      </c>
+      <c r="AH19" s="16">
+        <v>43874</v>
+      </c>
+      <c r="AI19" s="16">
+        <v>43875</v>
+      </c>
+      <c r="AJ19" s="16">
+        <v>43876</v>
+      </c>
+      <c r="AK19" s="16">
+        <v>43877</v>
+      </c>
+      <c r="AL19" s="16">
+        <v>43878</v>
+      </c>
+      <c r="AM19" s="16">
+        <v>43879</v>
+      </c>
+      <c r="AN19" s="16">
+        <v>43880</v>
+      </c>
+      <c r="AO19" s="16">
+        <v>43881</v>
+      </c>
+      <c r="AP19" s="16">
+        <v>43882</v>
+      </c>
+      <c r="AQ19" s="16">
+        <v>43883</v>
+      </c>
+      <c r="AR19" s="16">
+        <v>43884</v>
+      </c>
+      <c r="AS19" s="16">
+        <v>43885</v>
+      </c>
+      <c r="AT19" s="16">
+        <v>43886</v>
+      </c>
+      <c r="AU19" s="16">
+        <v>43887</v>
+      </c>
+      <c r="AV19" s="16">
+        <v>43888</v>
+      </c>
+      <c r="AW19" s="16">
+        <v>43889</v>
+      </c>
+      <c r="AX19" s="16">
+        <v>43890</v>
+      </c>
+      <c r="AY19" s="16">
+        <v>43891</v>
+      </c>
+      <c r="AZ19" s="16">
+        <v>43892</v>
+      </c>
+      <c r="BA19" s="16">
+        <v>43893</v>
+      </c>
+      <c r="BB19" s="16">
+        <v>43894</v>
+      </c>
+      <c r="BC19" s="16">
+        <v>43895</v>
+      </c>
+      <c r="BD19" s="16">
+        <v>43896</v>
+      </c>
+      <c r="BE19" s="16">
+        <v>43897</v>
+      </c>
+      <c r="BF19" s="16">
+        <v>43898</v>
+      </c>
+      <c r="BG19" s="16">
+        <v>43899</v>
+      </c>
+      <c r="BH19" s="16">
+        <v>43900</v>
+      </c>
+      <c r="BI19" s="16">
+        <v>43901</v>
+      </c>
+      <c r="BJ19" s="16">
+        <v>43902</v>
+      </c>
+      <c r="BK19" s="16">
+        <v>43903</v>
+      </c>
+      <c r="BL19" s="44">
+        <v>43904</v>
+      </c>
+      <c r="BM19" s="45">
+        <v>43905</v>
+      </c>
+      <c r="BN19" s="14">
+        <v>43906</v>
+      </c>
+      <c r="BO19" s="14">
+        <v>43907</v>
+      </c>
+      <c r="BP19" s="14">
+        <v>43908</v>
+      </c>
+      <c r="BQ19" s="14">
+        <v>43909</v>
+      </c>
+      <c r="BR19" s="14">
+        <v>43910</v>
+      </c>
+      <c r="BS19" s="14">
+        <v>43911</v>
+      </c>
+      <c r="BT19" s="14">
+        <v>43912</v>
+      </c>
+      <c r="BU19" s="14">
+        <v>43913</v>
+      </c>
+      <c r="BV19" s="27">
+        <v>43914</v>
+      </c>
+      <c r="BW19" s="14">
+        <v>43915</v>
+      </c>
+      <c r="BX19" s="14">
+        <v>43916</v>
+      </c>
+      <c r="BY19" s="14">
+        <v>43917</v>
+      </c>
+      <c r="BZ19" s="14">
+        <v>43918</v>
+      </c>
+      <c r="CA19" s="14">
+        <v>43919</v>
+      </c>
+      <c r="CB19" s="14">
+        <v>43920</v>
+      </c>
+      <c r="CC19" s="14">
+        <v>43921</v>
+      </c>
+      <c r="CD19" s="14">
+        <v>43922</v>
+      </c>
+      <c r="CE19" s="14">
+        <v>43923</v>
+      </c>
+      <c r="CF19" s="14">
+        <v>43924</v>
+      </c>
+      <c r="CG19" s="14">
+        <v>43925</v>
+      </c>
+      <c r="CH19" s="14">
+        <v>43926</v>
+      </c>
+      <c r="CI19" s="14">
+        <v>43927</v>
+      </c>
+      <c r="CJ19" s="14">
+        <v>43928</v>
+      </c>
+      <c r="CK19" s="14">
+        <v>43929</v>
+      </c>
+      <c r="CL19" s="14">
+        <v>43930</v>
+      </c>
+      <c r="CM19" s="14">
+        <v>43931</v>
+      </c>
+      <c r="CN19" s="14">
+        <v>43932</v>
+      </c>
+      <c r="CO19" s="14">
+        <v>43933</v>
+      </c>
+      <c r="CP19" s="14">
+        <v>43934</v>
+      </c>
+      <c r="CQ19" s="14">
+        <v>43935</v>
+      </c>
+      <c r="CR19" s="14">
+        <v>43936</v>
+      </c>
+      <c r="CS19" s="14">
+        <v>43937</v>
+      </c>
+      <c r="CT19" s="14">
+        <v>43938</v>
+      </c>
+      <c r="CU19" s="14">
+        <v>43939</v>
+      </c>
+      <c r="CV19" s="14">
+        <v>43940</v>
+      </c>
+      <c r="CW19" s="14">
+        <v>43941</v>
+      </c>
+      <c r="CX19" s="14">
+        <v>43942</v>
+      </c>
+      <c r="CY19" s="14">
+        <v>43943</v>
+      </c>
+      <c r="CZ19" s="14">
+        <v>43944</v>
+      </c>
+      <c r="DA19" s="17">
+        <v>43945</v>
+      </c>
+      <c r="DB19" s="18">
+        <v>43946</v>
+      </c>
+      <c r="DC19" s="17">
+        <v>43947</v>
+      </c>
+      <c r="DD19" s="18">
+        <v>43948</v>
+      </c>
+      <c r="DE19" s="17">
+        <v>43949</v>
+      </c>
+      <c r="DF19" s="18">
+        <v>43950</v>
+      </c>
+      <c r="DG19" s="17">
+        <v>43951</v>
+      </c>
+      <c r="DH19" s="18">
+        <v>43952</v>
+      </c>
+      <c r="DI19" s="17">
+        <v>43953</v>
+      </c>
+      <c r="DJ19" s="18">
+        <v>43954</v>
+      </c>
+      <c r="DK19" s="18">
+        <v>43955</v>
+      </c>
+      <c r="DL19" s="17">
+        <v>43956</v>
+      </c>
+      <c r="DM19" s="18">
+        <v>43957</v>
+      </c>
+      <c r="DN19" s="18">
+        <v>43958</v>
+      </c>
+      <c r="DO19" s="17">
+        <v>43959</v>
+      </c>
+      <c r="DP19" s="18">
+        <v>43960</v>
+      </c>
+      <c r="DQ19" s="18">
+        <v>43961</v>
+      </c>
+      <c r="DR19" s="18">
+        <v>43962</v>
+      </c>
+      <c r="DS19" s="18">
+        <v>43963</v>
+      </c>
+      <c r="DT19" s="18">
+        <v>43964</v>
+      </c>
+      <c r="DU19" s="18">
+        <v>43965</v>
+      </c>
+      <c r="DV19" s="18">
+        <v>43966</v>
+      </c>
+      <c r="DW19" s="18">
+        <v>43967</v>
+      </c>
+      <c r="DX19" s="18">
+        <v>43968</v>
+      </c>
+      <c r="DY19" s="18">
+        <v>43969</v>
+      </c>
+      <c r="DZ19" s="17">
+        <v>43970</v>
+      </c>
+      <c r="EA19" s="17">
+        <v>43971</v>
+      </c>
+      <c r="EB19" s="18">
+        <v>43972</v>
+      </c>
+      <c r="EC19" s="18">
+        <v>43973</v>
+      </c>
+      <c r="ED19" s="18">
+        <v>43974</v>
+      </c>
+      <c r="EE19" s="18">
+        <v>43975</v>
+      </c>
+      <c r="EF19" s="18">
+        <v>43976</v>
+      </c>
+      <c r="EG19" s="18">
+        <v>43977</v>
+      </c>
+      <c r="EH19" s="18">
+        <v>43978</v>
+      </c>
+      <c r="EI19" s="18">
+        <v>43979</v>
+      </c>
+      <c r="EJ19" s="17">
+        <v>43980</v>
+      </c>
+      <c r="EK19" s="18">
+        <v>43981</v>
+      </c>
+      <c r="EL19" s="18">
+        <v>43982</v>
+      </c>
+      <c r="EM19" s="17">
+        <v>43983</v>
+      </c>
+      <c r="EN19" s="18">
+        <v>43984</v>
+      </c>
+      <c r="EO19" s="18">
+        <v>43985</v>
+      </c>
+      <c r="EP19" s="18">
+        <v>43986</v>
+      </c>
+      <c r="EQ19" s="18">
+        <v>43987</v>
+      </c>
+      <c r="ER19" s="18">
+        <v>43988</v>
+      </c>
+      <c r="ES19" s="18">
+        <v>43989</v>
+      </c>
+      <c r="ET19" s="18">
+        <v>43990</v>
+      </c>
+      <c r="EU19" s="18">
+        <v>43991</v>
+      </c>
+      <c r="EV19" s="18">
+        <v>43992</v>
+      </c>
+      <c r="EW19" s="18">
+        <v>43993</v>
+      </c>
+      <c r="EX19" s="18">
+        <v>43994</v>
+      </c>
+      <c r="EY19" s="18">
+        <v>43995</v>
+      </c>
+      <c r="EZ19" s="18">
+        <v>43996</v>
+      </c>
+      <c r="FA19" s="40">
+        <v>43997</v>
+      </c>
+      <c r="FB19" s="18">
+        <v>43998</v>
+      </c>
+      <c r="FC19" s="19">
+        <v>43999</v>
+      </c>
+      <c r="FD19" s="18">
+        <v>44000</v>
+      </c>
+      <c r="FE19" s="19">
+        <v>44001</v>
+      </c>
+      <c r="FF19" s="18">
+        <v>44002</v>
+      </c>
+      <c r="FG19" s="18">
+        <v>44003</v>
+      </c>
+      <c r="FH19" s="17">
+        <v>44004</v>
+      </c>
+      <c r="FI19" s="18">
+        <v>44005</v>
+      </c>
+      <c r="FJ19" s="17">
+        <v>44006</v>
+      </c>
     </row>
-    <row r="18" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="19">
-        <v>43873</v>
-      </c>
-      <c r="D18" s="19">
-        <v>43874</v>
-      </c>
-      <c r="E18" s="19">
-        <v>43875</v>
-      </c>
-      <c r="F18" s="19">
-        <v>43876</v>
-      </c>
-      <c r="G18" s="19">
-        <v>43877</v>
-      </c>
-      <c r="H18" s="19">
-        <v>43878</v>
-      </c>
-      <c r="I18" s="19">
-        <v>43879</v>
-      </c>
-      <c r="J18" s="19">
-        <v>43880</v>
-      </c>
-      <c r="K18" s="19">
-        <v>43881</v>
-      </c>
-      <c r="L18" s="19">
-        <v>43882</v>
-      </c>
-      <c r="M18" s="19">
-        <v>43883</v>
-      </c>
-      <c r="N18" s="19">
-        <v>43884</v>
-      </c>
-      <c r="O18" s="19">
-        <v>43885</v>
-      </c>
-      <c r="P18" s="19">
-        <v>43886</v>
-      </c>
-      <c r="Q18" s="19">
-        <v>43887</v>
-      </c>
-      <c r="R18" s="19">
-        <v>43888</v>
-      </c>
-      <c r="S18" s="19">
-        <v>43889</v>
-      </c>
-      <c r="T18" s="19">
-        <v>43890</v>
-      </c>
-      <c r="U18" s="19">
-        <v>43891</v>
-      </c>
-      <c r="V18" s="19">
-        <v>43892</v>
-      </c>
-      <c r="W18" s="19">
-        <v>43893</v>
-      </c>
-      <c r="X18" s="19">
-        <v>43894</v>
-      </c>
-      <c r="Y18" s="19">
-        <v>43895</v>
-      </c>
-      <c r="Z18" s="19">
-        <v>43896</v>
-      </c>
-      <c r="AA18" s="19">
-        <v>43897</v>
-      </c>
-      <c r="AB18" s="19">
-        <v>43898</v>
-      </c>
-      <c r="AC18" s="19">
-        <v>43899</v>
-      </c>
-      <c r="AD18" s="19">
-        <v>43900</v>
-      </c>
-      <c r="AE18" s="19">
-        <v>43901</v>
-      </c>
-      <c r="AF18" s="19">
-        <v>43902</v>
-      </c>
-      <c r="AG18" s="19">
-        <v>43903</v>
-      </c>
-      <c r="AH18" s="19">
-        <v>43904</v>
-      </c>
-      <c r="AI18" s="19">
-        <v>43905</v>
-      </c>
-      <c r="AJ18" s="16">
-        <v>43906</v>
-      </c>
-      <c r="AK18" s="16">
-        <v>43907</v>
-      </c>
-      <c r="AL18" s="16">
-        <v>43908</v>
-      </c>
-      <c r="AM18" s="16">
-        <v>43909</v>
-      </c>
-      <c r="AN18" s="16">
-        <v>43910</v>
-      </c>
-      <c r="AO18" s="16">
-        <v>43911</v>
-      </c>
-      <c r="AP18" s="16">
-        <v>43912</v>
-      </c>
-      <c r="AQ18" s="16">
-        <v>43913</v>
-      </c>
-      <c r="AR18" s="16">
-        <v>43914</v>
-      </c>
-      <c r="AS18" s="16">
-        <v>43915</v>
-      </c>
-      <c r="AT18" s="16">
-        <v>43916</v>
-      </c>
-      <c r="AU18" s="16">
-        <v>43917</v>
-      </c>
-      <c r="AV18" s="16">
-        <v>43918</v>
-      </c>
-      <c r="AW18" s="16">
-        <v>43919</v>
-      </c>
-      <c r="AX18" s="16">
-        <v>43920</v>
-      </c>
-      <c r="AY18" s="16">
-        <v>43921</v>
-      </c>
-      <c r="AZ18" s="16">
-        <v>43922</v>
-      </c>
-      <c r="BA18" s="16">
-        <v>43923</v>
-      </c>
-      <c r="BB18" s="16">
-        <v>43924</v>
-      </c>
-      <c r="BC18" s="16">
-        <v>43925</v>
-      </c>
-      <c r="BD18" s="16">
-        <v>43926</v>
-      </c>
-      <c r="BE18" s="16">
-        <v>43927</v>
-      </c>
-      <c r="BF18" s="16">
-        <v>43928</v>
-      </c>
-      <c r="BG18" s="16">
-        <v>43929</v>
-      </c>
-      <c r="BH18" s="16">
-        <v>43930</v>
-      </c>
-      <c r="BI18" s="16">
-        <v>43931</v>
-      </c>
-      <c r="BJ18" s="16">
-        <v>43932</v>
-      </c>
-      <c r="BK18" s="16">
-        <v>43933</v>
-      </c>
-      <c r="BL18" s="16">
-        <v>43934</v>
-      </c>
-      <c r="BM18" s="16">
-        <v>43935</v>
-      </c>
-      <c r="BN18" s="16">
-        <v>43936</v>
-      </c>
-      <c r="BO18" s="16">
-        <v>43937</v>
-      </c>
-      <c r="BP18" s="16">
-        <v>43938</v>
-      </c>
-      <c r="BQ18" s="16">
-        <v>43939</v>
-      </c>
-      <c r="BR18" s="16">
-        <v>43940</v>
-      </c>
-      <c r="BS18" s="16">
-        <v>43941</v>
-      </c>
-      <c r="BT18" s="16">
-        <v>43942</v>
-      </c>
-      <c r="BU18" s="16">
-        <v>43943</v>
-      </c>
-      <c r="BV18" s="16">
-        <v>43944</v>
-      </c>
-      <c r="BW18" s="23">
-        <v>43945</v>
-      </c>
-      <c r="BX18" s="23">
-        <v>43946</v>
-      </c>
-      <c r="BY18" s="23">
-        <v>43947</v>
-      </c>
-      <c r="BZ18" s="23">
-        <v>43948</v>
-      </c>
-      <c r="CA18" s="23">
-        <v>43949</v>
-      </c>
-      <c r="CB18" s="23">
-        <v>43950</v>
-      </c>
-      <c r="CC18" s="23">
-        <v>43951</v>
-      </c>
-      <c r="CD18" s="23">
-        <v>43952</v>
-      </c>
-      <c r="CE18" s="23">
-        <v>43953</v>
-      </c>
-      <c r="CF18" s="23">
-        <v>43954</v>
-      </c>
-      <c r="CG18" s="23">
-        <v>43955</v>
-      </c>
-      <c r="CH18" s="23">
-        <v>43956</v>
-      </c>
-      <c r="CI18" s="23">
-        <v>43957</v>
-      </c>
-      <c r="CJ18" s="23">
-        <v>43958</v>
-      </c>
-      <c r="CK18" s="23">
-        <v>43959</v>
-      </c>
-      <c r="CL18" s="23">
-        <v>43960</v>
-      </c>
-      <c r="CM18" s="23">
-        <v>43961</v>
-      </c>
-      <c r="CN18" s="23">
-        <v>43962</v>
-      </c>
-      <c r="CO18" s="23">
-        <v>43963</v>
-      </c>
-      <c r="CP18" s="23">
-        <v>43964</v>
-      </c>
-      <c r="CQ18" s="23">
-        <v>43965</v>
-      </c>
-      <c r="CR18" s="23">
-        <v>43966</v>
-      </c>
-      <c r="CS18" s="23">
-        <v>43967</v>
-      </c>
-      <c r="CT18" s="23">
-        <v>43968</v>
-      </c>
-      <c r="CU18" s="23">
-        <v>43969</v>
-      </c>
-      <c r="CV18" s="23">
-        <v>43970</v>
-      </c>
-      <c r="CW18" s="23">
-        <v>43971</v>
-      </c>
-      <c r="CX18" s="23">
-        <v>43972</v>
-      </c>
-      <c r="CY18" s="23">
-        <v>43973</v>
-      </c>
-      <c r="CZ18" s="23">
-        <v>43974</v>
-      </c>
-      <c r="DA18" s="23">
-        <v>43975</v>
-      </c>
-      <c r="DB18" s="23">
-        <v>43976</v>
-      </c>
-      <c r="DC18" s="23">
-        <v>43977</v>
-      </c>
-      <c r="DD18" s="23">
-        <v>43978</v>
-      </c>
-      <c r="DE18" s="23">
-        <v>43979</v>
-      </c>
-      <c r="DF18" s="23">
-        <v>43980</v>
-      </c>
-      <c r="DG18" s="23">
-        <v>43981</v>
-      </c>
-      <c r="DH18" s="23">
-        <v>43982</v>
-      </c>
-      <c r="DI18" s="23">
-        <v>43983</v>
-      </c>
-      <c r="DJ18" s="23">
-        <v>43984</v>
-      </c>
-      <c r="DK18" s="23">
-        <v>43985</v>
-      </c>
-      <c r="DL18" s="23">
-        <v>43986</v>
-      </c>
-      <c r="DM18" s="23">
-        <v>43987</v>
-      </c>
-      <c r="DN18" s="23">
-        <v>43988</v>
-      </c>
-      <c r="DO18" s="23">
-        <v>43989</v>
-      </c>
-      <c r="DP18" s="23">
-        <v>43990</v>
-      </c>
-      <c r="DQ18" s="23">
-        <v>43991</v>
-      </c>
-      <c r="DR18" s="23">
-        <v>43992</v>
-      </c>
-      <c r="DS18" s="23">
-        <v>43993</v>
-      </c>
-      <c r="DT18" s="23">
-        <v>43994</v>
-      </c>
-      <c r="DU18" s="23">
-        <v>43995</v>
-      </c>
-      <c r="DV18" s="23">
-        <v>43996</v>
-      </c>
-      <c r="DW18" s="23">
-        <v>43997</v>
-      </c>
-      <c r="DX18" s="21">
-        <v>43998</v>
-      </c>
-      <c r="DY18" s="22">
-        <v>43999</v>
-      </c>
-      <c r="DZ18" s="21">
-        <v>44000</v>
-      </c>
-      <c r="EA18" s="22">
-        <v>44001</v>
-      </c>
-      <c r="EB18" s="21">
-        <v>44002</v>
-      </c>
-      <c r="EC18" s="22">
-        <v>44003</v>
-      </c>
-      <c r="ED18" s="21">
-        <v>44004</v>
-      </c>
-      <c r="EE18" s="21">
-        <v>44005</v>
-      </c>
-      <c r="EF18" s="20">
-        <v>44006</v>
-      </c>
-    </row>
-    <row r="19" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="B19" s="9" t="s">
+    <row r="20" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="B20" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="BW19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="CL19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="CP19" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="B20" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="CP20" s="8" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="BD20" s="46"/>
+      <c r="BE20" s="46"/>
+      <c r="BF20" s="46"/>
+      <c r="BG20" s="46"/>
+      <c r="BH20" s="46"/>
+      <c r="BI20" s="46"/>
+      <c r="BJ20" s="46"/>
+      <c r="BK20" s="46"/>
+      <c r="BM20" s="1"/>
+      <c r="DA20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="DL20" s="1"/>
+      <c r="DO20" s="1"/>
+      <c r="DP20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="DT20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="EA20" s="1"/>
+      <c r="FA20" s="1"/>
+      <c r="FH20" s="1"/>
+    </row>
+    <row r="21" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="B21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
+      <c r="BD21" s="46"/>
+      <c r="BE21" s="46"/>
+      <c r="BF21" s="46"/>
+      <c r="BG21" s="46"/>
+      <c r="BH21" s="46"/>
+      <c r="BI21" s="46"/>
+      <c r="BJ21" s="46"/>
+      <c r="BK21" s="46"/>
+      <c r="BM21" s="1"/>
+      <c r="DL21" s="1"/>
+      <c r="DO21" s="1"/>
+      <c r="DT21" s="8" t="s">
         <v>21</v>
       </c>
+      <c r="EA21" s="1"/>
+      <c r="FA21" s="1"/>
+      <c r="FH21" s="1"/>
     </row>
-    <row r="21" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="B21" s="9" t="s">
+    <row r="22" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="B22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="BD22" s="46"/>
+      <c r="BE22" s="46"/>
+      <c r="BF22" s="46"/>
+      <c r="BG22" s="46"/>
+      <c r="BH22" s="46"/>
+      <c r="BI22" s="46"/>
+      <c r="BJ22" s="46"/>
+      <c r="BK22" s="46"/>
+      <c r="BM22" s="1"/>
+      <c r="BN22" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="BO22" s="32"/>
+      <c r="BP22" s="32"/>
+      <c r="BQ22" s="32"/>
+      <c r="BR22" s="32"/>
+      <c r="BS22" s="32"/>
+      <c r="BV22" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="BW22" s="32"/>
+      <c r="BX22" s="32"/>
+      <c r="BY22" s="32"/>
+      <c r="BZ22" s="32"/>
+      <c r="DL22" s="1"/>
+      <c r="DO22" s="1"/>
+      <c r="EA22" s="1"/>
+      <c r="FA22" s="1"/>
+      <c r="FH22" s="1"/>
+    </row>
+    <row r="23" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="B23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AJ21" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK21" s="18"/>
-      <c r="AL21" s="18"/>
-      <c r="AM21" s="18"/>
-      <c r="AN21" s="18"/>
-      <c r="AO21" s="18"/>
-      <c r="AR21" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS21" s="18"/>
-      <c r="AT21" s="18"/>
-      <c r="AU21" s="18"/>
-      <c r="AV21" s="18"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD23" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE23" s="47"/>
+      <c r="BF23" s="47"/>
+      <c r="BG23" s="47"/>
+      <c r="BH23" s="47"/>
+      <c r="BI23" s="47"/>
+      <c r="BJ23" s="47"/>
+      <c r="BK23" s="46"/>
+      <c r="BM23" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="BV23" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL23" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="DO23" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="EA23" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="EJ23" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="FA23" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="FH23" s="42" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="22" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="B22" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z22" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA22" s="36"/>
-      <c r="AB22" s="36"/>
-      <c r="AC22" s="36"/>
-      <c r="AD22" s="36"/>
-      <c r="AE22" s="36"/>
-      <c r="AF22" s="36"/>
-      <c r="AI22" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR22" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="CH22" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="CK22" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="DF22" s="39" t="s">
-        <v>58</v>
-      </c>
+    <row r="24" spans="1:166" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BD24" s="48"/>
+      <c r="BE24" s="48"/>
+      <c r="BF24" s="48"/>
+      <c r="BG24" s="48"/>
+      <c r="BH24" s="48"/>
+      <c r="BI24" s="48"/>
+      <c r="BJ24" s="48"/>
+      <c r="BK24" s="48"/>
     </row>
-    <row r="23" spans="1:136" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="DJ26" s="1" t="s">
+    <row r="25" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="BD25" s="46"/>
+      <c r="BE25" s="46"/>
+      <c r="BF25" s="46"/>
+      <c r="BG25" s="46"/>
+      <c r="BH25" s="46"/>
+      <c r="BI25" s="46"/>
+      <c r="BJ25" s="46"/>
+      <c r="BK25" s="46"/>
+    </row>
+    <row r="26" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="BD26" s="46"/>
+      <c r="BE26" s="46"/>
+      <c r="BF26" s="46"/>
+      <c r="BG26" s="46"/>
+      <c r="BH26" s="46"/>
+      <c r="BI26" s="46"/>
+      <c r="BJ26" s="46"/>
+      <c r="BK26" s="46"/>
+    </row>
+    <row r="27" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="B27" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
+      <c r="AA27" s="56"/>
+      <c r="AB27" s="56"/>
+      <c r="AC27" s="56"/>
+      <c r="BD27" s="46"/>
+      <c r="BE27" s="46"/>
+      <c r="BF27" s="46"/>
+      <c r="BG27" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="BH27" s="51"/>
+      <c r="BI27" s="51"/>
+      <c r="BJ27" s="51"/>
+      <c r="BK27" s="52"/>
+      <c r="EN27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="DN26" s="1" t="s">
+      <c r="ER27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="DP26" s="1" t="s">
+      <c r="ET27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="DR26" s="1" t="s">
+      <c r="EV27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="DT26" s="1" t="s">
+      <c r="EX27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="DW26" s="10" t="s">
+      <c r="FA27" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="CM27" s="1" t="s">
+    <row r="28" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="B28" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="56"/>
+      <c r="AB28" s="56"/>
+      <c r="AC28" s="56"/>
+      <c r="BD28" s="46"/>
+      <c r="BE28" s="46"/>
+      <c r="BF28" s="46"/>
+      <c r="BG28" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="BH28" s="51"/>
+      <c r="BI28" s="51"/>
+      <c r="BJ28" s="51"/>
+      <c r="BK28" s="52"/>
+      <c r="DQ28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="DJ27" s="1"/>
-      <c r="DN27" s="1"/>
-      <c r="DP27" s="1"/>
-      <c r="DR27" s="1" t="s">
+      <c r="EN28" s="1"/>
+      <c r="ER28" s="1"/>
+      <c r="ET28" s="1"/>
+      <c r="EV28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="DT27" s="1"/>
-      <c r="DW27" s="1"/>
+      <c r="EX28" s="1"/>
+      <c r="FA28" s="1"/>
     </row>
-    <row r="28" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="CM28" s="1"/>
-      <c r="DJ28" s="1"/>
-      <c r="DN28" s="1"/>
-      <c r="DP28" s="1"/>
-      <c r="DR28" s="1"/>
-      <c r="DT28" s="1"/>
-      <c r="DW28" s="1"/>
+    <row r="29" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="DQ29" s="1"/>
+      <c r="EN29" s="1"/>
+      <c r="ER29" s="1"/>
+      <c r="ET29" s="1"/>
+      <c r="EV29" s="1"/>
+      <c r="EX29" s="1"/>
+      <c r="FA29" s="1"/>
     </row>
-    <row r="29" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="A29" s="26" t="s">
+    <row r="30" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="A30" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="19">
+      <c r="B30" s="36"/>
+      <c r="C30" s="16">
+        <v>43843</v>
+      </c>
+      <c r="D30" s="16">
+        <v>43844</v>
+      </c>
+      <c r="E30" s="16">
+        <v>43845</v>
+      </c>
+      <c r="F30" s="16">
+        <v>43846</v>
+      </c>
+      <c r="G30" s="16">
+        <v>43847</v>
+      </c>
+      <c r="H30" s="16">
+        <v>43848</v>
+      </c>
+      <c r="I30" s="16">
+        <v>43849</v>
+      </c>
+      <c r="J30" s="16">
+        <v>43850</v>
+      </c>
+      <c r="K30" s="16">
+        <v>43851</v>
+      </c>
+      <c r="L30" s="16">
+        <v>43852</v>
+      </c>
+      <c r="M30" s="16">
+        <v>43853</v>
+      </c>
+      <c r="N30" s="16">
+        <v>43854</v>
+      </c>
+      <c r="O30" s="16">
+        <v>43855</v>
+      </c>
+      <c r="P30" s="16">
+        <v>43856</v>
+      </c>
+      <c r="Q30" s="16">
+        <v>43857</v>
+      </c>
+      <c r="R30" s="16">
+        <v>43858</v>
+      </c>
+      <c r="S30" s="16">
+        <v>43859</v>
+      </c>
+      <c r="T30" s="16">
+        <v>43860</v>
+      </c>
+      <c r="U30" s="16">
+        <v>43861</v>
+      </c>
+      <c r="V30" s="16">
+        <v>43862</v>
+      </c>
+      <c r="W30" s="16">
+        <v>43863</v>
+      </c>
+      <c r="X30" s="16">
+        <v>43864</v>
+      </c>
+      <c r="Y30" s="16">
+        <v>43865</v>
+      </c>
+      <c r="Z30" s="16">
+        <v>43866</v>
+      </c>
+      <c r="AA30" s="16">
+        <v>43867</v>
+      </c>
+      <c r="AB30" s="16">
+        <v>43868</v>
+      </c>
+      <c r="AC30" s="16">
+        <v>43869</v>
+      </c>
+      <c r="AD30" s="16">
+        <v>43870</v>
+      </c>
+      <c r="AE30" s="16">
+        <v>43871</v>
+      </c>
+      <c r="AF30" s="16">
+        <v>43872</v>
+      </c>
+      <c r="AG30" s="16">
         <v>43873</v>
       </c>
-      <c r="D29" s="19">
+      <c r="AH30" s="16">
         <v>43874</v>
       </c>
-      <c r="E29" s="19">
+      <c r="AI30" s="16">
         <v>43875</v>
       </c>
-      <c r="F29" s="19">
+      <c r="AJ30" s="16">
         <v>43876</v>
       </c>
-      <c r="G29" s="19">
+      <c r="AK30" s="16">
         <v>43877</v>
       </c>
-      <c r="H29" s="19">
+      <c r="AL30" s="16">
         <v>43878</v>
       </c>
-      <c r="I29" s="19">
+      <c r="AM30" s="16">
         <v>43879</v>
       </c>
-      <c r="J29" s="19">
+      <c r="AN30" s="16">
         <v>43880</v>
       </c>
-      <c r="K29" s="19">
+      <c r="AO30" s="16">
         <v>43881</v>
       </c>
-      <c r="L29" s="19">
+      <c r="AP30" s="16">
         <v>43882</v>
       </c>
-      <c r="M29" s="19">
+      <c r="AQ30" s="16">
         <v>43883</v>
       </c>
-      <c r="N29" s="19">
+      <c r="AR30" s="16">
         <v>43884</v>
       </c>
-      <c r="O29" s="19">
+      <c r="AS30" s="16">
         <v>43885</v>
       </c>
-      <c r="P29" s="19">
+      <c r="AT30" s="16">
         <v>43886</v>
       </c>
-      <c r="Q29" s="19">
+      <c r="AU30" s="16">
         <v>43887</v>
       </c>
-      <c r="R29" s="19">
+      <c r="AV30" s="16">
         <v>43888</v>
       </c>
-      <c r="S29" s="19">
+      <c r="AW30" s="16">
         <v>43889</v>
       </c>
-      <c r="T29" s="19">
+      <c r="AX30" s="16">
         <v>43890</v>
       </c>
-      <c r="U29" s="19">
+      <c r="AY30" s="16">
         <v>43891</v>
       </c>
-      <c r="V29" s="19">
+      <c r="AZ30" s="16">
         <v>43892</v>
       </c>
-      <c r="W29" s="19">
+      <c r="BA30" s="16">
         <v>43893</v>
       </c>
-      <c r="X29" s="19">
+      <c r="BB30" s="16">
         <v>43894</v>
       </c>
-      <c r="Y29" s="19">
+      <c r="BC30" s="16">
         <v>43895</v>
       </c>
-      <c r="Z29" s="19">
+      <c r="BD30" s="16">
         <v>43896</v>
       </c>
-      <c r="AA29" s="19">
+      <c r="BE30" s="16">
         <v>43897</v>
       </c>
-      <c r="AB29" s="19">
+      <c r="BF30" s="16">
         <v>43898</v>
       </c>
-      <c r="AC29" s="19">
+      <c r="BG30" s="16">
         <v>43899</v>
       </c>
-      <c r="AD29" s="19">
+      <c r="BH30" s="16">
         <v>43900</v>
       </c>
-      <c r="AE29" s="19">
+      <c r="BI30" s="16">
         <v>43901</v>
       </c>
-      <c r="AF29" s="19">
+      <c r="BJ30" s="16">
         <v>43902</v>
       </c>
-      <c r="AG29" s="19">
+      <c r="BK30" s="16">
         <v>43903</v>
       </c>
-      <c r="AH29" s="19">
+      <c r="BL30" s="44">
         <v>43904</v>
       </c>
-      <c r="AI29" s="19">
+      <c r="BM30" s="45">
         <v>43905</v>
       </c>
-      <c r="AJ29" s="16">
+      <c r="BN30" s="14">
         <v>43906</v>
       </c>
-      <c r="AK29" s="16">
+      <c r="BO30" s="14">
         <v>43907</v>
       </c>
-      <c r="AL29" s="16">
+      <c r="BP30" s="14">
         <v>43908</v>
       </c>
-      <c r="AM29" s="16">
+      <c r="BQ30" s="14">
         <v>43909</v>
       </c>
-      <c r="AN29" s="16">
+      <c r="BR30" s="14">
         <v>43910</v>
       </c>
-      <c r="AO29" s="16">
+      <c r="BS30" s="14">
         <v>43911</v>
       </c>
-      <c r="AP29" s="16">
+      <c r="BT30" s="14">
         <v>43912</v>
       </c>
-      <c r="AQ29" s="16">
+      <c r="BU30" s="14">
         <v>43913</v>
       </c>
-      <c r="AR29" s="16">
+      <c r="BV30" s="27">
         <v>43914</v>
       </c>
-      <c r="AS29" s="16">
+      <c r="BW30" s="14">
         <v>43915</v>
       </c>
-      <c r="AT29" s="16">
+      <c r="BX30" s="14">
         <v>43916</v>
       </c>
-      <c r="AU29" s="16">
+      <c r="BY30" s="14">
         <v>43917</v>
       </c>
-      <c r="AV29" s="16">
+      <c r="BZ30" s="14">
         <v>43918</v>
       </c>
-      <c r="AW29" s="16">
+      <c r="CA30" s="14">
         <v>43919</v>
       </c>
-      <c r="AX29" s="16">
+      <c r="CB30" s="14">
         <v>43920</v>
       </c>
-      <c r="AY29" s="16">
+      <c r="CC30" s="14">
         <v>43921</v>
       </c>
-      <c r="AZ29" s="16">
+      <c r="CD30" s="14">
         <v>43922</v>
       </c>
-      <c r="BA29" s="16">
+      <c r="CE30" s="14">
         <v>43923</v>
       </c>
-      <c r="BB29" s="16">
+      <c r="CF30" s="14">
         <v>43924</v>
       </c>
-      <c r="BC29" s="16">
+      <c r="CG30" s="14">
         <v>43925</v>
       </c>
-      <c r="BD29" s="16">
+      <c r="CH30" s="14">
         <v>43926</v>
       </c>
-      <c r="BE29" s="16">
+      <c r="CI30" s="14">
         <v>43927</v>
       </c>
-      <c r="BF29" s="16">
+      <c r="CJ30" s="14">
         <v>43928</v>
       </c>
-      <c r="BG29" s="16">
+      <c r="CK30" s="14">
         <v>43929</v>
       </c>
-      <c r="BH29" s="16">
+      <c r="CL30" s="14">
         <v>43930</v>
       </c>
-      <c r="BI29" s="16">
+      <c r="CM30" s="14">
         <v>43931</v>
       </c>
-      <c r="BJ29" s="16">
+      <c r="CN30" s="14">
         <v>43932</v>
       </c>
-      <c r="BK29" s="16">
+      <c r="CO30" s="14">
         <v>43933</v>
       </c>
-      <c r="BL29" s="16">
+      <c r="CP30" s="14">
         <v>43934</v>
       </c>
-      <c r="BM29" s="16">
+      <c r="CQ30" s="14">
         <v>43935</v>
       </c>
-      <c r="BN29" s="16">
+      <c r="CR30" s="14">
         <v>43936</v>
       </c>
-      <c r="BO29" s="16">
+      <c r="CS30" s="14">
         <v>43937</v>
       </c>
-      <c r="BP29" s="16">
+      <c r="CT30" s="14">
         <v>43938</v>
       </c>
-      <c r="BQ29" s="16">
+      <c r="CU30" s="14">
         <v>43939</v>
       </c>
-      <c r="BR29" s="16">
+      <c r="CV30" s="14">
         <v>43940</v>
       </c>
-      <c r="BS29" s="16">
+      <c r="CW30" s="14">
         <v>43941</v>
       </c>
-      <c r="BT29" s="16">
+      <c r="CX30" s="14">
         <v>43942</v>
       </c>
-      <c r="BU29" s="16">
+      <c r="CY30" s="14">
         <v>43943</v>
       </c>
-      <c r="BV29" s="16">
+      <c r="CZ30" s="14">
         <v>43944</v>
       </c>
-      <c r="BW29" s="23">
+      <c r="DA30" s="17">
         <v>43945</v>
       </c>
-      <c r="BX29" s="23">
+      <c r="DB30" s="18">
         <v>43946</v>
       </c>
-      <c r="BY29" s="23">
+      <c r="DC30" s="17">
         <v>43947</v>
       </c>
-      <c r="BZ29" s="23">
+      <c r="DD30" s="18">
         <v>43948</v>
       </c>
-      <c r="CA29" s="23">
+      <c r="DE30" s="17">
         <v>43949</v>
       </c>
-      <c r="CB29" s="23">
+      <c r="DF30" s="18">
         <v>43950</v>
       </c>
-      <c r="CC29" s="23">
+      <c r="DG30" s="17">
         <v>43951</v>
       </c>
-      <c r="CD29" s="23">
+      <c r="DH30" s="18">
         <v>43952</v>
       </c>
-      <c r="CE29" s="23">
+      <c r="DI30" s="17">
         <v>43953</v>
       </c>
-      <c r="CF29" s="23">
+      <c r="DJ30" s="18">
         <v>43954</v>
       </c>
-      <c r="CG29" s="23">
+      <c r="DK30" s="18">
         <v>43955</v>
       </c>
-      <c r="CH29" s="23">
+      <c r="DL30" s="17">
         <v>43956</v>
       </c>
-      <c r="CI29" s="23">
+      <c r="DM30" s="18">
         <v>43957</v>
       </c>
-      <c r="CJ29" s="23">
+      <c r="DN30" s="18">
         <v>43958</v>
       </c>
-      <c r="CK29" s="23">
+      <c r="DO30" s="17">
         <v>43959</v>
       </c>
-      <c r="CL29" s="23">
+      <c r="DP30" s="18">
         <v>43960</v>
       </c>
-      <c r="CM29" s="23">
+      <c r="DQ30" s="18">
         <v>43961</v>
       </c>
-      <c r="CN29" s="23">
+      <c r="DR30" s="18">
         <v>43962</v>
       </c>
-      <c r="CO29" s="23">
+      <c r="DS30" s="18">
         <v>43963</v>
       </c>
-      <c r="CP29" s="23">
+      <c r="DT30" s="18">
         <v>43964</v>
       </c>
-      <c r="CQ29" s="23">
+      <c r="DU30" s="18">
         <v>43965</v>
       </c>
-      <c r="CR29" s="23">
+      <c r="DV30" s="18">
         <v>43966</v>
       </c>
-      <c r="CS29" s="23">
+      <c r="DW30" s="18">
         <v>43967</v>
       </c>
-      <c r="CT29" s="23">
+      <c r="DX30" s="18">
         <v>43968</v>
       </c>
-      <c r="CU29" s="23">
+      <c r="DY30" s="18">
         <v>43969</v>
       </c>
-      <c r="CV29" s="23">
+      <c r="DZ30" s="17">
         <v>43970</v>
       </c>
-      <c r="CW29" s="23">
+      <c r="EA30" s="17">
         <v>43971</v>
       </c>
-      <c r="CX29" s="23">
+      <c r="EB30" s="18">
         <v>43972</v>
       </c>
-      <c r="CY29" s="23">
+      <c r="EC30" s="18">
         <v>43973</v>
       </c>
-      <c r="CZ29" s="23">
+      <c r="ED30" s="18">
         <v>43974</v>
       </c>
-      <c r="DA29" s="23">
+      <c r="EE30" s="18">
         <v>43975</v>
       </c>
-      <c r="DB29" s="23">
+      <c r="EF30" s="18">
         <v>43976</v>
       </c>
-      <c r="DC29" s="23">
+      <c r="EG30" s="18">
         <v>43977</v>
       </c>
-      <c r="DD29" s="23">
+      <c r="EH30" s="18">
         <v>43978</v>
       </c>
-      <c r="DE29" s="23">
+      <c r="EI30" s="18">
         <v>43979</v>
       </c>
-      <c r="DF29" s="23">
+      <c r="EJ30" s="17">
         <v>43980</v>
       </c>
-      <c r="DG29" s="23">
+      <c r="EK30" s="18">
         <v>43981</v>
       </c>
-      <c r="DH29" s="23">
+      <c r="EL30" s="18">
         <v>43982</v>
       </c>
-      <c r="DI29" s="23">
+      <c r="EM30" s="17">
         <v>43983</v>
       </c>
-      <c r="DJ29" s="23">
+      <c r="EN30" s="18">
         <v>43984</v>
       </c>
-      <c r="DK29" s="23">
+      <c r="EO30" s="18">
         <v>43985</v>
       </c>
-      <c r="DL29" s="23">
+      <c r="EP30" s="18">
         <v>43986</v>
       </c>
-      <c r="DM29" s="23">
+      <c r="EQ30" s="18">
         <v>43987</v>
       </c>
-      <c r="DN29" s="23">
+      <c r="ER30" s="18">
         <v>43988</v>
       </c>
-      <c r="DO29" s="23">
+      <c r="ES30" s="18">
         <v>43989</v>
       </c>
-      <c r="DP29" s="23">
+      <c r="ET30" s="18">
         <v>43990</v>
       </c>
-      <c r="DQ29" s="23">
+      <c r="EU30" s="18">
         <v>43991</v>
       </c>
-      <c r="DR29" s="23">
+      <c r="EV30" s="18">
         <v>43992</v>
       </c>
-      <c r="DS29" s="23">
+      <c r="EW30" s="18">
         <v>43993</v>
       </c>
-      <c r="DT29" s="23">
+      <c r="EX30" s="18">
         <v>43994</v>
       </c>
-      <c r="DU29" s="23">
+      <c r="EY30" s="18">
         <v>43995</v>
       </c>
-      <c r="DV29" s="23">
+      <c r="EZ30" s="18">
         <v>43996</v>
       </c>
-      <c r="DW29" s="23">
+      <c r="FA30" s="40">
         <v>43997</v>
       </c>
-      <c r="DX29" s="21">
+      <c r="FB30" s="18">
         <v>43998</v>
       </c>
-      <c r="DY29" s="22">
+      <c r="FC30" s="19">
         <v>43999</v>
       </c>
-      <c r="DZ29" s="21">
+      <c r="FD30" s="18">
         <v>44000</v>
       </c>
-      <c r="EA29" s="22">
+      <c r="FE30" s="19">
         <v>44001</v>
       </c>
-      <c r="EB29" s="21">
+      <c r="FF30" s="18">
         <v>44002</v>
       </c>
-      <c r="EC29" s="22">
+      <c r="FG30" s="18">
         <v>44003</v>
       </c>
-      <c r="ED29" s="21">
+      <c r="FH30" s="17">
         <v>44004</v>
       </c>
-      <c r="EE29" s="21">
+      <c r="FI30" s="18">
         <v>44005</v>
       </c>
-      <c r="EF29" s="20">
+      <c r="FJ30" s="17">
         <v>44006</v>
       </c>
     </row>
-    <row r="30" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="B30" s="9" t="s">
+    <row r="31" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="B31" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="CM30" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="CO30" s="8"/>
-      <c r="DR30" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="B31" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
-      <c r="DJ31" s="8" t="s">
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="9"/>
+      <c r="AD31" s="9"/>
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="9"/>
+      <c r="AH31" s="9"/>
+      <c r="BM31" s="1"/>
+      <c r="DL31" s="1"/>
+      <c r="DO31" s="1"/>
+      <c r="DQ31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="DS31" s="8"/>
+      <c r="EA31" s="1"/>
+      <c r="EV31" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="FA31" s="1"/>
+      <c r="FH31" s="1"/>
+    </row>
+    <row r="32" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="B32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="9"/>
+      <c r="AH32" s="9"/>
+      <c r="BM32" s="1"/>
+      <c r="DL32" s="1"/>
+      <c r="DO32" s="1"/>
+      <c r="EA32" s="1"/>
+      <c r="EN32" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="DN31" s="8" t="s">
+      <c r="ER32" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="DP31" s="8" t="s">
+      <c r="ET32" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="DR31" s="8" t="s">
+      <c r="EV32" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="DT31" s="8" t="s">
+      <c r="EX32" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="DW31" s="8" t="s">
+      <c r="FA32" s="41" t="s">
         <v>40</v>
       </c>
+      <c r="FH32" s="1"/>
     </row>
-    <row r="32" spans="1:136" x14ac:dyDescent="0.2">
-      <c r="B32" s="9" t="s">
+    <row r="33" spans="1:164" x14ac:dyDescent="0.2">
+      <c r="B33" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+      <c r="BM33" s="1"/>
+      <c r="BN33" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="BO33" s="32"/>
+      <c r="BP33" s="32"/>
+      <c r="BQ33" s="32"/>
+      <c r="BR33" s="32"/>
+      <c r="BS33" s="32"/>
+      <c r="BV33" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="BW33" s="32"/>
+      <c r="BX33" s="32"/>
+      <c r="BY33" s="32"/>
+      <c r="BZ33" s="32"/>
+      <c r="DL33" s="1"/>
+      <c r="DO33" s="1"/>
+      <c r="EA33" s="1"/>
+      <c r="FA33" s="1"/>
+      <c r="FH33" s="1"/>
+    </row>
+    <row r="34" spans="1:164" x14ac:dyDescent="0.2">
+      <c r="B34" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AJ32" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK32" s="18"/>
-      <c r="AL32" s="18"/>
-      <c r="AM32" s="18"/>
-      <c r="AN32" s="18"/>
-      <c r="AO32" s="18"/>
-      <c r="AR32" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS32" s="18"/>
-      <c r="AT32" s="18"/>
-      <c r="AU32" s="18"/>
-      <c r="AV32" s="18"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD34" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE34" s="31"/>
+      <c r="BF34" s="31"/>
+      <c r="BG34" s="31"/>
+      <c r="BH34" s="31"/>
+      <c r="BI34" s="31"/>
+      <c r="BJ34" s="31"/>
+      <c r="BM34" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="BV34" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL34" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="DO34" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="EA34" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="EJ34" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="FA34" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="FH34" s="42" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="33" spans="1:110" x14ac:dyDescent="0.2">
-      <c r="B33" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z33" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA33" s="36"/>
-      <c r="AB33" s="36"/>
-      <c r="AC33" s="36"/>
-      <c r="AD33" s="36"/>
-      <c r="AE33" s="36"/>
-      <c r="AF33" s="36"/>
-      <c r="AI33" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR33" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="CH33" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="CK33" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="DF33" s="39" t="s">
-        <v>58</v>
-      </c>
+    <row r="35" spans="1:164" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:164" x14ac:dyDescent="0.2">
+      <c r="A37" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="30"/>
     </row>
-    <row r="34" spans="1:110" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:110" x14ac:dyDescent="0.2">
-      <c r="A36" s="27" t="s">
+    <row r="38" spans="1:164" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="27"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="54"/>
+      <c r="V38" s="54"/>
+      <c r="W38" s="54"/>
+      <c r="X38" s="54"/>
+      <c r="Y38" s="54"/>
+      <c r="Z38" s="54"/>
+      <c r="AA38" s="54"/>
+      <c r="AB38" s="54"/>
+      <c r="AC38" s="54"/>
+      <c r="AD38" s="54"/>
+      <c r="AE38" s="54"/>
+      <c r="AF38" s="54"/>
     </row>
-    <row r="37" spans="1:110" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
-      <c r="B37" s="30" t="s">
+    <row r="39" spans="1:164" x14ac:dyDescent="0.2">
+      <c r="A39" s="22"/>
+      <c r="B39" s="24" t="s">
         <v>54</v>
       </c>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="55"/>
+      <c r="T39" s="55"/>
+      <c r="U39" s="55"/>
+      <c r="V39" s="55"/>
+      <c r="W39" s="55"/>
+      <c r="X39" s="55"/>
+      <c r="Y39" s="55"/>
+      <c r="Z39" s="55"/>
+      <c r="AA39" s="55"/>
+      <c r="AB39" s="55"/>
+      <c r="AC39" s="55"/>
+      <c r="AD39" s="55"/>
+      <c r="AE39" s="55"/>
+      <c r="AF39" s="55"/>
     </row>
-    <row r="38" spans="1:110" x14ac:dyDescent="0.2">
-      <c r="A38" s="29"/>
-      <c r="B38" s="31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:110" x14ac:dyDescent="0.2">
-      <c r="BY42" s="15"/>
-      <c r="BZ42" s="15"/>
+    <row r="43" spans="1:164" x14ac:dyDescent="0.2">
+      <c r="DC43" s="13"/>
+      <c r="DD43" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="Z13:AF13"/>
-    <mergeCell ref="Z22:AF22"/>
-    <mergeCell ref="Z33:AF33"/>
-    <mergeCell ref="AJ32:AO32"/>
-    <mergeCell ref="AR21:AV21"/>
-    <mergeCell ref="AR32:AV32"/>
-    <mergeCell ref="B1:B6"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="AJ12:AO12"/>
-    <mergeCell ref="AR12:AV12"/>
-    <mergeCell ref="AJ21:AO21"/>
-    <mergeCell ref="CV10:DI10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="BW8:CE8"/>
+  <mergeCells count="26">
+    <mergeCell ref="BD34:BJ34"/>
+    <mergeCell ref="BD23:BJ23"/>
+    <mergeCell ref="BD14:BJ14"/>
+    <mergeCell ref="C6:N6"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="C16:N16"/>
+    <mergeCell ref="C28:N28"/>
+    <mergeCell ref="C27:N27"/>
+    <mergeCell ref="DZ11:EM11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="DA9:DI9"/>
+    <mergeCell ref="BG27:BK27"/>
+    <mergeCell ref="BG28:BK28"/>
+    <mergeCell ref="BG17:BK17"/>
+    <mergeCell ref="BG16:BK16"/>
+    <mergeCell ref="BV22:BZ22"/>
+    <mergeCell ref="BV33:BZ33"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="BN13:BS13"/>
+    <mergeCell ref="BV13:BZ13"/>
+    <mergeCell ref="BN22:BS22"/>
+    <mergeCell ref="BN33:BS33"/>
+    <mergeCell ref="A37:B37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/references/utx000ext_timelines.xlsx
+++ b/references/utx000ext_timelines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hagenfritz/Projects/utx000/references/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FD9997-BC2A-894C-8E34-DE2495B3C9EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2A89D5-6452-424C-991B-7A6FF04CE743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A42CCD86-71DD-4C4D-87F8-705DB24E1636}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="75">
   <si>
     <t>Event 1</t>
   </si>
@@ -203,9 +203,6 @@
     <t>State of Disaster</t>
   </si>
   <si>
-    <t>Order of Control for Mass Gatherings</t>
-  </si>
-  <si>
     <t>Stay at Home - Work Safe Order</t>
   </si>
   <si>
@@ -252,6 +249,15 @@
   </si>
   <si>
     <t>Devices Distributed</t>
+  </si>
+  <si>
+    <t>Phase 1 Reopening</t>
+  </si>
+  <si>
+    <t>Phase 2 Reopening</t>
+  </si>
+  <si>
+    <t>Phase 3 Reopening</t>
   </si>
 </sst>
 </file>
@@ -325,14 +331,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <i/>
       <sz val="12"/>
-      <color theme="4" tint="0.39997558519241921"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,6 +398,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -563,65 +589,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -641,6 +617,75 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -960,8 +1005,8 @@
   <dimension ref="A1:FJ43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AU1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BC10" sqref="BC10"/>
+      <pane xSplit="2" topLeftCell="DE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DQ17" sqref="DQ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -972,41 +1017,41 @@
   <sheetData>
     <row r="1" spans="1:166" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
       <c r="AG2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="DA2" s="5" t="s">
         <v>4</v>
@@ -1016,37 +1061,37 @@
       </c>
     </row>
     <row r="3" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="B3" s="33"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
       <c r="AG3" s="1"/>
       <c r="DA3" s="5" t="s">
         <v>5</v>
@@ -1055,37 +1100,37 @@
       <c r="FJ3" s="1"/>
     </row>
     <row r="4" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="B4" s="33"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="53"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="53"/>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="53"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
       <c r="AG4" s="1"/>
       <c r="DA4" s="5" t="s">
         <v>3</v>
@@ -1102,37 +1147,37 @@
       </c>
     </row>
     <row r="5" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="B5" s="33"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="53"/>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="53"/>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="53"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
       <c r="AG5" s="1"/>
       <c r="DA5" s="5" t="s">
         <v>6</v>
@@ -1145,39 +1190,39 @@
       <c r="FJ5" s="1"/>
     </row>
     <row r="6" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="B6" s="33"/>
-      <c r="C6" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="53"/>
-      <c r="AE6" s="53"/>
-      <c r="AF6" s="53"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
       <c r="AG6" s="1"/>
       <c r="DA6" s="5" t="s">
         <v>7</v>
@@ -1203,37 +1248,37 @@
       <c r="FJ6" s="1"/>
     </row>
     <row r="7" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="B7" s="33"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="53"/>
-      <c r="AE7" s="53"/>
-      <c r="AF7" s="53"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
       <c r="AG7" s="1"/>
       <c r="DA7" s="2"/>
       <c r="DC7" s="2"/>
@@ -1245,10 +1290,10 @@
       <c r="FJ7" s="1"/>
     </row>
     <row r="8" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="16">
         <v>43843</v>
       </c>
@@ -1432,10 +1477,10 @@
       <c r="BK8" s="16">
         <v>43903</v>
       </c>
-      <c r="BL8" s="44">
+      <c r="BL8" s="29">
         <v>43904</v>
       </c>
-      <c r="BM8" s="45">
+      <c r="BM8" s="30">
         <v>43905</v>
       </c>
       <c r="BN8" s="14">
@@ -1462,7 +1507,7 @@
       <c r="BU8" s="14">
         <v>43913</v>
       </c>
-      <c r="BV8" s="27">
+      <c r="BV8" s="26">
         <v>43914</v>
       </c>
       <c r="BW8" s="14">
@@ -1711,7 +1756,7 @@
       <c r="EZ8" s="18">
         <v>43996</v>
       </c>
-      <c r="FA8" s="40">
+      <c r="FA8" s="27">
         <v>43997</v>
       </c>
       <c r="FB8" s="18">
@@ -1780,17 +1825,17 @@
       <c r="AH9" s="9"/>
       <c r="BM9" s="1"/>
       <c r="BU9" s="25"/>
-      <c r="DA9" s="39" t="s">
+      <c r="DA9" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="DB9" s="39"/>
-      <c r="DC9" s="39"/>
-      <c r="DD9" s="39"/>
-      <c r="DE9" s="39"/>
-      <c r="DF9" s="39"/>
-      <c r="DG9" s="39"/>
-      <c r="DH9" s="39"/>
-      <c r="DI9" s="39"/>
+      <c r="DB9" s="44"/>
+      <c r="DC9" s="44"/>
+      <c r="DD9" s="44"/>
+      <c r="DE9" s="44"/>
+      <c r="DF9" s="44"/>
+      <c r="DG9" s="44"/>
+      <c r="DH9" s="44"/>
+      <c r="DI9" s="44"/>
       <c r="DL9" s="1"/>
       <c r="DO9" s="1"/>
       <c r="EA9" s="1"/>
@@ -1886,22 +1931,22 @@
       <c r="BU11" s="25"/>
       <c r="DL11" s="1"/>
       <c r="DO11" s="1"/>
-      <c r="DZ11" s="35" t="s">
+      <c r="DZ11" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="EA11" s="35"/>
-      <c r="EB11" s="35"/>
-      <c r="EC11" s="35"/>
-      <c r="ED11" s="35"/>
-      <c r="EE11" s="35"/>
-      <c r="EF11" s="35"/>
-      <c r="EG11" s="35"/>
-      <c r="EH11" s="35"/>
-      <c r="EI11" s="35"/>
-      <c r="EJ11" s="35"/>
-      <c r="EK11" s="35"/>
-      <c r="EL11" s="35"/>
-      <c r="EM11" s="35"/>
+      <c r="EA11" s="40"/>
+      <c r="EB11" s="40"/>
+      <c r="EC11" s="40"/>
+      <c r="ED11" s="40"/>
+      <c r="EE11" s="40"/>
+      <c r="EF11" s="40"/>
+      <c r="EG11" s="40"/>
+      <c r="EH11" s="40"/>
+      <c r="EI11" s="40"/>
+      <c r="EJ11" s="40"/>
+      <c r="EK11" s="40"/>
+      <c r="EL11" s="40"/>
+      <c r="EM11" s="40"/>
       <c r="FA11" s="1"/>
       <c r="FH11" s="1"/>
     </row>
@@ -1986,22 +2031,22 @@
       <c r="AE13" s="9"/>
       <c r="AF13" s="9"/>
       <c r="BM13" s="1"/>
-      <c r="BN13" s="32" t="s">
+      <c r="BN13" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="BO13" s="32"/>
-      <c r="BP13" s="32"/>
-      <c r="BQ13" s="32"/>
-      <c r="BR13" s="32"/>
-      <c r="BS13" s="32"/>
+      <c r="BO13" s="48"/>
+      <c r="BP13" s="48"/>
+      <c r="BQ13" s="48"/>
+      <c r="BR13" s="48"/>
+      <c r="BS13" s="48"/>
       <c r="BU13" s="25"/>
-      <c r="BV13" s="49" t="s">
+      <c r="BV13" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="BW13" s="32"/>
-      <c r="BX13" s="32"/>
-      <c r="BY13" s="32"/>
-      <c r="BZ13" s="32"/>
+      <c r="BW13" s="48"/>
+      <c r="BX13" s="48"/>
+      <c r="BY13" s="48"/>
+      <c r="BZ13" s="48"/>
       <c r="DL13" s="1"/>
       <c r="DO13" s="1"/>
       <c r="EA13" s="1"/>
@@ -2009,97 +2054,156 @@
       <c r="FA13" s="1"/>
       <c r="FH13" s="1"/>
     </row>
-    <row r="14" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:166" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="29" t="s">
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="62"/>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="62"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD14" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE14" s="63"/>
+      <c r="BF14" s="63"/>
+      <c r="BG14" s="63"/>
+      <c r="BH14" s="63"/>
+      <c r="BI14" s="63"/>
+      <c r="BJ14" s="63"/>
+      <c r="BM14" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="BD14" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE14" s="31"/>
-      <c r="BF14" s="31"/>
-      <c r="BG14" s="31"/>
-      <c r="BH14" s="31"/>
-      <c r="BI14" s="31"/>
-      <c r="BJ14" s="31"/>
-      <c r="BM14" s="26" t="s">
+      <c r="BU14" s="65"/>
+      <c r="BV14" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="DD14" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="DE14" s="54"/>
+      <c r="DF14" s="59"/>
+      <c r="DG14" s="66"/>
+      <c r="DH14" s="66"/>
+      <c r="DI14" s="66"/>
+      <c r="DJ14" s="66"/>
+      <c r="DK14" s="66"/>
+      <c r="DL14" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="DM14" s="66"/>
+      <c r="DN14" s="66"/>
+      <c r="DO14" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="DP14" s="66"/>
+      <c r="DQ14" s="66"/>
+      <c r="DR14" s="66"/>
+      <c r="DS14" s="66"/>
+      <c r="DT14" s="66"/>
+      <c r="DU14" s="66"/>
+      <c r="DV14" s="66"/>
+      <c r="DW14" s="66"/>
+      <c r="DX14" s="66"/>
+      <c r="DY14" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="DZ14" s="58"/>
+      <c r="EA14" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="BU14" s="25"/>
-      <c r="BV14" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="DL14" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="DO14" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="EA14" s="26" t="s">
+      <c r="EB14" s="60"/>
+      <c r="EC14" s="60"/>
+      <c r="ED14" s="60"/>
+      <c r="EE14" s="60"/>
+      <c r="EF14" s="60"/>
+      <c r="EG14" s="60"/>
+      <c r="EH14" s="60"/>
+      <c r="EI14" s="60"/>
+      <c r="EJ14" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="EK14" s="60"/>
+      <c r="EL14" s="60"/>
+      <c r="EM14" s="60"/>
+      <c r="EN14" s="60"/>
+      <c r="EO14" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="EP14" s="70"/>
+      <c r="EQ14" s="68"/>
+      <c r="ER14" s="68"/>
+      <c r="ES14" s="68"/>
+      <c r="ET14" s="68"/>
+      <c r="EU14" s="68"/>
+      <c r="EV14" s="68"/>
+      <c r="EW14" s="68"/>
+      <c r="EX14" s="68"/>
+      <c r="EY14" s="68"/>
+      <c r="EZ14" s="68"/>
+      <c r="FA14" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="EJ14" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="FA14" s="26" t="s">
+      <c r="FB14" s="68"/>
+      <c r="FC14" s="68"/>
+      <c r="FD14" s="68"/>
+      <c r="FE14" s="68"/>
+      <c r="FF14" s="68"/>
+      <c r="FG14" s="68"/>
+      <c r="FH14" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="FH14" s="42" t="s">
-        <v>63</v>
-      </c>
+      <c r="FI14" s="68"/>
+      <c r="FJ14" s="68"/>
     </row>
     <row r="15" spans="1:166" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
+      <c r="C16" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
@@ -2118,33 +2222,33 @@
       <c r="AD16" s="20"/>
       <c r="AE16" s="20"/>
       <c r="AF16" s="20"/>
-      <c r="BD16" s="46"/>
-      <c r="BE16" s="46"/>
-      <c r="BF16" s="46"/>
-      <c r="BG16" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH16" s="51"/>
-      <c r="BI16" s="51"/>
-      <c r="BJ16" s="51"/>
-      <c r="BK16" s="52"/>
+      <c r="BD16" s="31"/>
+      <c r="BE16" s="31"/>
+      <c r="BF16" s="31"/>
+      <c r="BG16" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="BH16" s="46"/>
+      <c r="BI16" s="46"/>
+      <c r="BJ16" s="46"/>
+      <c r="BK16" s="47"/>
     </row>
     <row r="17" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="B17" s="34"/>
-      <c r="C17" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
@@ -2163,16 +2267,16 @@
       <c r="AD17" s="20"/>
       <c r="AE17" s="20"/>
       <c r="AF17" s="20"/>
-      <c r="BD17" s="46"/>
-      <c r="BE17" s="46"/>
-      <c r="BF17" s="46"/>
-      <c r="BG17" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="BH17" s="51"/>
-      <c r="BI17" s="51"/>
-      <c r="BJ17" s="51"/>
-      <c r="BK17" s="52"/>
+      <c r="BD17" s="31"/>
+      <c r="BE17" s="31"/>
+      <c r="BF17" s="31"/>
+      <c r="BG17" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="BH17" s="46"/>
+      <c r="BI17" s="46"/>
+      <c r="BJ17" s="46"/>
+      <c r="BK17" s="47"/>
       <c r="DA17" s="1" t="s">
         <v>12</v>
       </c>
@@ -2184,7 +2288,7 @@
       </c>
     </row>
     <row r="18" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="B18" s="34"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
@@ -2215,23 +2319,23 @@
       <c r="AD18" s="20"/>
       <c r="AE18" s="20"/>
       <c r="AF18" s="20"/>
-      <c r="BD18" s="46"/>
-      <c r="BE18" s="46"/>
-      <c r="BF18" s="46"/>
-      <c r="BG18" s="46"/>
-      <c r="BH18" s="46"/>
-      <c r="BI18" s="46"/>
-      <c r="BJ18" s="46"/>
-      <c r="BK18" s="46"/>
+      <c r="BD18" s="31"/>
+      <c r="BE18" s="31"/>
+      <c r="BF18" s="31"/>
+      <c r="BG18" s="31"/>
+      <c r="BH18" s="31"/>
+      <c r="BI18" s="31"/>
+      <c r="BJ18" s="31"/>
+      <c r="BK18" s="31"/>
       <c r="DA18" s="1"/>
       <c r="DP18" s="1"/>
       <c r="DT18" s="1"/>
     </row>
     <row r="19" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="38"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="16">
         <v>43843</v>
       </c>
@@ -2415,10 +2519,10 @@
       <c r="BK19" s="16">
         <v>43903</v>
       </c>
-      <c r="BL19" s="44">
+      <c r="BL19" s="29">
         <v>43904</v>
       </c>
-      <c r="BM19" s="45">
+      <c r="BM19" s="30">
         <v>43905</v>
       </c>
       <c r="BN19" s="14">
@@ -2445,7 +2549,7 @@
       <c r="BU19" s="14">
         <v>43913</v>
       </c>
-      <c r="BV19" s="27">
+      <c r="BV19" s="26">
         <v>43914</v>
       </c>
       <c r="BW19" s="14">
@@ -2694,7 +2798,7 @@
       <c r="EZ19" s="18">
         <v>43996</v>
       </c>
-      <c r="FA19" s="40">
+      <c r="FA19" s="27">
         <v>43997</v>
       </c>
       <c r="FB19" s="18">
@@ -2761,14 +2865,14 @@
       <c r="AF20" s="9"/>
       <c r="AG20" s="9"/>
       <c r="AH20" s="9"/>
-      <c r="BD20" s="46"/>
-      <c r="BE20" s="46"/>
-      <c r="BF20" s="46"/>
-      <c r="BG20" s="46"/>
-      <c r="BH20" s="46"/>
-      <c r="BI20" s="46"/>
-      <c r="BJ20" s="46"/>
-      <c r="BK20" s="46"/>
+      <c r="BD20" s="31"/>
+      <c r="BE20" s="31"/>
+      <c r="BF20" s="31"/>
+      <c r="BG20" s="31"/>
+      <c r="BH20" s="31"/>
+      <c r="BI20" s="31"/>
+      <c r="BJ20" s="31"/>
+      <c r="BK20" s="31"/>
       <c r="BM20" s="1"/>
       <c r="DA20" s="8" t="s">
         <v>18</v>
@@ -2821,14 +2925,14 @@
       <c r="AF21" s="9"/>
       <c r="AG21" s="9"/>
       <c r="AH21" s="9"/>
-      <c r="BD21" s="46"/>
-      <c r="BE21" s="46"/>
-      <c r="BF21" s="46"/>
-      <c r="BG21" s="46"/>
-      <c r="BH21" s="46"/>
-      <c r="BI21" s="46"/>
-      <c r="BJ21" s="46"/>
-      <c r="BK21" s="46"/>
+      <c r="BD21" s="31"/>
+      <c r="BE21" s="31"/>
+      <c r="BF21" s="31"/>
+      <c r="BG21" s="31"/>
+      <c r="BH21" s="31"/>
+      <c r="BI21" s="31"/>
+      <c r="BJ21" s="31"/>
+      <c r="BK21" s="31"/>
       <c r="BM21" s="1"/>
       <c r="DL21" s="1"/>
       <c r="DO21" s="1"/>
@@ -2873,181 +2977,240 @@
       <c r="AD22" s="9"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="9"/>
-      <c r="BD22" s="46"/>
-      <c r="BE22" s="46"/>
-      <c r="BF22" s="46"/>
-      <c r="BG22" s="46"/>
-      <c r="BH22" s="46"/>
-      <c r="BI22" s="46"/>
-      <c r="BJ22" s="46"/>
-      <c r="BK22" s="46"/>
+      <c r="BD22" s="31"/>
+      <c r="BE22" s="31"/>
+      <c r="BF22" s="31"/>
+      <c r="BG22" s="31"/>
+      <c r="BH22" s="31"/>
+      <c r="BI22" s="31"/>
+      <c r="BJ22" s="31"/>
+      <c r="BK22" s="31"/>
       <c r="BM22" s="1"/>
-      <c r="BN22" s="32" t="s">
+      <c r="BN22" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="BO22" s="32"/>
-      <c r="BP22" s="32"/>
-      <c r="BQ22" s="32"/>
-      <c r="BR22" s="32"/>
-      <c r="BS22" s="32"/>
-      <c r="BV22" s="32" t="s">
+      <c r="BO22" s="48"/>
+      <c r="BP22" s="48"/>
+      <c r="BQ22" s="48"/>
+      <c r="BR22" s="48"/>
+      <c r="BS22" s="48"/>
+      <c r="BV22" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="BW22" s="32"/>
-      <c r="BX22" s="32"/>
-      <c r="BY22" s="32"/>
-      <c r="BZ22" s="32"/>
+      <c r="BW22" s="48"/>
+      <c r="BX22" s="48"/>
+      <c r="BY22" s="48"/>
+      <c r="BZ22" s="48"/>
       <c r="DL22" s="1"/>
       <c r="DO22" s="1"/>
       <c r="EA22" s="1"/>
       <c r="FA22" s="1"/>
       <c r="FH22" s="1"/>
     </row>
-    <row r="23" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:166" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="29" t="s">
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="62"/>
+      <c r="AA23" s="62"/>
+      <c r="AB23" s="62"/>
+      <c r="AC23" s="62"/>
+      <c r="AD23" s="62"/>
+      <c r="AE23" s="62"/>
+      <c r="AF23" s="62"/>
+      <c r="AG23" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD23" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE23" s="63"/>
+      <c r="BF23" s="63"/>
+      <c r="BG23" s="63"/>
+      <c r="BH23" s="63"/>
+      <c r="BI23" s="63"/>
+      <c r="BJ23" s="63"/>
+      <c r="BM23" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="BD23" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE23" s="47"/>
-      <c r="BF23" s="47"/>
-      <c r="BG23" s="47"/>
-      <c r="BH23" s="47"/>
-      <c r="BI23" s="47"/>
-      <c r="BJ23" s="47"/>
-      <c r="BK23" s="46"/>
-      <c r="BM23" s="26" t="s">
+      <c r="BU23" s="65"/>
+      <c r="BV23" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="BV23" s="28" t="s">
+      <c r="DD23" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="DE23" s="54"/>
+      <c r="DF23" s="59"/>
+      <c r="DG23" s="66"/>
+      <c r="DH23" s="66"/>
+      <c r="DI23" s="66"/>
+      <c r="DJ23" s="66"/>
+      <c r="DK23" s="66"/>
+      <c r="DL23" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="DL23" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="DO23" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="EA23" s="26" t="s">
+      <c r="DM23" s="66"/>
+      <c r="DN23" s="66"/>
+      <c r="DO23" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="DP23" s="66"/>
+      <c r="DQ23" s="66"/>
+      <c r="DR23" s="66"/>
+      <c r="DS23" s="66"/>
+      <c r="DT23" s="66"/>
+      <c r="DU23" s="66"/>
+      <c r="DV23" s="66"/>
+      <c r="DW23" s="66"/>
+      <c r="DX23" s="66"/>
+      <c r="DY23" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="DZ23" s="58"/>
+      <c r="EA23" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="EB23" s="60"/>
+      <c r="EC23" s="60"/>
+      <c r="ED23" s="60"/>
+      <c r="EE23" s="60"/>
+      <c r="EF23" s="60"/>
+      <c r="EG23" s="60"/>
+      <c r="EH23" s="60"/>
+      <c r="EI23" s="60"/>
+      <c r="EJ23" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="EK23" s="60"/>
+      <c r="EL23" s="60"/>
+      <c r="EM23" s="60"/>
+      <c r="EN23" s="60"/>
+      <c r="EO23" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="EP23" s="70"/>
+      <c r="EQ23" s="68"/>
+      <c r="ER23" s="68"/>
+      <c r="ES23" s="68"/>
+      <c r="ET23" s="68"/>
+      <c r="EU23" s="68"/>
+      <c r="EV23" s="68"/>
+      <c r="EW23" s="68"/>
+      <c r="EX23" s="68"/>
+      <c r="EY23" s="68"/>
+      <c r="EZ23" s="68"/>
+      <c r="FA23" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="EJ23" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="FA23" s="26" t="s">
+      <c r="FB23" s="68"/>
+      <c r="FC23" s="68"/>
+      <c r="FD23" s="68"/>
+      <c r="FE23" s="68"/>
+      <c r="FF23" s="68"/>
+      <c r="FG23" s="68"/>
+      <c r="FH23" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="FH23" s="42" t="s">
-        <v>63</v>
-      </c>
+      <c r="FI23" s="68"/>
+      <c r="FJ23" s="68"/>
     </row>
     <row r="24" spans="1:166" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="BD24" s="48"/>
-      <c r="BE24" s="48"/>
-      <c r="BF24" s="48"/>
-      <c r="BG24" s="48"/>
-      <c r="BH24" s="48"/>
-      <c r="BI24" s="48"/>
-      <c r="BJ24" s="48"/>
-      <c r="BK24" s="48"/>
+      <c r="BD24" s="32"/>
+      <c r="BE24" s="32"/>
+      <c r="BF24" s="32"/>
+      <c r="BG24" s="32"/>
+      <c r="BH24" s="32"/>
+      <c r="BI24" s="32"/>
+      <c r="BJ24" s="32"/>
+      <c r="BK24" s="32"/>
     </row>
     <row r="25" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="BD25" s="46"/>
-      <c r="BE25" s="46"/>
-      <c r="BF25" s="46"/>
-      <c r="BG25" s="46"/>
-      <c r="BH25" s="46"/>
-      <c r="BI25" s="46"/>
-      <c r="BJ25" s="46"/>
-      <c r="BK25" s="46"/>
+      <c r="BD25" s="31"/>
+      <c r="BE25" s="31"/>
+      <c r="BF25" s="31"/>
+      <c r="BG25" s="31"/>
+      <c r="BH25" s="31"/>
+      <c r="BI25" s="31"/>
+      <c r="BJ25" s="31"/>
+      <c r="BK25" s="31"/>
     </row>
     <row r="26" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="BD26" s="46"/>
-      <c r="BE26" s="46"/>
-      <c r="BF26" s="46"/>
-      <c r="BG26" s="46"/>
-      <c r="BH26" s="46"/>
-      <c r="BI26" s="46"/>
-      <c r="BJ26" s="46"/>
-      <c r="BK26" s="46"/>
+      <c r="BD26" s="31"/>
+      <c r="BE26" s="31"/>
+      <c r="BF26" s="31"/>
+      <c r="BG26" s="31"/>
+      <c r="BH26" s="31"/>
+      <c r="BI26" s="31"/>
+      <c r="BJ26" s="31"/>
+      <c r="BK26" s="31"/>
     </row>
     <row r="27" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="56"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
-      <c r="AA27" s="56"/>
-      <c r="AB27" s="56"/>
-      <c r="AC27" s="56"/>
-      <c r="BD27" s="46"/>
-      <c r="BE27" s="46"/>
-      <c r="BF27" s="46"/>
-      <c r="BG27" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="BH27" s="51"/>
-      <c r="BI27" s="51"/>
-      <c r="BJ27" s="51"/>
-      <c r="BK27" s="52"/>
+      <c r="C27" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="BD27" s="31"/>
+      <c r="BE27" s="31"/>
+      <c r="BF27" s="31"/>
+      <c r="BG27" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="BH27" s="46"/>
+      <c r="BI27" s="46"/>
+      <c r="BJ27" s="46"/>
+      <c r="BK27" s="47"/>
       <c r="EN27" s="1" t="s">
         <v>30</v>
       </c>
@@ -3068,48 +3231,48 @@
       </c>
     </row>
     <row r="28" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
-      <c r="AA28" s="56"/>
-      <c r="AB28" s="56"/>
-      <c r="AC28" s="56"/>
-      <c r="BD28" s="46"/>
-      <c r="BE28" s="46"/>
-      <c r="BF28" s="46"/>
-      <c r="BG28" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="BH28" s="51"/>
-      <c r="BI28" s="51"/>
-      <c r="BJ28" s="51"/>
-      <c r="BK28" s="52"/>
+      <c r="C28" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="BD28" s="31"/>
+      <c r="BE28" s="31"/>
+      <c r="BF28" s="31"/>
+      <c r="BG28" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="BH28" s="46"/>
+      <c r="BI28" s="46"/>
+      <c r="BJ28" s="46"/>
+      <c r="BK28" s="47"/>
       <c r="DQ28" s="1" t="s">
         <v>27</v>
       </c>
@@ -3132,10 +3295,10 @@
       <c r="FA29" s="1"/>
     </row>
     <row r="30" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="36"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="16">
         <v>43843</v>
       </c>
@@ -3319,10 +3482,10 @@
       <c r="BK30" s="16">
         <v>43903</v>
       </c>
-      <c r="BL30" s="44">
+      <c r="BL30" s="29">
         <v>43904</v>
       </c>
-      <c r="BM30" s="45">
+      <c r="BM30" s="30">
         <v>43905</v>
       </c>
       <c r="BN30" s="14">
@@ -3349,7 +3512,7 @@
       <c r="BU30" s="14">
         <v>43913</v>
       </c>
-      <c r="BV30" s="27">
+      <c r="BV30" s="26">
         <v>43914</v>
       </c>
       <c r="BW30" s="14">
@@ -3598,7 +3761,7 @@
       <c r="EZ30" s="18">
         <v>43996</v>
       </c>
-      <c r="FA30" s="40">
+      <c r="FA30" s="27">
         <v>43997</v>
       </c>
       <c r="FB30" s="18">
@@ -3734,12 +3897,12 @@
       <c r="EX32" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="FA32" s="41" t="s">
+      <c r="FA32" s="28" t="s">
         <v>40</v>
       </c>
       <c r="FH32" s="1"/>
     </row>
-    <row r="33" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:166" x14ac:dyDescent="0.2">
       <c r="B33" s="9" t="s">
         <v>46</v>
       </c>
@@ -3774,191 +3937,260 @@
       <c r="AE33" s="9"/>
       <c r="AF33" s="9"/>
       <c r="BM33" s="1"/>
-      <c r="BN33" s="32" t="s">
+      <c r="BN33" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="BO33" s="32"/>
-      <c r="BP33" s="32"/>
-      <c r="BQ33" s="32"/>
-      <c r="BR33" s="32"/>
-      <c r="BS33" s="32"/>
-      <c r="BV33" s="32" t="s">
+      <c r="BO33" s="48"/>
+      <c r="BP33" s="48"/>
+      <c r="BQ33" s="48"/>
+      <c r="BR33" s="48"/>
+      <c r="BS33" s="48"/>
+      <c r="BV33" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="BW33" s="32"/>
-      <c r="BX33" s="32"/>
-      <c r="BY33" s="32"/>
-      <c r="BZ33" s="32"/>
+      <c r="BW33" s="48"/>
+      <c r="BX33" s="48"/>
+      <c r="BY33" s="48"/>
+      <c r="BZ33" s="48"/>
       <c r="DL33" s="1"/>
       <c r="DO33" s="1"/>
       <c r="EA33" s="1"/>
       <c r="FA33" s="1"/>
       <c r="FH33" s="1"/>
     </row>
-    <row r="34" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:166" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="9"/>
-      <c r="AD34" s="9"/>
-      <c r="AE34" s="9"/>
-      <c r="AF34" s="9"/>
-      <c r="AG34" s="29" t="s">
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="62"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
+      <c r="W34" s="62"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="62"/>
+      <c r="Z34" s="62"/>
+      <c r="AA34" s="62"/>
+      <c r="AB34" s="62"/>
+      <c r="AC34" s="62"/>
+      <c r="AD34" s="62"/>
+      <c r="AE34" s="62"/>
+      <c r="AF34" s="62"/>
+      <c r="AG34" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD34" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE34" s="63"/>
+      <c r="BF34" s="63"/>
+      <c r="BG34" s="63"/>
+      <c r="BH34" s="63"/>
+      <c r="BI34" s="63"/>
+      <c r="BJ34" s="63"/>
+      <c r="BM34" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="BD34" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE34" s="31"/>
-      <c r="BF34" s="31"/>
-      <c r="BG34" s="31"/>
-      <c r="BH34" s="31"/>
-      <c r="BI34" s="31"/>
-      <c r="BJ34" s="31"/>
-      <c r="BM34" s="26" t="s">
+      <c r="BU34" s="65"/>
+      <c r="BV34" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="BV34" s="28" t="s">
+      <c r="DD34" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="DE34" s="54"/>
+      <c r="DF34" s="59"/>
+      <c r="DG34" s="66"/>
+      <c r="DH34" s="66"/>
+      <c r="DI34" s="66"/>
+      <c r="DJ34" s="66"/>
+      <c r="DK34" s="66"/>
+      <c r="DL34" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="DL34" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="DO34" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="EA34" s="26" t="s">
+      <c r="DM34" s="66"/>
+      <c r="DN34" s="66"/>
+      <c r="DO34" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="DP34" s="66"/>
+      <c r="DQ34" s="66"/>
+      <c r="DR34" s="66"/>
+      <c r="DS34" s="66"/>
+      <c r="DT34" s="66"/>
+      <c r="DU34" s="66"/>
+      <c r="DV34" s="66"/>
+      <c r="DW34" s="66"/>
+      <c r="DX34" s="66"/>
+      <c r="DY34" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="DZ34" s="58"/>
+      <c r="EA34" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="EB34" s="60"/>
+      <c r="EC34" s="60"/>
+      <c r="ED34" s="60"/>
+      <c r="EE34" s="60"/>
+      <c r="EF34" s="60"/>
+      <c r="EG34" s="60"/>
+      <c r="EH34" s="60"/>
+      <c r="EI34" s="60"/>
+      <c r="EJ34" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="EK34" s="60"/>
+      <c r="EL34" s="60"/>
+      <c r="EM34" s="60"/>
+      <c r="EN34" s="60"/>
+      <c r="EO34" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="EP34" s="70"/>
+      <c r="EQ34" s="68"/>
+      <c r="ER34" s="68"/>
+      <c r="ES34" s="68"/>
+      <c r="ET34" s="68"/>
+      <c r="EU34" s="68"/>
+      <c r="EV34" s="68"/>
+      <c r="EW34" s="68"/>
+      <c r="EX34" s="68"/>
+      <c r="EY34" s="68"/>
+      <c r="EZ34" s="68"/>
+      <c r="FA34" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="EJ34" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="FA34" s="26" t="s">
+      <c r="FB34" s="68"/>
+      <c r="FC34" s="68"/>
+      <c r="FD34" s="68"/>
+      <c r="FE34" s="68"/>
+      <c r="FF34" s="68"/>
+      <c r="FG34" s="68"/>
+      <c r="FH34" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="FH34" s="42" t="s">
-        <v>63</v>
-      </c>
+      <c r="FI34" s="68"/>
+      <c r="FJ34" s="68"/>
     </row>
-    <row r="35" spans="1:164" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:164" x14ac:dyDescent="0.2">
-      <c r="A37" s="30" t="s">
+    <row r="35" spans="1:166" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:166" x14ac:dyDescent="0.2">
+      <c r="A37" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="30"/>
+      <c r="B37" s="52"/>
     </row>
-    <row r="38" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
       <c r="B38" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="54"/>
-      <c r="R38" s="54"/>
-      <c r="S38" s="54"/>
-      <c r="T38" s="54"/>
-      <c r="U38" s="54"/>
-      <c r="V38" s="54"/>
-      <c r="W38" s="54"/>
-      <c r="X38" s="54"/>
-      <c r="Y38" s="54"/>
-      <c r="Z38" s="54"/>
-      <c r="AA38" s="54"/>
-      <c r="AB38" s="54"/>
-      <c r="AC38" s="54"/>
-      <c r="AD38" s="54"/>
-      <c r="AE38" s="54"/>
-      <c r="AF38" s="54"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="34"/>
+      <c r="AC38" s="34"/>
+      <c r="AD38" s="34"/>
+      <c r="AE38" s="34"/>
+      <c r="AF38" s="34"/>
     </row>
-    <row r="39" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A39" s="22"/>
       <c r="B39" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="55"/>
-      <c r="S39" s="55"/>
-      <c r="T39" s="55"/>
-      <c r="U39" s="55"/>
-      <c r="V39" s="55"/>
-      <c r="W39" s="55"/>
-      <c r="X39" s="55"/>
-      <c r="Y39" s="55"/>
-      <c r="Z39" s="55"/>
-      <c r="AA39" s="55"/>
-      <c r="AB39" s="55"/>
-      <c r="AC39" s="55"/>
-      <c r="AD39" s="55"/>
-      <c r="AE39" s="55"/>
-      <c r="AF39" s="55"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="35"/>
+      <c r="AC39" s="35"/>
+      <c r="AD39" s="35"/>
+      <c r="AE39" s="35"/>
+      <c r="AF39" s="35"/>
     </row>
-    <row r="43" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:166" x14ac:dyDescent="0.2">
       <c r="DC43" s="13"/>
       <c r="DD43" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="BD34:BJ34"/>
-    <mergeCell ref="BD23:BJ23"/>
-    <mergeCell ref="BD14:BJ14"/>
-    <mergeCell ref="C6:N6"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="C28:N28"/>
-    <mergeCell ref="C27:N27"/>
+  <mergeCells count="35">
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="DY14:DZ14"/>
+    <mergeCell ref="DD14:DE14"/>
+    <mergeCell ref="EO14:EP14"/>
+    <mergeCell ref="DD23:DE23"/>
+    <mergeCell ref="DY23:DZ23"/>
+    <mergeCell ref="EO23:EP23"/>
+    <mergeCell ref="DD34:DE34"/>
+    <mergeCell ref="DY34:DZ34"/>
+    <mergeCell ref="EO34:EP34"/>
+    <mergeCell ref="BV33:BZ33"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="BN13:BS13"/>
+    <mergeCell ref="BV13:BZ13"/>
+    <mergeCell ref="BN22:BS22"/>
+    <mergeCell ref="BN33:BS33"/>
     <mergeCell ref="DZ11:EM11"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A19:B19"/>
@@ -3969,14 +4201,14 @@
     <mergeCell ref="BG17:BK17"/>
     <mergeCell ref="BG16:BK16"/>
     <mergeCell ref="BV22:BZ22"/>
-    <mergeCell ref="BV33:BZ33"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="BN13:BS13"/>
-    <mergeCell ref="BV13:BZ13"/>
-    <mergeCell ref="BN22:BS22"/>
-    <mergeCell ref="BN33:BS33"/>
-    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="BD34:BJ34"/>
+    <mergeCell ref="BD23:BJ23"/>
+    <mergeCell ref="BD14:BJ14"/>
+    <mergeCell ref="C6:N6"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="C16:N16"/>
+    <mergeCell ref="C28:N28"/>
+    <mergeCell ref="C27:N27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/references/utx000ext_timelines.xlsx
+++ b/references/utx000ext_timelines.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hagenfritz/Projects/utx000/references/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2A89D5-6452-424C-991B-7A6FF04CE743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB599647-9D96-9149-AECF-FD6D4F72BDE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A42CCD86-71DD-4C4D-87F8-705DB24E1636}"/>
   </bookViews>
@@ -610,13 +610,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -643,49 +676,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1002,11 +1002,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D07724-71E6-3C40-BDBC-6CE123708DF5}">
-  <dimension ref="A1:FJ43"/>
+  <dimension ref="A1:GU43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="DE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DQ17" sqref="DQ17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="EW1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="FH5" sqref="FH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1015,9 +1015,9 @@
     <col min="33" max="33" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:166" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="B2" s="49" t="s">
+    <row r="1" spans="1:203" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="B2" s="56" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="33"/>
@@ -1060,8 +1060,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="B3" s="49"/>
+    <row r="3" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="B3" s="56"/>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
@@ -1099,8 +1099,8 @@
       <c r="DC3" s="3"/>
       <c r="FJ3" s="1"/>
     </row>
-    <row r="4" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="B4" s="49"/>
+    <row r="4" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="B4" s="56"/>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
@@ -1146,8 +1146,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="B5" s="49"/>
+    <row r="5" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="B5" s="56"/>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
@@ -1189,22 +1189,22 @@
       </c>
       <c r="FJ5" s="1"/>
     </row>
-    <row r="6" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="B6" s="49"/>
-      <c r="C6" s="37" t="s">
+    <row r="6" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="B6" s="56"/>
+      <c r="C6" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
       <c r="Q6" s="33"/>
@@ -1247,8 +1247,8 @@
       </c>
       <c r="FJ6" s="1"/>
     </row>
-    <row r="7" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="B7" s="49"/>
+    <row r="7" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="B7" s="56"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
@@ -1289,11 +1289,11 @@
       <c r="EM7" s="1"/>
       <c r="FJ7" s="1"/>
     </row>
-    <row r="8" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+    <row r="8" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A8" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="42"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="16">
         <v>43843</v>
       </c>
@@ -1786,8 +1786,119 @@
       <c r="FJ8" s="17">
         <v>44006</v>
       </c>
+      <c r="FK8" s="17">
+        <v>44007</v>
+      </c>
+      <c r="FL8" s="17">
+        <v>44008</v>
+      </c>
+      <c r="FM8" s="17">
+        <v>44009</v>
+      </c>
+      <c r="FN8" s="17">
+        <v>44010</v>
+      </c>
+      <c r="FO8" s="17">
+        <v>44011</v>
+      </c>
+      <c r="FP8" s="17">
+        <v>44012</v>
+      </c>
+      <c r="FQ8" s="17">
+        <v>44013</v>
+      </c>
+      <c r="FR8" s="17">
+        <v>44014</v>
+      </c>
+      <c r="FS8" s="17">
+        <v>44015</v>
+      </c>
+      <c r="FT8" s="17">
+        <v>44016</v>
+      </c>
+      <c r="FU8" s="17">
+        <v>44017</v>
+      </c>
+      <c r="FV8" s="17">
+        <v>44018</v>
+      </c>
+      <c r="FW8" s="17">
+        <v>44019</v>
+      </c>
+      <c r="FX8" s="17">
+        <v>44020</v>
+      </c>
+      <c r="FY8" s="17">
+        <v>44021</v>
+      </c>
+      <c r="FZ8" s="17">
+        <v>44022</v>
+      </c>
+      <c r="GA8" s="17">
+        <v>44023</v>
+      </c>
+      <c r="GB8" s="17">
+        <v>44024</v>
+      </c>
+      <c r="GC8" s="17">
+        <v>44025</v>
+      </c>
+      <c r="GD8" s="17">
+        <v>44026</v>
+      </c>
+      <c r="GE8" s="17">
+        <v>44027</v>
+      </c>
+      <c r="GF8" s="17">
+        <v>44028</v>
+      </c>
+      <c r="GG8" s="17">
+        <v>44029</v>
+      </c>
+      <c r="GH8" s="17">
+        <v>44030</v>
+      </c>
+      <c r="GI8" s="17">
+        <v>44031</v>
+      </c>
+      <c r="GJ8" s="17">
+        <v>44032</v>
+      </c>
+      <c r="GK8" s="17">
+        <v>44033</v>
+      </c>
+      <c r="GL8" s="17">
+        <v>44034</v>
+      </c>
+      <c r="GM8" s="17">
+        <v>44035</v>
+      </c>
+      <c r="GN8" s="17">
+        <v>44036</v>
+      </c>
+      <c r="GO8" s="17">
+        <v>44037</v>
+      </c>
+      <c r="GP8" s="17">
+        <v>44038</v>
+      </c>
+      <c r="GQ8" s="17">
+        <v>44039</v>
+      </c>
+      <c r="GR8" s="17">
+        <v>44040</v>
+      </c>
+      <c r="GS8" s="17">
+        <v>44041</v>
+      </c>
+      <c r="GT8" s="17">
+        <v>44042</v>
+      </c>
+      <c r="GU8" s="17">
+        <v>44043</v>
+      </c>
     </row>
-    <row r="9" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:203" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
@@ -1825,17 +1936,17 @@
       <c r="AH9" s="9"/>
       <c r="BM9" s="1"/>
       <c r="BU9" s="25"/>
-      <c r="DA9" s="44" t="s">
+      <c r="DA9" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="DB9" s="44"/>
-      <c r="DC9" s="44"/>
-      <c r="DD9" s="44"/>
-      <c r="DE9" s="44"/>
-      <c r="DF9" s="44"/>
-      <c r="DG9" s="44"/>
-      <c r="DH9" s="44"/>
-      <c r="DI9" s="44"/>
+      <c r="DB9" s="63"/>
+      <c r="DC9" s="63"/>
+      <c r="DD9" s="63"/>
+      <c r="DE9" s="63"/>
+      <c r="DF9" s="63"/>
+      <c r="DG9" s="63"/>
+      <c r="DH9" s="63"/>
+      <c r="DI9" s="63"/>
       <c r="DL9" s="1"/>
       <c r="DO9" s="1"/>
       <c r="EA9" s="1"/>
@@ -1843,7 +1954,7 @@
       <c r="FA9" s="1"/>
       <c r="FH9" s="1"/>
     </row>
-    <row r="10" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:203" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
@@ -1891,7 +2002,7 @@
       <c r="FA10" s="1"/>
       <c r="FH10" s="1"/>
     </row>
-    <row r="11" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:203" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>23</v>
       </c>
@@ -1931,26 +2042,26 @@
       <c r="BU11" s="25"/>
       <c r="DL11" s="1"/>
       <c r="DO11" s="1"/>
-      <c r="DZ11" s="40" t="s">
+      <c r="DZ11" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="EA11" s="40"/>
-      <c r="EB11" s="40"/>
-      <c r="EC11" s="40"/>
-      <c r="ED11" s="40"/>
-      <c r="EE11" s="40"/>
-      <c r="EF11" s="40"/>
-      <c r="EG11" s="40"/>
-      <c r="EH11" s="40"/>
-      <c r="EI11" s="40"/>
-      <c r="EJ11" s="40"/>
-      <c r="EK11" s="40"/>
-      <c r="EL11" s="40"/>
-      <c r="EM11" s="40"/>
+      <c r="EA11" s="59"/>
+      <c r="EB11" s="59"/>
+      <c r="EC11" s="59"/>
+      <c r="ED11" s="59"/>
+      <c r="EE11" s="59"/>
+      <c r="EF11" s="59"/>
+      <c r="EG11" s="59"/>
+      <c r="EH11" s="59"/>
+      <c r="EI11" s="59"/>
+      <c r="EJ11" s="59"/>
+      <c r="EK11" s="59"/>
+      <c r="EL11" s="59"/>
+      <c r="EM11" s="59"/>
       <c r="FA11" s="1"/>
       <c r="FH11" s="1"/>
     </row>
-    <row r="12" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:203" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>43</v>
       </c>
@@ -1996,7 +2107,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:203" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
         <v>46</v>
       </c>
@@ -2031,22 +2142,22 @@
       <c r="AE13" s="9"/>
       <c r="AF13" s="9"/>
       <c r="BM13" s="1"/>
-      <c r="BN13" s="48" t="s">
+      <c r="BN13" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="BO13" s="48"/>
-      <c r="BP13" s="48"/>
-      <c r="BQ13" s="48"/>
-      <c r="BR13" s="48"/>
-      <c r="BS13" s="48"/>
+      <c r="BO13" s="55"/>
+      <c r="BP13" s="55"/>
+      <c r="BQ13" s="55"/>
+      <c r="BR13" s="55"/>
+      <c r="BS13" s="55"/>
       <c r="BU13" s="25"/>
-      <c r="BV13" s="51" t="s">
+      <c r="BV13" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="BW13" s="48"/>
-      <c r="BX13" s="48"/>
-      <c r="BY13" s="48"/>
-      <c r="BZ13" s="48"/>
+      <c r="BW13" s="55"/>
+      <c r="BX13" s="55"/>
+      <c r="BY13" s="55"/>
+      <c r="BZ13" s="55"/>
       <c r="DL13" s="1"/>
       <c r="DO13" s="1"/>
       <c r="EA13" s="1"/>
@@ -2054,156 +2165,156 @@
       <c r="FA13" s="1"/>
       <c r="FH13" s="1"/>
     </row>
-    <row r="14" spans="1:166" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:203" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
-      <c r="AD14" s="62"/>
-      <c r="AE14" s="62"/>
-      <c r="AF14" s="62"/>
-      <c r="AG14" s="61" t="s">
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="43"/>
+      <c r="AD14" s="43"/>
+      <c r="AE14" s="43"/>
+      <c r="AF14" s="43"/>
+      <c r="AG14" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="BD14" s="63" t="s">
+      <c r="BD14" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="BE14" s="63"/>
-      <c r="BF14" s="63"/>
-      <c r="BG14" s="63"/>
-      <c r="BH14" s="63"/>
-      <c r="BI14" s="63"/>
-      <c r="BJ14" s="63"/>
-      <c r="BM14" s="64" t="s">
+      <c r="BE14" s="67"/>
+      <c r="BF14" s="67"/>
+      <c r="BG14" s="67"/>
+      <c r="BH14" s="67"/>
+      <c r="BI14" s="67"/>
+      <c r="BJ14" s="67"/>
+      <c r="BM14" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="BU14" s="65"/>
-      <c r="BV14" s="65" t="s">
+      <c r="BU14" s="45"/>
+      <c r="BV14" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="DD14" s="54" t="s">
+      <c r="DD14" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="DE14" s="54"/>
-      <c r="DF14" s="59"/>
-      <c r="DG14" s="66"/>
-      <c r="DH14" s="66"/>
-      <c r="DI14" s="66"/>
-      <c r="DJ14" s="66"/>
-      <c r="DK14" s="66"/>
-      <c r="DL14" s="55" t="s">
+      <c r="DE14" s="53"/>
+      <c r="DF14" s="40"/>
+      <c r="DG14" s="46"/>
+      <c r="DH14" s="46"/>
+      <c r="DI14" s="46"/>
+      <c r="DJ14" s="46"/>
+      <c r="DK14" s="46"/>
+      <c r="DL14" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="DM14" s="66"/>
-      <c r="DN14" s="66"/>
-      <c r="DO14" s="56" t="s">
+      <c r="DM14" s="46"/>
+      <c r="DN14" s="46"/>
+      <c r="DO14" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="DP14" s="66"/>
-      <c r="DQ14" s="66"/>
-      <c r="DR14" s="66"/>
-      <c r="DS14" s="66"/>
-      <c r="DT14" s="66"/>
-      <c r="DU14" s="66"/>
-      <c r="DV14" s="66"/>
-      <c r="DW14" s="66"/>
-      <c r="DX14" s="66"/>
-      <c r="DY14" s="57" t="s">
+      <c r="DP14" s="46"/>
+      <c r="DQ14" s="46"/>
+      <c r="DR14" s="46"/>
+      <c r="DS14" s="46"/>
+      <c r="DT14" s="46"/>
+      <c r="DU14" s="46"/>
+      <c r="DV14" s="46"/>
+      <c r="DW14" s="46"/>
+      <c r="DX14" s="46"/>
+      <c r="DY14" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="DZ14" s="58"/>
-      <c r="EA14" s="53" t="s">
+      <c r="DZ14" s="52"/>
+      <c r="EA14" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="EB14" s="60"/>
-      <c r="EC14" s="60"/>
-      <c r="ED14" s="60"/>
-      <c r="EE14" s="60"/>
-      <c r="EF14" s="60"/>
-      <c r="EG14" s="60"/>
-      <c r="EH14" s="60"/>
-      <c r="EI14" s="60"/>
-      <c r="EJ14" s="67" t="s">
+      <c r="EB14" s="41"/>
+      <c r="EC14" s="41"/>
+      <c r="ED14" s="41"/>
+      <c r="EE14" s="41"/>
+      <c r="EF14" s="41"/>
+      <c r="EG14" s="41"/>
+      <c r="EH14" s="41"/>
+      <c r="EI14" s="41"/>
+      <c r="EJ14" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="EK14" s="60"/>
-      <c r="EL14" s="60"/>
-      <c r="EM14" s="60"/>
-      <c r="EN14" s="60"/>
-      <c r="EO14" s="70" t="s">
+      <c r="EK14" s="41"/>
+      <c r="EL14" s="41"/>
+      <c r="EM14" s="41"/>
+      <c r="EN14" s="41"/>
+      <c r="EO14" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="EP14" s="70"/>
-      <c r="EQ14" s="68"/>
-      <c r="ER14" s="68"/>
-      <c r="ES14" s="68"/>
-      <c r="ET14" s="68"/>
-      <c r="EU14" s="68"/>
-      <c r="EV14" s="68"/>
-      <c r="EW14" s="68"/>
-      <c r="EX14" s="68"/>
-      <c r="EY14" s="68"/>
-      <c r="EZ14" s="68"/>
-      <c r="FA14" s="69" t="s">
+      <c r="EP14" s="54"/>
+      <c r="EQ14" s="48"/>
+      <c r="ER14" s="48"/>
+      <c r="ES14" s="48"/>
+      <c r="ET14" s="48"/>
+      <c r="EU14" s="48"/>
+      <c r="EV14" s="48"/>
+      <c r="EW14" s="48"/>
+      <c r="EX14" s="48"/>
+      <c r="EY14" s="48"/>
+      <c r="EZ14" s="48"/>
+      <c r="FA14" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="FB14" s="68"/>
-      <c r="FC14" s="68"/>
-      <c r="FD14" s="68"/>
-      <c r="FE14" s="68"/>
-      <c r="FF14" s="68"/>
-      <c r="FG14" s="68"/>
-      <c r="FH14" s="69" t="s">
+      <c r="FB14" s="48"/>
+      <c r="FC14" s="48"/>
+      <c r="FD14" s="48"/>
+      <c r="FE14" s="48"/>
+      <c r="FF14" s="48"/>
+      <c r="FG14" s="48"/>
+      <c r="FH14" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="FI14" s="68"/>
-      <c r="FJ14" s="68"/>
+      <c r="FI14" s="48"/>
+      <c r="FJ14" s="48"/>
     </row>
-    <row r="15" spans="1:166" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="B16" s="50" t="s">
+    <row r="15" spans="1:203" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="B16" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
@@ -2225,30 +2336,30 @@
       <c r="BD16" s="31"/>
       <c r="BE16" s="31"/>
       <c r="BF16" s="31"/>
-      <c r="BG16" s="45" t="s">
+      <c r="BG16" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="BH16" s="46"/>
-      <c r="BI16" s="46"/>
-      <c r="BJ16" s="46"/>
-      <c r="BK16" s="47"/>
+      <c r="BH16" s="65"/>
+      <c r="BI16" s="65"/>
+      <c r="BJ16" s="65"/>
+      <c r="BK16" s="66"/>
     </row>
-    <row r="17" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="B17" s="50"/>
-      <c r="C17" s="38" t="s">
+    <row r="17" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="B17" s="57"/>
+      <c r="C17" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
@@ -2270,13 +2381,13 @@
       <c r="BD17" s="31"/>
       <c r="BE17" s="31"/>
       <c r="BF17" s="31"/>
-      <c r="BG17" s="45" t="s">
+      <c r="BG17" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="BH17" s="46"/>
-      <c r="BI17" s="46"/>
-      <c r="BJ17" s="46"/>
-      <c r="BK17" s="47"/>
+      <c r="BH17" s="65"/>
+      <c r="BI17" s="65"/>
+      <c r="BJ17" s="65"/>
+      <c r="BK17" s="66"/>
       <c r="DA17" s="1" t="s">
         <v>12</v>
       </c>
@@ -2287,8 +2398,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="B18" s="50"/>
+    <row r="18" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="B18" s="57"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
@@ -2331,11 +2442,11 @@
       <c r="DP18" s="1"/>
       <c r="DT18" s="1"/>
     </row>
-    <row r="19" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
+    <row r="19" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A19" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="16">
         <v>43843</v>
       </c>
@@ -2828,8 +2939,119 @@
       <c r="FJ19" s="17">
         <v>44006</v>
       </c>
+      <c r="FK19" s="17">
+        <v>44007</v>
+      </c>
+      <c r="FL19" s="17">
+        <v>44008</v>
+      </c>
+      <c r="FM19" s="17">
+        <v>44009</v>
+      </c>
+      <c r="FN19" s="17">
+        <v>44010</v>
+      </c>
+      <c r="FO19" s="17">
+        <v>44011</v>
+      </c>
+      <c r="FP19" s="17">
+        <v>44012</v>
+      </c>
+      <c r="FQ19" s="17">
+        <v>44013</v>
+      </c>
+      <c r="FR19" s="17">
+        <v>44014</v>
+      </c>
+      <c r="FS19" s="17">
+        <v>44015</v>
+      </c>
+      <c r="FT19" s="17">
+        <v>44016</v>
+      </c>
+      <c r="FU19" s="17">
+        <v>44017</v>
+      </c>
+      <c r="FV19" s="17">
+        <v>44018</v>
+      </c>
+      <c r="FW19" s="17">
+        <v>44019</v>
+      </c>
+      <c r="FX19" s="17">
+        <v>44020</v>
+      </c>
+      <c r="FY19" s="17">
+        <v>44021</v>
+      </c>
+      <c r="FZ19" s="17">
+        <v>44022</v>
+      </c>
+      <c r="GA19" s="17">
+        <v>44023</v>
+      </c>
+      <c r="GB19" s="17">
+        <v>44024</v>
+      </c>
+      <c r="GC19" s="17">
+        <v>44025</v>
+      </c>
+      <c r="GD19" s="17">
+        <v>44026</v>
+      </c>
+      <c r="GE19" s="17">
+        <v>44027</v>
+      </c>
+      <c r="GF19" s="17">
+        <v>44028</v>
+      </c>
+      <c r="GG19" s="17">
+        <v>44029</v>
+      </c>
+      <c r="GH19" s="17">
+        <v>44030</v>
+      </c>
+      <c r="GI19" s="17">
+        <v>44031</v>
+      </c>
+      <c r="GJ19" s="17">
+        <v>44032</v>
+      </c>
+      <c r="GK19" s="17">
+        <v>44033</v>
+      </c>
+      <c r="GL19" s="17">
+        <v>44034</v>
+      </c>
+      <c r="GM19" s="17">
+        <v>44035</v>
+      </c>
+      <c r="GN19" s="17">
+        <v>44036</v>
+      </c>
+      <c r="GO19" s="17">
+        <v>44037</v>
+      </c>
+      <c r="GP19" s="17">
+        <v>44038</v>
+      </c>
+      <c r="GQ19" s="17">
+        <v>44039</v>
+      </c>
+      <c r="GR19" s="17">
+        <v>44040</v>
+      </c>
+      <c r="GS19" s="17">
+        <v>44041</v>
+      </c>
+      <c r="GT19" s="17">
+        <v>44042</v>
+      </c>
+      <c r="GU19" s="17">
+        <v>44043</v>
+      </c>
     </row>
-    <row r="20" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:203" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>17</v>
       </c>
@@ -2889,7 +3111,7 @@
       <c r="FA20" s="1"/>
       <c r="FH20" s="1"/>
     </row>
-    <row r="21" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:203" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
         <v>22</v>
       </c>
@@ -2943,7 +3165,7 @@
       <c r="FA21" s="1"/>
       <c r="FH21" s="1"/>
     </row>
-    <row r="22" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:203" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
         <v>46</v>
       </c>
@@ -2986,159 +3208,159 @@
       <c r="BJ22" s="31"/>
       <c r="BK22" s="31"/>
       <c r="BM22" s="1"/>
-      <c r="BN22" s="48" t="s">
+      <c r="BN22" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="BO22" s="48"/>
-      <c r="BP22" s="48"/>
-      <c r="BQ22" s="48"/>
-      <c r="BR22" s="48"/>
-      <c r="BS22" s="48"/>
-      <c r="BV22" s="48" t="s">
+      <c r="BO22" s="55"/>
+      <c r="BP22" s="55"/>
+      <c r="BQ22" s="55"/>
+      <c r="BR22" s="55"/>
+      <c r="BS22" s="55"/>
+      <c r="BV22" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="BW22" s="48"/>
-      <c r="BX22" s="48"/>
-      <c r="BY22" s="48"/>
-      <c r="BZ22" s="48"/>
+      <c r="BW22" s="55"/>
+      <c r="BX22" s="55"/>
+      <c r="BY22" s="55"/>
+      <c r="BZ22" s="55"/>
       <c r="DL22" s="1"/>
       <c r="DO22" s="1"/>
       <c r="EA22" s="1"/>
       <c r="FA22" s="1"/>
       <c r="FH22" s="1"/>
     </row>
-    <row r="23" spans="1:166" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:203" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="62"/>
-      <c r="W23" s="62"/>
-      <c r="X23" s="62"/>
-      <c r="Y23" s="62"/>
-      <c r="Z23" s="62"/>
-      <c r="AA23" s="62"/>
-      <c r="AB23" s="62"/>
-      <c r="AC23" s="62"/>
-      <c r="AD23" s="62"/>
-      <c r="AE23" s="62"/>
-      <c r="AF23" s="62"/>
-      <c r="AG23" s="61" t="s">
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="43"/>
+      <c r="AC23" s="43"/>
+      <c r="AD23" s="43"/>
+      <c r="AE23" s="43"/>
+      <c r="AF23" s="43"/>
+      <c r="AG23" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="BD23" s="63" t="s">
+      <c r="BD23" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="BE23" s="63"/>
-      <c r="BF23" s="63"/>
-      <c r="BG23" s="63"/>
-      <c r="BH23" s="63"/>
-      <c r="BI23" s="63"/>
-      <c r="BJ23" s="63"/>
-      <c r="BM23" s="64" t="s">
+      <c r="BE23" s="67"/>
+      <c r="BF23" s="67"/>
+      <c r="BG23" s="67"/>
+      <c r="BH23" s="67"/>
+      <c r="BI23" s="67"/>
+      <c r="BJ23" s="67"/>
+      <c r="BM23" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="BU23" s="65"/>
-      <c r="BV23" s="65" t="s">
+      <c r="BU23" s="45"/>
+      <c r="BV23" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="DD23" s="54" t="s">
+      <c r="DD23" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="DE23" s="54"/>
-      <c r="DF23" s="59"/>
-      <c r="DG23" s="66"/>
-      <c r="DH23" s="66"/>
-      <c r="DI23" s="66"/>
-      <c r="DJ23" s="66"/>
-      <c r="DK23" s="66"/>
-      <c r="DL23" s="55" t="s">
+      <c r="DE23" s="53"/>
+      <c r="DF23" s="40"/>
+      <c r="DG23" s="46"/>
+      <c r="DH23" s="46"/>
+      <c r="DI23" s="46"/>
+      <c r="DJ23" s="46"/>
+      <c r="DK23" s="46"/>
+      <c r="DL23" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="DM23" s="66"/>
-      <c r="DN23" s="66"/>
-      <c r="DO23" s="56" t="s">
+      <c r="DM23" s="46"/>
+      <c r="DN23" s="46"/>
+      <c r="DO23" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="DP23" s="66"/>
-      <c r="DQ23" s="66"/>
-      <c r="DR23" s="66"/>
-      <c r="DS23" s="66"/>
-      <c r="DT23" s="66"/>
-      <c r="DU23" s="66"/>
-      <c r="DV23" s="66"/>
-      <c r="DW23" s="66"/>
-      <c r="DX23" s="66"/>
-      <c r="DY23" s="57" t="s">
+      <c r="DP23" s="46"/>
+      <c r="DQ23" s="46"/>
+      <c r="DR23" s="46"/>
+      <c r="DS23" s="46"/>
+      <c r="DT23" s="46"/>
+      <c r="DU23" s="46"/>
+      <c r="DV23" s="46"/>
+      <c r="DW23" s="46"/>
+      <c r="DX23" s="46"/>
+      <c r="DY23" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="DZ23" s="58"/>
-      <c r="EA23" s="53" t="s">
+      <c r="DZ23" s="52"/>
+      <c r="EA23" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="EB23" s="60"/>
-      <c r="EC23" s="60"/>
-      <c r="ED23" s="60"/>
-      <c r="EE23" s="60"/>
-      <c r="EF23" s="60"/>
-      <c r="EG23" s="60"/>
-      <c r="EH23" s="60"/>
-      <c r="EI23" s="60"/>
-      <c r="EJ23" s="67" t="s">
+      <c r="EB23" s="41"/>
+      <c r="EC23" s="41"/>
+      <c r="ED23" s="41"/>
+      <c r="EE23" s="41"/>
+      <c r="EF23" s="41"/>
+      <c r="EG23" s="41"/>
+      <c r="EH23" s="41"/>
+      <c r="EI23" s="41"/>
+      <c r="EJ23" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="EK23" s="60"/>
-      <c r="EL23" s="60"/>
-      <c r="EM23" s="60"/>
-      <c r="EN23" s="60"/>
-      <c r="EO23" s="70" t="s">
+      <c r="EK23" s="41"/>
+      <c r="EL23" s="41"/>
+      <c r="EM23" s="41"/>
+      <c r="EN23" s="41"/>
+      <c r="EO23" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="EP23" s="70"/>
-      <c r="EQ23" s="68"/>
-      <c r="ER23" s="68"/>
-      <c r="ES23" s="68"/>
-      <c r="ET23" s="68"/>
-      <c r="EU23" s="68"/>
-      <c r="EV23" s="68"/>
-      <c r="EW23" s="68"/>
-      <c r="EX23" s="68"/>
-      <c r="EY23" s="68"/>
-      <c r="EZ23" s="68"/>
-      <c r="FA23" s="69" t="s">
+      <c r="EP23" s="54"/>
+      <c r="EQ23" s="48"/>
+      <c r="ER23" s="48"/>
+      <c r="ES23" s="48"/>
+      <c r="ET23" s="48"/>
+      <c r="EU23" s="48"/>
+      <c r="EV23" s="48"/>
+      <c r="EW23" s="48"/>
+      <c r="EX23" s="48"/>
+      <c r="EY23" s="48"/>
+      <c r="EZ23" s="48"/>
+      <c r="FA23" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="FB23" s="68"/>
-      <c r="FC23" s="68"/>
-      <c r="FD23" s="68"/>
-      <c r="FE23" s="68"/>
-      <c r="FF23" s="68"/>
-      <c r="FG23" s="68"/>
-      <c r="FH23" s="69" t="s">
+      <c r="FB23" s="48"/>
+      <c r="FC23" s="48"/>
+      <c r="FD23" s="48"/>
+      <c r="FE23" s="48"/>
+      <c r="FF23" s="48"/>
+      <c r="FG23" s="48"/>
+      <c r="FH23" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="FI23" s="68"/>
-      <c r="FJ23" s="68"/>
+      <c r="FI23" s="48"/>
+      <c r="FJ23" s="48"/>
     </row>
-    <row r="24" spans="1:166" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:203" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="BD24" s="32"/>
       <c r="BE24" s="32"/>
       <c r="BF24" s="32"/>
@@ -3148,7 +3370,7 @@
       <c r="BJ24" s="32"/>
       <c r="BK24" s="32"/>
     </row>
-    <row r="25" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:203" x14ac:dyDescent="0.2">
       <c r="BD25" s="31"/>
       <c r="BE25" s="31"/>
       <c r="BF25" s="31"/>
@@ -3158,7 +3380,7 @@
       <c r="BJ25" s="31"/>
       <c r="BK25" s="31"/>
     </row>
-    <row r="26" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:203" x14ac:dyDescent="0.2">
       <c r="BD26" s="31"/>
       <c r="BE26" s="31"/>
       <c r="BF26" s="31"/>
@@ -3168,24 +3390,24 @@
       <c r="BJ26" s="31"/>
       <c r="BK26" s="31"/>
     </row>
-    <row r="27" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:203" x14ac:dyDescent="0.2">
       <c r="B27" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
       <c r="Q27" s="36"/>
@@ -3204,13 +3426,13 @@
       <c r="BD27" s="31"/>
       <c r="BE27" s="31"/>
       <c r="BF27" s="31"/>
-      <c r="BG27" s="45" t="s">
+      <c r="BG27" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="BH27" s="46"/>
-      <c r="BI27" s="46"/>
-      <c r="BJ27" s="46"/>
-      <c r="BK27" s="47"/>
+      <c r="BH27" s="65"/>
+      <c r="BI27" s="65"/>
+      <c r="BJ27" s="65"/>
+      <c r="BK27" s="66"/>
       <c r="EN27" s="1" t="s">
         <v>30</v>
       </c>
@@ -3230,24 +3452,24 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:203" x14ac:dyDescent="0.2">
       <c r="B28" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
       <c r="O28" s="36"/>
       <c r="P28" s="36"/>
       <c r="Q28" s="36"/>
@@ -3266,13 +3488,13 @@
       <c r="BD28" s="31"/>
       <c r="BE28" s="31"/>
       <c r="BF28" s="31"/>
-      <c r="BG28" s="45" t="s">
+      <c r="BG28" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="BH28" s="46"/>
-      <c r="BI28" s="46"/>
-      <c r="BJ28" s="46"/>
-      <c r="BK28" s="47"/>
+      <c r="BH28" s="65"/>
+      <c r="BI28" s="65"/>
+      <c r="BJ28" s="65"/>
+      <c r="BK28" s="66"/>
       <c r="DQ28" s="1" t="s">
         <v>27</v>
       </c>
@@ -3285,7 +3507,7 @@
       <c r="EX28" s="1"/>
       <c r="FA28" s="1"/>
     </row>
-    <row r="29" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:203" x14ac:dyDescent="0.2">
       <c r="DQ29" s="1"/>
       <c r="EN29" s="1"/>
       <c r="ER29" s="1"/>
@@ -3294,11 +3516,11 @@
       <c r="EX29" s="1"/>
       <c r="FA29" s="1"/>
     </row>
-    <row r="30" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="A30" s="41" t="s">
+    <row r="30" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="A30" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="41"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="16">
         <v>43843</v>
       </c>
@@ -3791,8 +4013,119 @@
       <c r="FJ30" s="17">
         <v>44006</v>
       </c>
+      <c r="FK30" s="17">
+        <v>44007</v>
+      </c>
+      <c r="FL30" s="17">
+        <v>44008</v>
+      </c>
+      <c r="FM30" s="17">
+        <v>44009</v>
+      </c>
+      <c r="FN30" s="17">
+        <v>44010</v>
+      </c>
+      <c r="FO30" s="17">
+        <v>44011</v>
+      </c>
+      <c r="FP30" s="17">
+        <v>44012</v>
+      </c>
+      <c r="FQ30" s="17">
+        <v>44013</v>
+      </c>
+      <c r="FR30" s="17">
+        <v>44014</v>
+      </c>
+      <c r="FS30" s="17">
+        <v>44015</v>
+      </c>
+      <c r="FT30" s="17">
+        <v>44016</v>
+      </c>
+      <c r="FU30" s="17">
+        <v>44017</v>
+      </c>
+      <c r="FV30" s="17">
+        <v>44018</v>
+      </c>
+      <c r="FW30" s="17">
+        <v>44019</v>
+      </c>
+      <c r="FX30" s="17">
+        <v>44020</v>
+      </c>
+      <c r="FY30" s="17">
+        <v>44021</v>
+      </c>
+      <c r="FZ30" s="17">
+        <v>44022</v>
+      </c>
+      <c r="GA30" s="17">
+        <v>44023</v>
+      </c>
+      <c r="GB30" s="17">
+        <v>44024</v>
+      </c>
+      <c r="GC30" s="17">
+        <v>44025</v>
+      </c>
+      <c r="GD30" s="17">
+        <v>44026</v>
+      </c>
+      <c r="GE30" s="17">
+        <v>44027</v>
+      </c>
+      <c r="GF30" s="17">
+        <v>44028</v>
+      </c>
+      <c r="GG30" s="17">
+        <v>44029</v>
+      </c>
+      <c r="GH30" s="17">
+        <v>44030</v>
+      </c>
+      <c r="GI30" s="17">
+        <v>44031</v>
+      </c>
+      <c r="GJ30" s="17">
+        <v>44032</v>
+      </c>
+      <c r="GK30" s="17">
+        <v>44033</v>
+      </c>
+      <c r="GL30" s="17">
+        <v>44034</v>
+      </c>
+      <c r="GM30" s="17">
+        <v>44035</v>
+      </c>
+      <c r="GN30" s="17">
+        <v>44036</v>
+      </c>
+      <c r="GO30" s="17">
+        <v>44037</v>
+      </c>
+      <c r="GP30" s="17">
+        <v>44038</v>
+      </c>
+      <c r="GQ30" s="17">
+        <v>44039</v>
+      </c>
+      <c r="GR30" s="17">
+        <v>44040</v>
+      </c>
+      <c r="GS30" s="17">
+        <v>44041</v>
+      </c>
+      <c r="GT30" s="17">
+        <v>44042</v>
+      </c>
+      <c r="GU30" s="17">
+        <v>44043</v>
+      </c>
     </row>
-    <row r="31" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:203" x14ac:dyDescent="0.2">
       <c r="B31" s="9" t="s">
         <v>17</v>
       </c>
@@ -3842,7 +4175,7 @@
       <c r="FA31" s="1"/>
       <c r="FH31" s="1"/>
     </row>
-    <row r="32" spans="1:166" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:203" x14ac:dyDescent="0.2">
       <c r="B32" s="9" t="s">
         <v>22</v>
       </c>
@@ -3937,164 +4270,164 @@
       <c r="AE33" s="9"/>
       <c r="AF33" s="9"/>
       <c r="BM33" s="1"/>
-      <c r="BN33" s="48" t="s">
+      <c r="BN33" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="BO33" s="48"/>
-      <c r="BP33" s="48"/>
-      <c r="BQ33" s="48"/>
-      <c r="BR33" s="48"/>
-      <c r="BS33" s="48"/>
-      <c r="BV33" s="48" t="s">
+      <c r="BO33" s="55"/>
+      <c r="BP33" s="55"/>
+      <c r="BQ33" s="55"/>
+      <c r="BR33" s="55"/>
+      <c r="BS33" s="55"/>
+      <c r="BV33" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="BW33" s="48"/>
-      <c r="BX33" s="48"/>
-      <c r="BY33" s="48"/>
-      <c r="BZ33" s="48"/>
+      <c r="BW33" s="55"/>
+      <c r="BX33" s="55"/>
+      <c r="BY33" s="55"/>
+      <c r="BZ33" s="55"/>
       <c r="DL33" s="1"/>
       <c r="DO33" s="1"/>
       <c r="EA33" s="1"/>
       <c r="FA33" s="1"/>
       <c r="FH33" s="1"/>
     </row>
-    <row r="34" spans="1:166" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:166" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="62"/>
-      <c r="R34" s="62"/>
-      <c r="S34" s="62"/>
-      <c r="T34" s="62"/>
-      <c r="U34" s="62"/>
-      <c r="V34" s="62"/>
-      <c r="W34" s="62"/>
-      <c r="X34" s="62"/>
-      <c r="Y34" s="62"/>
-      <c r="Z34" s="62"/>
-      <c r="AA34" s="62"/>
-      <c r="AB34" s="62"/>
-      <c r="AC34" s="62"/>
-      <c r="AD34" s="62"/>
-      <c r="AE34" s="62"/>
-      <c r="AF34" s="62"/>
-      <c r="AG34" s="61" t="s">
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="43"/>
+      <c r="AC34" s="43"/>
+      <c r="AD34" s="43"/>
+      <c r="AE34" s="43"/>
+      <c r="AF34" s="43"/>
+      <c r="AG34" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="BD34" s="63" t="s">
+      <c r="BD34" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="BE34" s="63"/>
-      <c r="BF34" s="63"/>
-      <c r="BG34" s="63"/>
-      <c r="BH34" s="63"/>
-      <c r="BI34" s="63"/>
-      <c r="BJ34" s="63"/>
-      <c r="BM34" s="64" t="s">
+      <c r="BE34" s="67"/>
+      <c r="BF34" s="67"/>
+      <c r="BG34" s="67"/>
+      <c r="BH34" s="67"/>
+      <c r="BI34" s="67"/>
+      <c r="BJ34" s="67"/>
+      <c r="BM34" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="BU34" s="65"/>
-      <c r="BV34" s="65" t="s">
+      <c r="BU34" s="45"/>
+      <c r="BV34" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="DD34" s="54" t="s">
+      <c r="DD34" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="DE34" s="54"/>
-      <c r="DF34" s="59"/>
-      <c r="DG34" s="66"/>
-      <c r="DH34" s="66"/>
-      <c r="DI34" s="66"/>
-      <c r="DJ34" s="66"/>
-      <c r="DK34" s="66"/>
-      <c r="DL34" s="55" t="s">
+      <c r="DE34" s="53"/>
+      <c r="DF34" s="40"/>
+      <c r="DG34" s="46"/>
+      <c r="DH34" s="46"/>
+      <c r="DI34" s="46"/>
+      <c r="DJ34" s="46"/>
+      <c r="DK34" s="46"/>
+      <c r="DL34" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="DM34" s="66"/>
-      <c r="DN34" s="66"/>
-      <c r="DO34" s="56" t="s">
+      <c r="DM34" s="46"/>
+      <c r="DN34" s="46"/>
+      <c r="DO34" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="DP34" s="66"/>
-      <c r="DQ34" s="66"/>
-      <c r="DR34" s="66"/>
-      <c r="DS34" s="66"/>
-      <c r="DT34" s="66"/>
-      <c r="DU34" s="66"/>
-      <c r="DV34" s="66"/>
-      <c r="DW34" s="66"/>
-      <c r="DX34" s="66"/>
-      <c r="DY34" s="57" t="s">
+      <c r="DP34" s="46"/>
+      <c r="DQ34" s="46"/>
+      <c r="DR34" s="46"/>
+      <c r="DS34" s="46"/>
+      <c r="DT34" s="46"/>
+      <c r="DU34" s="46"/>
+      <c r="DV34" s="46"/>
+      <c r="DW34" s="46"/>
+      <c r="DX34" s="46"/>
+      <c r="DY34" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="DZ34" s="58"/>
-      <c r="EA34" s="53" t="s">
+      <c r="DZ34" s="52"/>
+      <c r="EA34" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="EB34" s="60"/>
-      <c r="EC34" s="60"/>
-      <c r="ED34" s="60"/>
-      <c r="EE34" s="60"/>
-      <c r="EF34" s="60"/>
-      <c r="EG34" s="60"/>
-      <c r="EH34" s="60"/>
-      <c r="EI34" s="60"/>
-      <c r="EJ34" s="67" t="s">
+      <c r="EB34" s="41"/>
+      <c r="EC34" s="41"/>
+      <c r="ED34" s="41"/>
+      <c r="EE34" s="41"/>
+      <c r="EF34" s="41"/>
+      <c r="EG34" s="41"/>
+      <c r="EH34" s="41"/>
+      <c r="EI34" s="41"/>
+      <c r="EJ34" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="EK34" s="60"/>
-      <c r="EL34" s="60"/>
-      <c r="EM34" s="60"/>
-      <c r="EN34" s="60"/>
-      <c r="EO34" s="70" t="s">
+      <c r="EK34" s="41"/>
+      <c r="EL34" s="41"/>
+      <c r="EM34" s="41"/>
+      <c r="EN34" s="41"/>
+      <c r="EO34" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="EP34" s="70"/>
-      <c r="EQ34" s="68"/>
-      <c r="ER34" s="68"/>
-      <c r="ES34" s="68"/>
-      <c r="ET34" s="68"/>
-      <c r="EU34" s="68"/>
-      <c r="EV34" s="68"/>
-      <c r="EW34" s="68"/>
-      <c r="EX34" s="68"/>
-      <c r="EY34" s="68"/>
-      <c r="EZ34" s="68"/>
-      <c r="FA34" s="69" t="s">
+      <c r="EP34" s="54"/>
+      <c r="EQ34" s="48"/>
+      <c r="ER34" s="48"/>
+      <c r="ES34" s="48"/>
+      <c r="ET34" s="48"/>
+      <c r="EU34" s="48"/>
+      <c r="EV34" s="48"/>
+      <c r="EW34" s="48"/>
+      <c r="EX34" s="48"/>
+      <c r="EY34" s="48"/>
+      <c r="EZ34" s="48"/>
+      <c r="FA34" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="FB34" s="68"/>
-      <c r="FC34" s="68"/>
-      <c r="FD34" s="68"/>
-      <c r="FE34" s="68"/>
-      <c r="FF34" s="68"/>
-      <c r="FG34" s="68"/>
-      <c r="FH34" s="69" t="s">
+      <c r="FB34" s="48"/>
+      <c r="FC34" s="48"/>
+      <c r="FD34" s="48"/>
+      <c r="FE34" s="48"/>
+      <c r="FF34" s="48"/>
+      <c r="FG34" s="48"/>
+      <c r="FH34" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="FI34" s="68"/>
-      <c r="FJ34" s="68"/>
+      <c r="FI34" s="48"/>
+      <c r="FJ34" s="48"/>
     </row>
     <row r="35" spans="1:166" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="52"/>
+      <c r="B37" s="50"/>
     </row>
     <row r="38" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
@@ -4174,6 +4507,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="DZ11:EM11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="DA9:DI9"/>
+    <mergeCell ref="BG27:BK27"/>
+    <mergeCell ref="BG28:BK28"/>
+    <mergeCell ref="BG17:BK17"/>
+    <mergeCell ref="BG16:BK16"/>
+    <mergeCell ref="BV22:BZ22"/>
+    <mergeCell ref="BD23:BJ23"/>
+    <mergeCell ref="BD14:BJ14"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="C16:N16"/>
+    <mergeCell ref="C28:N28"/>
+    <mergeCell ref="C27:N27"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="BN13:BS13"/>
+    <mergeCell ref="BV13:BZ13"/>
+    <mergeCell ref="BN22:BS22"/>
+    <mergeCell ref="C6:N6"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="DY14:DZ14"/>
     <mergeCell ref="DD14:DE14"/>
@@ -4185,30 +4540,8 @@
     <mergeCell ref="DY34:DZ34"/>
     <mergeCell ref="EO34:EP34"/>
     <mergeCell ref="BV33:BZ33"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="BN13:BS13"/>
-    <mergeCell ref="BV13:BZ13"/>
-    <mergeCell ref="BN22:BS22"/>
     <mergeCell ref="BN33:BS33"/>
-    <mergeCell ref="DZ11:EM11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="DA9:DI9"/>
-    <mergeCell ref="BG27:BK27"/>
-    <mergeCell ref="BG28:BK28"/>
-    <mergeCell ref="BG17:BK17"/>
-    <mergeCell ref="BG16:BK16"/>
-    <mergeCell ref="BV22:BZ22"/>
     <mergeCell ref="BD34:BJ34"/>
-    <mergeCell ref="BD23:BJ23"/>
-    <mergeCell ref="BD14:BJ14"/>
-    <mergeCell ref="C6:N6"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="C28:N28"/>
-    <mergeCell ref="C27:N27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/references/utx000ext_timelines.xlsx
+++ b/references/utx000ext_timelines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hagenfritz/Projects/utx000/references/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB599647-9D96-9149-AECF-FD6D4F72BDE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90E6875-05F9-9D45-BFA2-BC7B1A6FF109}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A42CCD86-71DD-4C4D-87F8-705DB24E1636}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
   <si>
     <t>Event 1</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>Phase 3 Reopening</t>
+  </si>
+  <si>
+    <t>Short Relocation Survey</t>
   </si>
 </sst>
 </file>
@@ -625,33 +628,6 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -676,16 +652,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1002,11 +1005,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D07724-71E6-3C40-BDBC-6CE123708DF5}">
-  <dimension ref="A1:GU43"/>
+  <dimension ref="A1:GZ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="EW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FH5" sqref="FH5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="GL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="GQ7" sqref="GQ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1015,9 +1018,9 @@
     <col min="33" max="33" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:203" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:203" x14ac:dyDescent="0.2">
-      <c r="B2" s="56" t="s">
+    <row r="1" spans="1:208" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:208" x14ac:dyDescent="0.2">
+      <c r="B2" s="62" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="33"/>
@@ -1060,8 +1063,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:203" x14ac:dyDescent="0.2">
-      <c r="B3" s="56"/>
+    <row r="3" spans="1:208" x14ac:dyDescent="0.2">
+      <c r="B3" s="62"/>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
@@ -1099,8 +1102,8 @@
       <c r="DC3" s="3"/>
       <c r="FJ3" s="1"/>
     </row>
-    <row r="4" spans="1:203" x14ac:dyDescent="0.2">
-      <c r="B4" s="56"/>
+    <row r="4" spans="1:208" x14ac:dyDescent="0.2">
+      <c r="B4" s="62"/>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
@@ -1146,8 +1149,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:203" x14ac:dyDescent="0.2">
-      <c r="B5" s="56"/>
+    <row r="5" spans="1:208" x14ac:dyDescent="0.2">
+      <c r="B5" s="62"/>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
@@ -1189,22 +1192,22 @@
       </c>
       <c r="FJ5" s="1"/>
     </row>
-    <row r="6" spans="1:203" x14ac:dyDescent="0.2">
-      <c r="B6" s="56"/>
-      <c r="C6" s="68" t="s">
+    <row r="6" spans="1:208" x14ac:dyDescent="0.2">
+      <c r="B6" s="62"/>
+      <c r="C6" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
       <c r="Q6" s="33"/>
@@ -1246,9 +1249,12 @@
         <v>8</v>
       </c>
       <c r="FJ6" s="1"/>
+      <c r="GY6" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="7" spans="1:203" x14ac:dyDescent="0.2">
-      <c r="B7" s="56"/>
+    <row r="7" spans="1:208" x14ac:dyDescent="0.2">
+      <c r="B7" s="62"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
@@ -1289,11 +1295,11 @@
       <c r="EM7" s="1"/>
       <c r="FJ7" s="1"/>
     </row>
-    <row r="8" spans="1:203" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
+    <row r="8" spans="1:208" x14ac:dyDescent="0.2">
+      <c r="A8" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="61"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="16">
         <v>43843</v>
       </c>
@@ -1897,8 +1903,23 @@
       <c r="GU8" s="17">
         <v>44043</v>
       </c>
+      <c r="GV8" s="17">
+        <v>44044</v>
+      </c>
+      <c r="GW8" s="17">
+        <v>44045</v>
+      </c>
+      <c r="GX8" s="17">
+        <v>44046</v>
+      </c>
+      <c r="GY8" s="17">
+        <v>44047</v>
+      </c>
+      <c r="GZ8" s="17">
+        <v>44048</v>
+      </c>
     </row>
-    <row r="9" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:208" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
@@ -1936,17 +1957,17 @@
       <c r="AH9" s="9"/>
       <c r="BM9" s="1"/>
       <c r="BU9" s="25"/>
-      <c r="DA9" s="63" t="s">
+      <c r="DA9" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="DB9" s="63"/>
-      <c r="DC9" s="63"/>
-      <c r="DD9" s="63"/>
-      <c r="DE9" s="63"/>
-      <c r="DF9" s="63"/>
-      <c r="DG9" s="63"/>
-      <c r="DH9" s="63"/>
-      <c r="DI9" s="63"/>
+      <c r="DB9" s="54"/>
+      <c r="DC9" s="54"/>
+      <c r="DD9" s="54"/>
+      <c r="DE9" s="54"/>
+      <c r="DF9" s="54"/>
+      <c r="DG9" s="54"/>
+      <c r="DH9" s="54"/>
+      <c r="DI9" s="54"/>
       <c r="DL9" s="1"/>
       <c r="DO9" s="1"/>
       <c r="EA9" s="1"/>
@@ -1954,7 +1975,7 @@
       <c r="FA9" s="1"/>
       <c r="FH9" s="1"/>
     </row>
-    <row r="10" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:208" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
@@ -2001,8 +2022,11 @@
       <c r="EJ10" s="1"/>
       <c r="FA10" s="1"/>
       <c r="FH10" s="1"/>
+      <c r="GY10" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:208" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>23</v>
       </c>
@@ -2042,26 +2066,26 @@
       <c r="BU11" s="25"/>
       <c r="DL11" s="1"/>
       <c r="DO11" s="1"/>
-      <c r="DZ11" s="59" t="s">
+      <c r="DZ11" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="EA11" s="59"/>
-      <c r="EB11" s="59"/>
-      <c r="EC11" s="59"/>
-      <c r="ED11" s="59"/>
-      <c r="EE11" s="59"/>
-      <c r="EF11" s="59"/>
-      <c r="EG11" s="59"/>
-      <c r="EH11" s="59"/>
-      <c r="EI11" s="59"/>
-      <c r="EJ11" s="59"/>
-      <c r="EK11" s="59"/>
-      <c r="EL11" s="59"/>
-      <c r="EM11" s="59"/>
+      <c r="EA11" s="50"/>
+      <c r="EB11" s="50"/>
+      <c r="EC11" s="50"/>
+      <c r="ED11" s="50"/>
+      <c r="EE11" s="50"/>
+      <c r="EF11" s="50"/>
+      <c r="EG11" s="50"/>
+      <c r="EH11" s="50"/>
+      <c r="EI11" s="50"/>
+      <c r="EJ11" s="50"/>
+      <c r="EK11" s="50"/>
+      <c r="EL11" s="50"/>
+      <c r="EM11" s="50"/>
       <c r="FA11" s="1"/>
       <c r="FH11" s="1"/>
     </row>
-    <row r="12" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:208" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>43</v>
       </c>
@@ -2107,7 +2131,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:208" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
         <v>46</v>
       </c>
@@ -2142,22 +2166,22 @@
       <c r="AE13" s="9"/>
       <c r="AF13" s="9"/>
       <c r="BM13" s="1"/>
-      <c r="BN13" s="55" t="s">
+      <c r="BN13" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="BO13" s="55"/>
-      <c r="BP13" s="55"/>
-      <c r="BQ13" s="55"/>
-      <c r="BR13" s="55"/>
-      <c r="BS13" s="55"/>
+      <c r="BO13" s="58"/>
+      <c r="BP13" s="58"/>
+      <c r="BQ13" s="58"/>
+      <c r="BR13" s="58"/>
+      <c r="BS13" s="58"/>
       <c r="BU13" s="25"/>
-      <c r="BV13" s="58" t="s">
+      <c r="BV13" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="BW13" s="55"/>
-      <c r="BX13" s="55"/>
-      <c r="BY13" s="55"/>
-      <c r="BZ13" s="55"/>
+      <c r="BW13" s="58"/>
+      <c r="BX13" s="58"/>
+      <c r="BY13" s="58"/>
+      <c r="BZ13" s="58"/>
       <c r="DL13" s="1"/>
       <c r="DO13" s="1"/>
       <c r="EA13" s="1"/>
@@ -2165,7 +2189,7 @@
       <c r="FA13" s="1"/>
       <c r="FH13" s="1"/>
     </row>
-    <row r="14" spans="1:203" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:208" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
         <v>47</v>
       </c>
@@ -2202,15 +2226,15 @@
       <c r="AG14" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="BD14" s="67" t="s">
+      <c r="BD14" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="BE14" s="67"/>
-      <c r="BF14" s="67"/>
-      <c r="BG14" s="67"/>
-      <c r="BH14" s="67"/>
-      <c r="BI14" s="67"/>
-      <c r="BJ14" s="67"/>
+      <c r="BE14" s="59"/>
+      <c r="BF14" s="59"/>
+      <c r="BG14" s="59"/>
+      <c r="BH14" s="59"/>
+      <c r="BI14" s="59"/>
+      <c r="BJ14" s="59"/>
       <c r="BM14" s="44" t="s">
         <v>59</v>
       </c>
@@ -2218,10 +2242,10 @@
       <c r="BV14" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="DD14" s="53" t="s">
+      <c r="DD14" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="DE14" s="53"/>
+      <c r="DE14" s="69"/>
       <c r="DF14" s="40"/>
       <c r="DG14" s="46"/>
       <c r="DH14" s="46"/>
@@ -2245,10 +2269,10 @@
       <c r="DV14" s="46"/>
       <c r="DW14" s="46"/>
       <c r="DX14" s="46"/>
-      <c r="DY14" s="51" t="s">
+      <c r="DY14" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="DZ14" s="52"/>
+      <c r="DZ14" s="68"/>
       <c r="EA14" s="37" t="s">
         <v>60</v>
       </c>
@@ -2267,10 +2291,10 @@
       <c r="EL14" s="41"/>
       <c r="EM14" s="41"/>
       <c r="EN14" s="41"/>
-      <c r="EO14" s="54" t="s">
+      <c r="EO14" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="EP14" s="54"/>
+      <c r="EP14" s="70"/>
       <c r="EQ14" s="48"/>
       <c r="ER14" s="48"/>
       <c r="ES14" s="48"/>
@@ -2296,25 +2320,25 @@
       <c r="FI14" s="48"/>
       <c r="FJ14" s="48"/>
     </row>
-    <row r="15" spans="1:203" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:203" x14ac:dyDescent="0.2">
-      <c r="B16" s="57" t="s">
+    <row r="15" spans="1:208" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:208" x14ac:dyDescent="0.2">
+      <c r="B16" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
@@ -2336,30 +2360,30 @@
       <c r="BD16" s="31"/>
       <c r="BE16" s="31"/>
       <c r="BF16" s="31"/>
-      <c r="BG16" s="64" t="s">
+      <c r="BG16" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="BH16" s="65"/>
-      <c r="BI16" s="65"/>
-      <c r="BJ16" s="65"/>
-      <c r="BK16" s="66"/>
+      <c r="BH16" s="56"/>
+      <c r="BI16" s="56"/>
+      <c r="BJ16" s="56"/>
+      <c r="BK16" s="57"/>
     </row>
-    <row r="17" spans="1:203" x14ac:dyDescent="0.2">
-      <c r="B17" s="57"/>
-      <c r="C17" s="69" t="s">
+    <row r="17" spans="1:208" x14ac:dyDescent="0.2">
+      <c r="B17" s="63"/>
+      <c r="C17" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
@@ -2381,13 +2405,13 @@
       <c r="BD17" s="31"/>
       <c r="BE17" s="31"/>
       <c r="BF17" s="31"/>
-      <c r="BG17" s="64" t="s">
+      <c r="BG17" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="BH17" s="65"/>
-      <c r="BI17" s="65"/>
-      <c r="BJ17" s="65"/>
-      <c r="BK17" s="66"/>
+      <c r="BH17" s="56"/>
+      <c r="BI17" s="56"/>
+      <c r="BJ17" s="56"/>
+      <c r="BK17" s="57"/>
       <c r="DA17" s="1" t="s">
         <v>12</v>
       </c>
@@ -2398,8 +2422,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:203" x14ac:dyDescent="0.2">
-      <c r="B18" s="57"/>
+    <row r="18" spans="1:208" x14ac:dyDescent="0.2">
+      <c r="B18" s="63"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
@@ -2442,11 +2466,11 @@
       <c r="DP18" s="1"/>
       <c r="DT18" s="1"/>
     </row>
-    <row r="19" spans="1:203" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
+    <row r="19" spans="1:208" x14ac:dyDescent="0.2">
+      <c r="A19" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="62"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="16">
         <v>43843</v>
       </c>
@@ -3050,8 +3074,23 @@
       <c r="GU19" s="17">
         <v>44043</v>
       </c>
+      <c r="GV19" s="17">
+        <v>44044</v>
+      </c>
+      <c r="GW19" s="17">
+        <v>44045</v>
+      </c>
+      <c r="GX19" s="17">
+        <v>44046</v>
+      </c>
+      <c r="GY19" s="17">
+        <v>44047</v>
+      </c>
+      <c r="GZ19" s="17">
+        <v>44048</v>
+      </c>
     </row>
-    <row r="20" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:208" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>17</v>
       </c>
@@ -3111,7 +3150,7 @@
       <c r="FA20" s="1"/>
       <c r="FH20" s="1"/>
     </row>
-    <row r="21" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:208" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
         <v>22</v>
       </c>
@@ -3165,7 +3204,7 @@
       <c r="FA21" s="1"/>
       <c r="FH21" s="1"/>
     </row>
-    <row r="22" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:208" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
         <v>46</v>
       </c>
@@ -3208,28 +3247,28 @@
       <c r="BJ22" s="31"/>
       <c r="BK22" s="31"/>
       <c r="BM22" s="1"/>
-      <c r="BN22" s="55" t="s">
+      <c r="BN22" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="BO22" s="55"/>
-      <c r="BP22" s="55"/>
-      <c r="BQ22" s="55"/>
-      <c r="BR22" s="55"/>
-      <c r="BS22" s="55"/>
-      <c r="BV22" s="55" t="s">
+      <c r="BO22" s="58"/>
+      <c r="BP22" s="58"/>
+      <c r="BQ22" s="58"/>
+      <c r="BR22" s="58"/>
+      <c r="BS22" s="58"/>
+      <c r="BV22" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="BW22" s="55"/>
-      <c r="BX22" s="55"/>
-      <c r="BY22" s="55"/>
-      <c r="BZ22" s="55"/>
+      <c r="BW22" s="58"/>
+      <c r="BX22" s="58"/>
+      <c r="BY22" s="58"/>
+      <c r="BZ22" s="58"/>
       <c r="DL22" s="1"/>
       <c r="DO22" s="1"/>
       <c r="EA22" s="1"/>
       <c r="FA22" s="1"/>
       <c r="FH22" s="1"/>
     </row>
-    <row r="23" spans="1:203" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:208" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
         <v>47</v>
       </c>
@@ -3266,15 +3305,15 @@
       <c r="AG23" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="BD23" s="67" t="s">
+      <c r="BD23" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="BE23" s="67"/>
-      <c r="BF23" s="67"/>
-      <c r="BG23" s="67"/>
-      <c r="BH23" s="67"/>
-      <c r="BI23" s="67"/>
-      <c r="BJ23" s="67"/>
+      <c r="BE23" s="59"/>
+      <c r="BF23" s="59"/>
+      <c r="BG23" s="59"/>
+      <c r="BH23" s="59"/>
+      <c r="BI23" s="59"/>
+      <c r="BJ23" s="59"/>
       <c r="BM23" s="44" t="s">
         <v>59</v>
       </c>
@@ -3282,10 +3321,10 @@
       <c r="BV23" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="DD23" s="53" t="s">
+      <c r="DD23" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="DE23" s="53"/>
+      <c r="DE23" s="69"/>
       <c r="DF23" s="40"/>
       <c r="DG23" s="46"/>
       <c r="DH23" s="46"/>
@@ -3309,10 +3348,10 @@
       <c r="DV23" s="46"/>
       <c r="DW23" s="46"/>
       <c r="DX23" s="46"/>
-      <c r="DY23" s="51" t="s">
+      <c r="DY23" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="DZ23" s="52"/>
+      <c r="DZ23" s="68"/>
       <c r="EA23" s="37" t="s">
         <v>60</v>
       </c>
@@ -3331,10 +3370,10 @@
       <c r="EL23" s="41"/>
       <c r="EM23" s="41"/>
       <c r="EN23" s="41"/>
-      <c r="EO23" s="54" t="s">
+      <c r="EO23" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="EP23" s="54"/>
+      <c r="EP23" s="70"/>
       <c r="EQ23" s="48"/>
       <c r="ER23" s="48"/>
       <c r="ES23" s="48"/>
@@ -3360,7 +3399,7 @@
       <c r="FI23" s="48"/>
       <c r="FJ23" s="48"/>
     </row>
-    <row r="24" spans="1:203" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:208" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="BD24" s="32"/>
       <c r="BE24" s="32"/>
       <c r="BF24" s="32"/>
@@ -3370,7 +3409,7 @@
       <c r="BJ24" s="32"/>
       <c r="BK24" s="32"/>
     </row>
-    <row r="25" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:208" x14ac:dyDescent="0.2">
       <c r="BD25" s="31"/>
       <c r="BE25" s="31"/>
       <c r="BF25" s="31"/>
@@ -3380,7 +3419,7 @@
       <c r="BJ25" s="31"/>
       <c r="BK25" s="31"/>
     </row>
-    <row r="26" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:208" x14ac:dyDescent="0.2">
       <c r="BD26" s="31"/>
       <c r="BE26" s="31"/>
       <c r="BF26" s="31"/>
@@ -3390,24 +3429,24 @@
       <c r="BJ26" s="31"/>
       <c r="BK26" s="31"/>
     </row>
-    <row r="27" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:208" x14ac:dyDescent="0.2">
       <c r="B27" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
       <c r="Q27" s="36"/>
@@ -3426,13 +3465,13 @@
       <c r="BD27" s="31"/>
       <c r="BE27" s="31"/>
       <c r="BF27" s="31"/>
-      <c r="BG27" s="64" t="s">
+      <c r="BG27" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="BH27" s="65"/>
-      <c r="BI27" s="65"/>
-      <c r="BJ27" s="65"/>
-      <c r="BK27" s="66"/>
+      <c r="BH27" s="56"/>
+      <c r="BI27" s="56"/>
+      <c r="BJ27" s="56"/>
+      <c r="BK27" s="57"/>
       <c r="EN27" s="1" t="s">
         <v>30</v>
       </c>
@@ -3452,24 +3491,24 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:208" x14ac:dyDescent="0.2">
       <c r="B28" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="70" t="s">
+      <c r="C28" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
       <c r="O28" s="36"/>
       <c r="P28" s="36"/>
       <c r="Q28" s="36"/>
@@ -3488,13 +3527,13 @@
       <c r="BD28" s="31"/>
       <c r="BE28" s="31"/>
       <c r="BF28" s="31"/>
-      <c r="BG28" s="64" t="s">
+      <c r="BG28" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="BH28" s="65"/>
-      <c r="BI28" s="65"/>
-      <c r="BJ28" s="65"/>
-      <c r="BK28" s="66"/>
+      <c r="BH28" s="56"/>
+      <c r="BI28" s="56"/>
+      <c r="BJ28" s="56"/>
+      <c r="BK28" s="57"/>
       <c r="DQ28" s="1" t="s">
         <v>27</v>
       </c>
@@ -3507,7 +3546,7 @@
       <c r="EX28" s="1"/>
       <c r="FA28" s="1"/>
     </row>
-    <row r="29" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:208" x14ac:dyDescent="0.2">
       <c r="DQ29" s="1"/>
       <c r="EN29" s="1"/>
       <c r="ER29" s="1"/>
@@ -3516,11 +3555,11 @@
       <c r="EX29" s="1"/>
       <c r="FA29" s="1"/>
     </row>
-    <row r="30" spans="1:203" x14ac:dyDescent="0.2">
-      <c r="A30" s="60" t="s">
+    <row r="30" spans="1:208" x14ac:dyDescent="0.2">
+      <c r="A30" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="60"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="16">
         <v>43843</v>
       </c>
@@ -4124,8 +4163,23 @@
       <c r="GU30" s="17">
         <v>44043</v>
       </c>
+      <c r="GV30" s="17">
+        <v>44044</v>
+      </c>
+      <c r="GW30" s="17">
+        <v>44045</v>
+      </c>
+      <c r="GX30" s="17">
+        <v>44046</v>
+      </c>
+      <c r="GY30" s="17">
+        <v>44047</v>
+      </c>
+      <c r="GZ30" s="17">
+        <v>44048</v>
+      </c>
     </row>
-    <row r="31" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:208" x14ac:dyDescent="0.2">
       <c r="B31" s="9" t="s">
         <v>17</v>
       </c>
@@ -4175,7 +4229,7 @@
       <c r="FA31" s="1"/>
       <c r="FH31" s="1"/>
     </row>
-    <row r="32" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:208" x14ac:dyDescent="0.2">
       <c r="B32" s="9" t="s">
         <v>22</v>
       </c>
@@ -4270,21 +4324,21 @@
       <c r="AE33" s="9"/>
       <c r="AF33" s="9"/>
       <c r="BM33" s="1"/>
-      <c r="BN33" s="55" t="s">
+      <c r="BN33" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="BO33" s="55"/>
-      <c r="BP33" s="55"/>
-      <c r="BQ33" s="55"/>
-      <c r="BR33" s="55"/>
-      <c r="BS33" s="55"/>
-      <c r="BV33" s="55" t="s">
+      <c r="BO33" s="58"/>
+      <c r="BP33" s="58"/>
+      <c r="BQ33" s="58"/>
+      <c r="BR33" s="58"/>
+      <c r="BS33" s="58"/>
+      <c r="BV33" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="BW33" s="55"/>
-      <c r="BX33" s="55"/>
-      <c r="BY33" s="55"/>
-      <c r="BZ33" s="55"/>
+      <c r="BW33" s="58"/>
+      <c r="BX33" s="58"/>
+      <c r="BY33" s="58"/>
+      <c r="BZ33" s="58"/>
       <c r="DL33" s="1"/>
       <c r="DO33" s="1"/>
       <c r="EA33" s="1"/>
@@ -4328,15 +4382,15 @@
       <c r="AG34" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="BD34" s="67" t="s">
+      <c r="BD34" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="BE34" s="67"/>
-      <c r="BF34" s="67"/>
-      <c r="BG34" s="67"/>
-      <c r="BH34" s="67"/>
-      <c r="BI34" s="67"/>
-      <c r="BJ34" s="67"/>
+      <c r="BE34" s="59"/>
+      <c r="BF34" s="59"/>
+      <c r="BG34" s="59"/>
+      <c r="BH34" s="59"/>
+      <c r="BI34" s="59"/>
+      <c r="BJ34" s="59"/>
       <c r="BM34" s="44" t="s">
         <v>59</v>
       </c>
@@ -4344,10 +4398,10 @@
       <c r="BV34" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="DD34" s="53" t="s">
+      <c r="DD34" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="DE34" s="53"/>
+      <c r="DE34" s="69"/>
       <c r="DF34" s="40"/>
       <c r="DG34" s="46"/>
       <c r="DH34" s="46"/>
@@ -4371,10 +4425,10 @@
       <c r="DV34" s="46"/>
       <c r="DW34" s="46"/>
       <c r="DX34" s="46"/>
-      <c r="DY34" s="51" t="s">
+      <c r="DY34" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="DZ34" s="52"/>
+      <c r="DZ34" s="68"/>
       <c r="EA34" s="37" t="s">
         <v>60</v>
       </c>
@@ -4393,10 +4447,10 @@
       <c r="EL34" s="41"/>
       <c r="EM34" s="41"/>
       <c r="EN34" s="41"/>
-      <c r="EO34" s="54" t="s">
+      <c r="EO34" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="EP34" s="54"/>
+      <c r="EP34" s="70"/>
       <c r="EQ34" s="48"/>
       <c r="ER34" s="48"/>
       <c r="ES34" s="48"/>
@@ -4424,10 +4478,10 @@
     </row>
     <row r="35" spans="1:166" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="50"/>
+      <c r="B37" s="66"/>
     </row>
     <row r="38" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
@@ -4507,6 +4561,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="DY14:DZ14"/>
+    <mergeCell ref="DD14:DE14"/>
+    <mergeCell ref="EO14:EP14"/>
+    <mergeCell ref="DD23:DE23"/>
+    <mergeCell ref="DY23:DZ23"/>
+    <mergeCell ref="EO23:EP23"/>
+    <mergeCell ref="DD34:DE34"/>
+    <mergeCell ref="DY34:DZ34"/>
+    <mergeCell ref="EO34:EP34"/>
+    <mergeCell ref="BV33:BZ33"/>
+    <mergeCell ref="BN33:BS33"/>
+    <mergeCell ref="BD34:BJ34"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="BN13:BS13"/>
+    <mergeCell ref="BV13:BZ13"/>
+    <mergeCell ref="BN22:BS22"/>
+    <mergeCell ref="C6:N6"/>
     <mergeCell ref="DZ11:EM11"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A19:B19"/>
@@ -4523,25 +4596,6 @@
     <mergeCell ref="C16:N16"/>
     <mergeCell ref="C28:N28"/>
     <mergeCell ref="C27:N27"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="BN13:BS13"/>
-    <mergeCell ref="BV13:BZ13"/>
-    <mergeCell ref="BN22:BS22"/>
-    <mergeCell ref="C6:N6"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="DY14:DZ14"/>
-    <mergeCell ref="DD14:DE14"/>
-    <mergeCell ref="EO14:EP14"/>
-    <mergeCell ref="DD23:DE23"/>
-    <mergeCell ref="DY23:DZ23"/>
-    <mergeCell ref="EO23:EP23"/>
-    <mergeCell ref="DD34:DE34"/>
-    <mergeCell ref="DY34:DZ34"/>
-    <mergeCell ref="EO34:EP34"/>
-    <mergeCell ref="BV33:BZ33"/>
-    <mergeCell ref="BN33:BS33"/>
-    <mergeCell ref="BD34:BJ34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/references/utx000ext_timelines.xlsx
+++ b/references/utx000ext_timelines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hagenfritz/Projects/utx000/references/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90E6875-05F9-9D45-BFA2-BC7B1A6FF109}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34B15FB-ABA7-704C-9E7A-B49E3A0052E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A42CCD86-71DD-4C4D-87F8-705DB24E1636}"/>
+    <workbookView xWindow="30220" yWindow="1900" windowWidth="28800" windowHeight="17540" xr2:uid="{A42CCD86-71DD-4C4D-87F8-705DB24E1636}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -628,6 +628,39 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -652,43 +685,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1005,11 +1005,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D07724-71E6-3C40-BDBC-6CE123708DF5}">
-  <dimension ref="A1:GZ43"/>
+  <dimension ref="A1:JD43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="GL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="GQ7" sqref="GQ7"/>
+      <pane xSplit="2" topLeftCell="FX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="GA11" sqref="GA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1020,7 +1020,7 @@
   <sheetData>
     <row r="1" spans="1:208" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:208" x14ac:dyDescent="0.2">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="57" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="33"/>
@@ -1064,7 +1064,7 @@
       </c>
     </row>
     <row r="3" spans="1:208" x14ac:dyDescent="0.2">
-      <c r="B3" s="62"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
@@ -1103,7 +1103,7 @@
       <c r="FJ3" s="1"/>
     </row>
     <row r="4" spans="1:208" x14ac:dyDescent="0.2">
-      <c r="B4" s="62"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
@@ -1150,7 +1150,7 @@
       </c>
     </row>
     <row r="5" spans="1:208" x14ac:dyDescent="0.2">
-      <c r="B5" s="62"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
@@ -1193,21 +1193,21 @@
       <c r="FJ5" s="1"/>
     </row>
     <row r="6" spans="1:208" x14ac:dyDescent="0.2">
-      <c r="B6" s="62"/>
-      <c r="C6" s="65" t="s">
+      <c r="B6" s="57"/>
+      <c r="C6" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
       <c r="Q6" s="33"/>
@@ -1254,7 +1254,7 @@
       </c>
     </row>
     <row r="7" spans="1:208" x14ac:dyDescent="0.2">
-      <c r="B7" s="62"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
@@ -1296,10 +1296,10 @@
       <c r="FJ7" s="1"/>
     </row>
     <row r="8" spans="1:208" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="52"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="16">
         <v>43843</v>
       </c>
@@ -1957,17 +1957,17 @@
       <c r="AH9" s="9"/>
       <c r="BM9" s="1"/>
       <c r="BU9" s="25"/>
-      <c r="DA9" s="54" t="s">
+      <c r="DA9" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="DB9" s="54"/>
-      <c r="DC9" s="54"/>
-      <c r="DD9" s="54"/>
-      <c r="DE9" s="54"/>
-      <c r="DF9" s="54"/>
-      <c r="DG9" s="54"/>
-      <c r="DH9" s="54"/>
-      <c r="DI9" s="54"/>
+      <c r="DB9" s="65"/>
+      <c r="DC9" s="65"/>
+      <c r="DD9" s="65"/>
+      <c r="DE9" s="65"/>
+      <c r="DF9" s="65"/>
+      <c r="DG9" s="65"/>
+      <c r="DH9" s="65"/>
+      <c r="DI9" s="65"/>
       <c r="DL9" s="1"/>
       <c r="DO9" s="1"/>
       <c r="EA9" s="1"/>
@@ -2066,22 +2066,22 @@
       <c r="BU11" s="25"/>
       <c r="DL11" s="1"/>
       <c r="DO11" s="1"/>
-      <c r="DZ11" s="50" t="s">
+      <c r="DZ11" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="EA11" s="50"/>
-      <c r="EB11" s="50"/>
-      <c r="EC11" s="50"/>
-      <c r="ED11" s="50"/>
-      <c r="EE11" s="50"/>
-      <c r="EF11" s="50"/>
-      <c r="EG11" s="50"/>
-      <c r="EH11" s="50"/>
-      <c r="EI11" s="50"/>
-      <c r="EJ11" s="50"/>
-      <c r="EK11" s="50"/>
-      <c r="EL11" s="50"/>
-      <c r="EM11" s="50"/>
+      <c r="EA11" s="61"/>
+      <c r="EB11" s="61"/>
+      <c r="EC11" s="61"/>
+      <c r="ED11" s="61"/>
+      <c r="EE11" s="61"/>
+      <c r="EF11" s="61"/>
+      <c r="EG11" s="61"/>
+      <c r="EH11" s="61"/>
+      <c r="EI11" s="61"/>
+      <c r="EJ11" s="61"/>
+      <c r="EK11" s="61"/>
+      <c r="EL11" s="61"/>
+      <c r="EM11" s="61"/>
       <c r="FA11" s="1"/>
       <c r="FH11" s="1"/>
     </row>
@@ -2166,22 +2166,22 @@
       <c r="AE13" s="9"/>
       <c r="AF13" s="9"/>
       <c r="BM13" s="1"/>
-      <c r="BN13" s="58" t="s">
+      <c r="BN13" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="BO13" s="58"/>
-      <c r="BP13" s="58"/>
-      <c r="BQ13" s="58"/>
-      <c r="BR13" s="58"/>
-      <c r="BS13" s="58"/>
+      <c r="BO13" s="55"/>
+      <c r="BP13" s="55"/>
+      <c r="BQ13" s="55"/>
+      <c r="BR13" s="55"/>
+      <c r="BS13" s="55"/>
       <c r="BU13" s="25"/>
-      <c r="BV13" s="64" t="s">
+      <c r="BV13" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="BW13" s="58"/>
-      <c r="BX13" s="58"/>
-      <c r="BY13" s="58"/>
-      <c r="BZ13" s="58"/>
+      <c r="BW13" s="55"/>
+      <c r="BX13" s="55"/>
+      <c r="BY13" s="55"/>
+      <c r="BZ13" s="55"/>
       <c r="DL13" s="1"/>
       <c r="DO13" s="1"/>
       <c r="EA13" s="1"/>
@@ -2226,15 +2226,15 @@
       <c r="AG14" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="BD14" s="59" t="s">
+      <c r="BD14" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="BE14" s="59"/>
-      <c r="BF14" s="59"/>
-      <c r="BG14" s="59"/>
-      <c r="BH14" s="59"/>
-      <c r="BI14" s="59"/>
-      <c r="BJ14" s="59"/>
+      <c r="BE14" s="56"/>
+      <c r="BF14" s="56"/>
+      <c r="BG14" s="56"/>
+      <c r="BH14" s="56"/>
+      <c r="BI14" s="56"/>
+      <c r="BJ14" s="56"/>
       <c r="BM14" s="44" t="s">
         <v>59</v>
       </c>
@@ -2242,10 +2242,10 @@
       <c r="BV14" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="DD14" s="69" t="s">
+      <c r="DD14" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="DE14" s="69"/>
+      <c r="DE14" s="53"/>
       <c r="DF14" s="40"/>
       <c r="DG14" s="46"/>
       <c r="DH14" s="46"/>
@@ -2269,10 +2269,10 @@
       <c r="DV14" s="46"/>
       <c r="DW14" s="46"/>
       <c r="DX14" s="46"/>
-      <c r="DY14" s="67" t="s">
+      <c r="DY14" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="DZ14" s="68"/>
+      <c r="DZ14" s="52"/>
       <c r="EA14" s="37" t="s">
         <v>60</v>
       </c>
@@ -2291,10 +2291,10 @@
       <c r="EL14" s="41"/>
       <c r="EM14" s="41"/>
       <c r="EN14" s="41"/>
-      <c r="EO14" s="70" t="s">
+      <c r="EO14" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="EP14" s="70"/>
+      <c r="EP14" s="54"/>
       <c r="EQ14" s="48"/>
       <c r="ER14" s="48"/>
       <c r="ES14" s="48"/>
@@ -2322,23 +2322,23 @@
     </row>
     <row r="15" spans="1:208" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:208" x14ac:dyDescent="0.2">
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
@@ -2360,30 +2360,30 @@
       <c r="BD16" s="31"/>
       <c r="BE16" s="31"/>
       <c r="BF16" s="31"/>
-      <c r="BG16" s="55" t="s">
+      <c r="BG16" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="BH16" s="56"/>
-      <c r="BI16" s="56"/>
-      <c r="BJ16" s="56"/>
-      <c r="BK16" s="57"/>
+      <c r="BH16" s="67"/>
+      <c r="BI16" s="67"/>
+      <c r="BJ16" s="67"/>
+      <c r="BK16" s="68"/>
     </row>
-    <row r="17" spans="1:208" x14ac:dyDescent="0.2">
-      <c r="B17" s="63"/>
-      <c r="C17" s="60" t="s">
+    <row r="17" spans="1:264" x14ac:dyDescent="0.2">
+      <c r="B17" s="58"/>
+      <c r="C17" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
@@ -2405,13 +2405,13 @@
       <c r="BD17" s="31"/>
       <c r="BE17" s="31"/>
       <c r="BF17" s="31"/>
-      <c r="BG17" s="55" t="s">
+      <c r="BG17" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="BH17" s="56"/>
-      <c r="BI17" s="56"/>
-      <c r="BJ17" s="56"/>
-      <c r="BK17" s="57"/>
+      <c r="BH17" s="67"/>
+      <c r="BI17" s="67"/>
+      <c r="BJ17" s="67"/>
+      <c r="BK17" s="68"/>
       <c r="DA17" s="1" t="s">
         <v>12</v>
       </c>
@@ -2422,8 +2422,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:208" x14ac:dyDescent="0.2">
-      <c r="B18" s="63"/>
+    <row r="18" spans="1:264" x14ac:dyDescent="0.2">
+      <c r="B18" s="58"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
@@ -2466,11 +2466,11 @@
       <c r="DP18" s="1"/>
       <c r="DT18" s="1"/>
     </row>
-    <row r="19" spans="1:208" x14ac:dyDescent="0.2">
-      <c r="A19" s="51" t="s">
+    <row r="19" spans="1:264" x14ac:dyDescent="0.2">
+      <c r="A19" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="53"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="16">
         <v>43843</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>44048</v>
       </c>
     </row>
-    <row r="20" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:264" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>17</v>
       </c>
@@ -3150,7 +3150,7 @@
       <c r="FA20" s="1"/>
       <c r="FH20" s="1"/>
     </row>
-    <row r="21" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:264" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
         <v>22</v>
       </c>
@@ -3204,7 +3204,7 @@
       <c r="FA21" s="1"/>
       <c r="FH21" s="1"/>
     </row>
-    <row r="22" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:264" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
         <v>46</v>
       </c>
@@ -3247,28 +3247,28 @@
       <c r="BJ22" s="31"/>
       <c r="BK22" s="31"/>
       <c r="BM22" s="1"/>
-      <c r="BN22" s="58" t="s">
+      <c r="BN22" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="BO22" s="58"/>
-      <c r="BP22" s="58"/>
-      <c r="BQ22" s="58"/>
-      <c r="BR22" s="58"/>
-      <c r="BS22" s="58"/>
-      <c r="BV22" s="58" t="s">
+      <c r="BO22" s="55"/>
+      <c r="BP22" s="55"/>
+      <c r="BQ22" s="55"/>
+      <c r="BR22" s="55"/>
+      <c r="BS22" s="55"/>
+      <c r="BV22" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="BW22" s="58"/>
-      <c r="BX22" s="58"/>
-      <c r="BY22" s="58"/>
-      <c r="BZ22" s="58"/>
+      <c r="BW22" s="55"/>
+      <c r="BX22" s="55"/>
+      <c r="BY22" s="55"/>
+      <c r="BZ22" s="55"/>
       <c r="DL22" s="1"/>
       <c r="DO22" s="1"/>
       <c r="EA22" s="1"/>
       <c r="FA22" s="1"/>
       <c r="FH22" s="1"/>
     </row>
-    <row r="23" spans="1:208" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:264" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
         <v>47</v>
       </c>
@@ -3305,15 +3305,15 @@
       <c r="AG23" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="BD23" s="59" t="s">
+      <c r="BD23" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="BE23" s="59"/>
-      <c r="BF23" s="59"/>
-      <c r="BG23" s="59"/>
-      <c r="BH23" s="59"/>
-      <c r="BI23" s="59"/>
-      <c r="BJ23" s="59"/>
+      <c r="BE23" s="56"/>
+      <c r="BF23" s="56"/>
+      <c r="BG23" s="56"/>
+      <c r="BH23" s="56"/>
+      <c r="BI23" s="56"/>
+      <c r="BJ23" s="56"/>
       <c r="BM23" s="44" t="s">
         <v>59</v>
       </c>
@@ -3321,10 +3321,10 @@
       <c r="BV23" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="DD23" s="69" t="s">
+      <c r="DD23" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="DE23" s="69"/>
+      <c r="DE23" s="53"/>
       <c r="DF23" s="40"/>
       <c r="DG23" s="46"/>
       <c r="DH23" s="46"/>
@@ -3348,10 +3348,10 @@
       <c r="DV23" s="46"/>
       <c r="DW23" s="46"/>
       <c r="DX23" s="46"/>
-      <c r="DY23" s="67" t="s">
+      <c r="DY23" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="DZ23" s="68"/>
+      <c r="DZ23" s="52"/>
       <c r="EA23" s="37" t="s">
         <v>60</v>
       </c>
@@ -3370,10 +3370,10 @@
       <c r="EL23" s="41"/>
       <c r="EM23" s="41"/>
       <c r="EN23" s="41"/>
-      <c r="EO23" s="70" t="s">
+      <c r="EO23" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="EP23" s="70"/>
+      <c r="EP23" s="54"/>
       <c r="EQ23" s="48"/>
       <c r="ER23" s="48"/>
       <c r="ES23" s="48"/>
@@ -3399,7 +3399,7 @@
       <c r="FI23" s="48"/>
       <c r="FJ23" s="48"/>
     </row>
-    <row r="24" spans="1:208" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:264" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="BD24" s="32"/>
       <c r="BE24" s="32"/>
       <c r="BF24" s="32"/>
@@ -3409,7 +3409,7 @@
       <c r="BJ24" s="32"/>
       <c r="BK24" s="32"/>
     </row>
-    <row r="25" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:264" x14ac:dyDescent="0.2">
       <c r="BD25" s="31"/>
       <c r="BE25" s="31"/>
       <c r="BF25" s="31"/>
@@ -3419,7 +3419,7 @@
       <c r="BJ25" s="31"/>
       <c r="BK25" s="31"/>
     </row>
-    <row r="26" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:264" x14ac:dyDescent="0.2">
       <c r="BD26" s="31"/>
       <c r="BE26" s="31"/>
       <c r="BF26" s="31"/>
@@ -3429,24 +3429,24 @@
       <c r="BJ26" s="31"/>
       <c r="BK26" s="31"/>
     </row>
-    <row r="27" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:264" x14ac:dyDescent="0.2">
       <c r="B27" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
       <c r="Q27" s="36"/>
@@ -3465,13 +3465,13 @@
       <c r="BD27" s="31"/>
       <c r="BE27" s="31"/>
       <c r="BF27" s="31"/>
-      <c r="BG27" s="55" t="s">
+      <c r="BG27" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="BH27" s="56"/>
-      <c r="BI27" s="56"/>
-      <c r="BJ27" s="56"/>
-      <c r="BK27" s="57"/>
+      <c r="BH27" s="67"/>
+      <c r="BI27" s="67"/>
+      <c r="BJ27" s="67"/>
+      <c r="BK27" s="68"/>
       <c r="EN27" s="1" t="s">
         <v>30</v>
       </c>
@@ -3491,24 +3491,24 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:264" x14ac:dyDescent="0.2">
       <c r="B28" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="61"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
       <c r="O28" s="36"/>
       <c r="P28" s="36"/>
       <c r="Q28" s="36"/>
@@ -3527,13 +3527,13 @@
       <c r="BD28" s="31"/>
       <c r="BE28" s="31"/>
       <c r="BF28" s="31"/>
-      <c r="BG28" s="55" t="s">
+      <c r="BG28" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="BH28" s="56"/>
-      <c r="BI28" s="56"/>
-      <c r="BJ28" s="56"/>
-      <c r="BK28" s="57"/>
+      <c r="BH28" s="67"/>
+      <c r="BI28" s="67"/>
+      <c r="BJ28" s="67"/>
+      <c r="BK28" s="68"/>
       <c r="DQ28" s="1" t="s">
         <v>27</v>
       </c>
@@ -3546,7 +3546,7 @@
       <c r="EX28" s="1"/>
       <c r="FA28" s="1"/>
     </row>
-    <row r="29" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:264" x14ac:dyDescent="0.2">
       <c r="DQ29" s="1"/>
       <c r="EN29" s="1"/>
       <c r="ER29" s="1"/>
@@ -3555,11 +3555,11 @@
       <c r="EX29" s="1"/>
       <c r="FA29" s="1"/>
     </row>
-    <row r="30" spans="1:208" x14ac:dyDescent="0.2">
-      <c r="A30" s="51" t="s">
+    <row r="30" spans="1:264" x14ac:dyDescent="0.2">
+      <c r="A30" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="51"/>
+      <c r="B30" s="62"/>
       <c r="C30" s="16">
         <v>43843</v>
       </c>
@@ -4178,8 +4178,176 @@
       <c r="GZ30" s="17">
         <v>44048</v>
       </c>
+      <c r="HA30" s="17">
+        <v>44049</v>
+      </c>
+      <c r="HB30" s="17">
+        <v>44050</v>
+      </c>
+      <c r="HC30" s="17">
+        <v>44051</v>
+      </c>
+      <c r="HD30" s="17">
+        <v>44052</v>
+      </c>
+      <c r="HE30" s="17">
+        <v>44053</v>
+      </c>
+      <c r="HF30" s="17">
+        <v>44054</v>
+      </c>
+      <c r="HG30" s="17">
+        <v>44055</v>
+      </c>
+      <c r="HH30" s="17">
+        <v>44056</v>
+      </c>
+      <c r="HI30" s="17">
+        <v>44057</v>
+      </c>
+      <c r="HJ30" s="17">
+        <v>44058</v>
+      </c>
+      <c r="HK30" s="17">
+        <v>44059</v>
+      </c>
+      <c r="HL30" s="17">
+        <v>44060</v>
+      </c>
+      <c r="HM30" s="17">
+        <v>44061</v>
+      </c>
+      <c r="HN30" s="17">
+        <v>44062</v>
+      </c>
+      <c r="HO30" s="17">
+        <v>44063</v>
+      </c>
+      <c r="HP30" s="17">
+        <v>44064</v>
+      </c>
+      <c r="HQ30" s="17">
+        <v>44065</v>
+      </c>
+      <c r="HR30" s="17">
+        <v>44066</v>
+      </c>
+      <c r="HS30" s="17">
+        <v>44067</v>
+      </c>
+      <c r="HT30" s="17">
+        <v>44068</v>
+      </c>
+      <c r="HU30" s="17">
+        <v>44069</v>
+      </c>
+      <c r="HV30" s="17">
+        <v>44070</v>
+      </c>
+      <c r="HW30" s="17">
+        <v>44071</v>
+      </c>
+      <c r="HX30" s="17">
+        <v>44072</v>
+      </c>
+      <c r="HY30" s="17">
+        <v>44073</v>
+      </c>
+      <c r="HZ30" s="17">
+        <v>44074</v>
+      </c>
+      <c r="IA30" s="17">
+        <v>44075</v>
+      </c>
+      <c r="IB30" s="17">
+        <v>44076</v>
+      </c>
+      <c r="IC30" s="17">
+        <v>44077</v>
+      </c>
+      <c r="ID30" s="17">
+        <v>44078</v>
+      </c>
+      <c r="IE30" s="17">
+        <v>44079</v>
+      </c>
+      <c r="IF30" s="17">
+        <v>44080</v>
+      </c>
+      <c r="IG30" s="17">
+        <v>44081</v>
+      </c>
+      <c r="IH30" s="17">
+        <v>44082</v>
+      </c>
+      <c r="II30" s="17">
+        <v>44083</v>
+      </c>
+      <c r="IJ30" s="17">
+        <v>44084</v>
+      </c>
+      <c r="IK30" s="17">
+        <v>44085</v>
+      </c>
+      <c r="IL30" s="17">
+        <v>44086</v>
+      </c>
+      <c r="IM30" s="17">
+        <v>44087</v>
+      </c>
+      <c r="IN30" s="17">
+        <v>44088</v>
+      </c>
+      <c r="IO30" s="17">
+        <v>44089</v>
+      </c>
+      <c r="IP30" s="17">
+        <v>44090</v>
+      </c>
+      <c r="IQ30" s="17">
+        <v>44091</v>
+      </c>
+      <c r="IR30" s="17">
+        <v>44092</v>
+      </c>
+      <c r="IS30" s="17">
+        <v>44093</v>
+      </c>
+      <c r="IT30" s="17">
+        <v>44094</v>
+      </c>
+      <c r="IU30" s="17">
+        <v>44095</v>
+      </c>
+      <c r="IV30" s="17">
+        <v>44096</v>
+      </c>
+      <c r="IW30" s="17">
+        <v>44097</v>
+      </c>
+      <c r="IX30" s="17">
+        <v>44098</v>
+      </c>
+      <c r="IY30" s="17">
+        <v>44099</v>
+      </c>
+      <c r="IZ30" s="17">
+        <v>44100</v>
+      </c>
+      <c r="JA30" s="17">
+        <v>44101</v>
+      </c>
+      <c r="JB30" s="17">
+        <v>44102</v>
+      </c>
+      <c r="JC30" s="17">
+        <v>44103</v>
+      </c>
+      <c r="JD30" s="17">
+        <v>44104</v>
+      </c>
     </row>
-    <row r="31" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:264" x14ac:dyDescent="0.2">
       <c r="B31" s="9" t="s">
         <v>17</v>
       </c>
@@ -4229,7 +4397,7 @@
       <c r="FA31" s="1"/>
       <c r="FH31" s="1"/>
     </row>
-    <row r="32" spans="1:208" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:264" x14ac:dyDescent="0.2">
       <c r="B32" s="9" t="s">
         <v>22</v>
       </c>
@@ -4324,21 +4492,21 @@
       <c r="AE33" s="9"/>
       <c r="AF33" s="9"/>
       <c r="BM33" s="1"/>
-      <c r="BN33" s="58" t="s">
+      <c r="BN33" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="BO33" s="58"/>
-      <c r="BP33" s="58"/>
-      <c r="BQ33" s="58"/>
-      <c r="BR33" s="58"/>
-      <c r="BS33" s="58"/>
-      <c r="BV33" s="58" t="s">
+      <c r="BO33" s="55"/>
+      <c r="BP33" s="55"/>
+      <c r="BQ33" s="55"/>
+      <c r="BR33" s="55"/>
+      <c r="BS33" s="55"/>
+      <c r="BV33" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="BW33" s="58"/>
-      <c r="BX33" s="58"/>
-      <c r="BY33" s="58"/>
-      <c r="BZ33" s="58"/>
+      <c r="BW33" s="55"/>
+      <c r="BX33" s="55"/>
+      <c r="BY33" s="55"/>
+      <c r="BZ33" s="55"/>
       <c r="DL33" s="1"/>
       <c r="DO33" s="1"/>
       <c r="EA33" s="1"/>
@@ -4382,15 +4550,15 @@
       <c r="AG34" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="BD34" s="59" t="s">
+      <c r="BD34" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="BE34" s="59"/>
-      <c r="BF34" s="59"/>
-      <c r="BG34" s="59"/>
-      <c r="BH34" s="59"/>
-      <c r="BI34" s="59"/>
-      <c r="BJ34" s="59"/>
+      <c r="BE34" s="56"/>
+      <c r="BF34" s="56"/>
+      <c r="BG34" s="56"/>
+      <c r="BH34" s="56"/>
+      <c r="BI34" s="56"/>
+      <c r="BJ34" s="56"/>
       <c r="BM34" s="44" t="s">
         <v>59</v>
       </c>
@@ -4398,10 +4566,10 @@
       <c r="BV34" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="DD34" s="69" t="s">
+      <c r="DD34" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="DE34" s="69"/>
+      <c r="DE34" s="53"/>
       <c r="DF34" s="40"/>
       <c r="DG34" s="46"/>
       <c r="DH34" s="46"/>
@@ -4425,10 +4593,10 @@
       <c r="DV34" s="46"/>
       <c r="DW34" s="46"/>
       <c r="DX34" s="46"/>
-      <c r="DY34" s="67" t="s">
+      <c r="DY34" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="DZ34" s="68"/>
+      <c r="DZ34" s="52"/>
       <c r="EA34" s="37" t="s">
         <v>60</v>
       </c>
@@ -4447,10 +4615,10 @@
       <c r="EL34" s="41"/>
       <c r="EM34" s="41"/>
       <c r="EN34" s="41"/>
-      <c r="EO34" s="70" t="s">
+      <c r="EO34" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="EP34" s="70"/>
+      <c r="EP34" s="54"/>
       <c r="EQ34" s="48"/>
       <c r="ER34" s="48"/>
       <c r="ES34" s="48"/>
@@ -4478,10 +4646,10 @@
     </row>
     <row r="35" spans="1:166" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:166" x14ac:dyDescent="0.2">
-      <c r="A37" s="66" t="s">
+      <c r="A37" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="66"/>
+      <c r="B37" s="50"/>
     </row>
     <row r="38" spans="1:166" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
@@ -4561,25 +4729,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="DY14:DZ14"/>
-    <mergeCell ref="DD14:DE14"/>
-    <mergeCell ref="EO14:EP14"/>
-    <mergeCell ref="DD23:DE23"/>
-    <mergeCell ref="DY23:DZ23"/>
-    <mergeCell ref="EO23:EP23"/>
-    <mergeCell ref="DD34:DE34"/>
-    <mergeCell ref="DY34:DZ34"/>
-    <mergeCell ref="EO34:EP34"/>
-    <mergeCell ref="BV33:BZ33"/>
-    <mergeCell ref="BN33:BS33"/>
-    <mergeCell ref="BD34:BJ34"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="BN13:BS13"/>
-    <mergeCell ref="BV13:BZ13"/>
-    <mergeCell ref="BN22:BS22"/>
-    <mergeCell ref="C6:N6"/>
     <mergeCell ref="DZ11:EM11"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A19:B19"/>
@@ -4596,6 +4745,25 @@
     <mergeCell ref="C16:N16"/>
     <mergeCell ref="C28:N28"/>
     <mergeCell ref="C27:N27"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="BN13:BS13"/>
+    <mergeCell ref="BV13:BZ13"/>
+    <mergeCell ref="BN22:BS22"/>
+    <mergeCell ref="C6:N6"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="DY14:DZ14"/>
+    <mergeCell ref="DD14:DE14"/>
+    <mergeCell ref="EO14:EP14"/>
+    <mergeCell ref="DD23:DE23"/>
+    <mergeCell ref="DY23:DZ23"/>
+    <mergeCell ref="EO23:EP23"/>
+    <mergeCell ref="DD34:DE34"/>
+    <mergeCell ref="DY34:DZ34"/>
+    <mergeCell ref="EO34:EP34"/>
+    <mergeCell ref="BV33:BZ33"/>
+    <mergeCell ref="BN33:BS33"/>
+    <mergeCell ref="BD34:BJ34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
